--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>4.25开始传闻央行初步进入二级市场直接购买国债，4.28,4.29连续两天两市放量上涨，
 创业板涨幅最大总成交额达到12000，达到年后反弹期间的水平，29日涨停超过100家</t>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>四月份美国非农就业人口的增加。这个数字比三月的303,000人低了近30%，也比预计的240,000人低了近30%。</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>2024.5.9</t>
+  </si>
+  <si>
+    <t>以色列通过决议进攻拉法</t>
+  </si>
+  <si>
+    <t>集运指数欧线大涨12%</t>
   </si>
 </sst>
 </file>
@@ -650,12 +671,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -981,8 +999,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1003,7 +1021,7 @@
       <c r="A2">
         <v>5.4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1061,14 +1079,49 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="53.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
   <si>
     <t>4.25开始传闻央行初步进入二级市场直接购买国债，4.28,4.29连续两天两市放量上涨，
 创业板涨幅最大总成交额达到12000，达到年后反弹期间的水平，29日涨停超过100家</t>
   </si>
   <si>
-    <t>四月份美国非农就业人口的增加。
+    <t>三指均出现一周的强势反弹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四月份美国非农就业人口的增加。
 这个数字比三月的303,000人低了近30%，
 也比预计的240,000人低了近30%。
-美元兑人民币大幅回调至7.16，港股和中该股连续上涨</t>
+</t>
+  </si>
+  <si>
+    <t>美元兑人民币大幅回调至7.16，港股和中该股连续上涨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">央行公布的2024年4月金融统计数据显示，前4个月人民币贷款增加10.19万亿元，其中4月新增人民币贷款7300亿元。
+</t>
+  </si>
+  <si>
+    <t>5.13A股开盘三指均下跌，人民币兑美元持续回落到7.23</t>
+  </si>
+  <si>
+    <t>另外，4月末M2（广义货币）、M1（狭义货币）继续回落，M2同比增速为7.2%，M1同比下降1.4%，两项数据分别比上月末低1.1个、2.5个百分点。
+《每日经济新闻》记者注意到，至此M2-M1“剪刀差”进一步扩大至8.6个百分点。</t>
+  </si>
+  <si>
+    <t>2024年前4个月社会融资规模增量累计为12.73万亿元，比上年同期少3.04万亿元。
+同期，社会融资规模存量为389.93万亿元，同比增长8.3%。</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -44,9 +77,6 @@
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>结果</t>
   </si>
   <si>
     <t>2024.5.9</t>
@@ -671,9 +701,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -997,32 +1030,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="75" customHeight="1" spans="1:2">
-      <c r="A1">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:2">
-      <c r="A2">
+    <row r="3" ht="109" customHeight="1" spans="1:3">
+      <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="120" customHeight="1" spans="1:3">
+      <c r="A4">
+        <v>5.11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:2">
+      <c r="A5">
+        <v>5.11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="63" customHeight="1" spans="1:2">
+      <c r="A6">
+        <v>5.11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1133,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1059,7 +1141,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1067,7 +1149,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1163,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1095,16 +1177,16 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -1112,13 +1194,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -54,11 +54,15 @@
   </si>
   <si>
     <t>另外，4月末M2（广义货币）、M1（狭义货币）继续回落，M2同比增速为7.2%，M1同比下降1.4%，两项数据分别比上月末低1.1个、2.5个百分点。
-《每日经济新闻》记者注意到，至此M2-M1“剪刀差”进一步扩大至8.6个百分点。</t>
-  </si>
-  <si>
-    <t>2024年前4个月社会融资规模增量累计为12.73万亿元，比上年同期少3.04万亿元。
+《每日经济新闻》记者注意到，至此M2-M1“剪刀差”进一步扩大至8.6个百分点。
+2024年前4个月社会融资规模增量累计为12.73万亿元，比上年同期少3.04万亿元。
 同期，社会融资规模存量为389.93万亿元，同比增长8.3%。</t>
+  </si>
+  <si>
+    <t>其中，4月社融减少1987亿元，这是2005年10月后社融首次出现单月减少情况。</t>
+  </si>
+  <si>
+    <t>财政部：超长期特别国债将在5月17日发行</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -98,10 +102,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,34 +582,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,94 +618,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,8 +719,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
@@ -1084,27 +1095,35 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="71" customHeight="1" spans="1:2">
+    <row r="5" ht="97" customHeight="1" spans="1:2">
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="63" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6">
         <v>5.11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7">
+        <v>5.13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1152,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1141,7 +1160,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1149,7 +1168,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1196,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1194,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>其中，4月社融减少1987亿元，这是2005年10月后社融首次出现单月减少情况。</t>
+  </si>
+  <si>
+    <t>新一轮降息降准很可能到来</t>
   </si>
   <si>
     <t>财政部：超长期特别国债将在5月17日发行</t>
@@ -1110,12 +1113,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6">
         <v>5.11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1123,7 +1129,7 @@
         <v>5.13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1158,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1160,7 +1166,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1168,7 +1174,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1196,13 +1202,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1213,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>财政部：超长期特别国债将在5月17日发行</t>
+  </si>
+  <si>
+    <t>OpenAI发布了一款新的旗舰生成式AI模型“GPT-4o”，其中的“o”代表“omni”（全能），
+指的是该模型处理文本、语音和视频的能力。它具有与人类相似的对话能力，令人印象深刻。</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -105,9 +109,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -573,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,34 +597,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,106 +633,118 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,31 +1065,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="75" customWidth="1"/>
+    <col min="2" max="2" width="96.25" customWidth="1"/>
     <col min="3" max="3" width="58.25" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1076,7 +1097,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1087,7 +1108,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1098,7 +1119,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1109,7 +1130,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1117,7 +1138,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1130,6 +1151,14 @@
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="77" customHeight="1" spans="1:2">
+      <c r="A8">
+        <v>5.14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1187,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1166,7 +1195,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1174,7 +1203,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1202,13 +1231,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1219,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -72,6 +72,9 @@
 指的是该模型处理文本、语音和视频的能力。它具有与人类相似的对话能力，令人印象深刻。</t>
   </si>
   <si>
+    <t>传媒，手游，短剧相关股票大涨，紫天科技上涨11%</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -97,6 +100,12 @@
   </si>
   <si>
     <t>集运指数欧线大涨12%</t>
+  </si>
+  <si>
+    <t>2024.5.14</t>
+  </si>
+  <si>
+    <t>集运指数欧线又大涨12%到4000点的历史高位</t>
   </si>
 </sst>
 </file>
@@ -727,11 +736,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -742,9 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1067,7 +1070,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1080,16 +1083,16 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1097,7 +1100,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1108,7 +1111,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1119,7 +1122,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1130,7 +1133,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1138,7 +1141,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1153,12 +1156,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="77" customHeight="1" spans="1:2">
+    <row r="8" ht="77" customHeight="1" spans="1:3">
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1193,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1195,7 +1201,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1203,7 +1209,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1215,15 +1221,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="49.625" customWidth="1"/>
     <col min="4" max="4" width="53.125" customWidth="1"/>
@@ -1231,13 +1237,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1248,13 +1254,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:3">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>集运指数欧线又大涨12%到4000点的历史高位</t>
+  </si>
+  <si>
+    <t>2024.5.16</t>
+  </si>
+  <si>
+    <t>以色列继续在拉法行动，胡赛武装继续美国军舰，</t>
+  </si>
+  <si>
+    <t>集运指数欧线再涨10%到4200点</t>
   </si>
 </sst>
 </file>
@@ -1221,17 +1230,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
     <col min="4" max="4" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1271,6 +1280,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>传媒，手游，短剧相关股票大涨，紫天科技上涨11%</t>
+  </si>
+  <si>
+    <t>一万亿长期国债开始发行，首发400亿元人民币30年期特别国债。</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1077,13 +1080,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="96.25" customWidth="1"/>
@@ -1174,6 +1177,14 @@
       </c>
       <c r="C8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9">
+        <v>5.17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1213,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1210,7 +1221,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1218,7 +1229,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1243,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1246,13 +1257,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1263,32 +1274,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -85,6 +85,13 @@
   </si>
   <si>
     <t>四月份美国非农就业人口的增加。这个数字比三月的303,000人低了近30%，也比预计的240,000人低了近30%。</t>
+  </si>
+  <si>
+    <t>纽约黄金最高到2454美元/盎司，沪铜达到历史高点99840/吨</t>
+  </si>
+  <si>
+    <t>黄金，铜，有色大面积上涨，
+四川黄金，北方铜业领涨，赤峰黄金，山东黄金，云南铜业跟涨</t>
   </si>
   <si>
     <t>序号</t>
@@ -752,11 +759,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1082,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1094,17 +1101,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1112,7 +1119,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1123,7 +1130,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1134,7 +1141,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1145,7 +1152,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1172,7 +1179,7 @@
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1189,6 +1196,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1196,19 +1204,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="2" max="2" width="97.875" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" customHeight="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1">
         <v>4.3</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2">
         <v>4.3</v>
       </c>
@@ -1224,12 +1233,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3">
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4">
+        <v>5.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1257,13 +1277,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1274,32 +1294,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -92,6 +92,17 @@
   <si>
     <t>黄金，铜，有色大面积上涨，
 四川黄金，北方铜业领涨，赤峰黄金，山东黄金，云南铜业跟涨</t>
+  </si>
+  <si>
+    <t>央行将全国层面的首套房贷最低首付比例从20%降至15%，
+二套房贷最低首付比例从30%降至25%，取消商业贷款利率下限，
+下调公积金贷款利率0.25个百分点。</t>
+  </si>
+  <si>
+    <t>房地产板块在前期上涨基础上冲顶，然后进入了1周以上的回调</t>
+  </si>
+  <si>
+    <t>是是</t>
   </si>
   <si>
     <t>序号</t>
@@ -755,9 +766,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1101,17 +1115,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1160,7 +1174,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1204,13 +1218,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="97.875" customWidth="1"/>
@@ -1250,6 +1264,22 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5">
+        <v>5.17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:3">
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1277,13 +1307,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1294,32 +1324,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>集运指数欧线再涨10%到4200点</t>
+  </si>
+  <si>
+    <t>2024.6.4</t>
+  </si>
+  <si>
+    <t>新加坡出现货船拥塞，加上之前美国航母被胡赛武装袭击</t>
+  </si>
+  <si>
+    <t>集运指数欧线再涨9.61%到4614点</t>
   </si>
 </sst>
 </file>
@@ -766,12 +775,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1115,17 +1121,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1174,7 +1180,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1220,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1270,7 +1276,7 @@
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
@@ -1291,13 +1297,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
@@ -1352,6 +1358,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -146,11 +159,28 @@
   <si>
     <t>集运指数欧线再涨9.61%到4614点</t>
   </si>
+  <si>
+    <t>2024.6.7</t>
+  </si>
+  <si>
+    <t>北京时间6月7日晚，数据显示，5月非农就业人口增长27.2万人，
+不仅高于媒体此前调查的所有分析师的预期（12万-25.8万人），也大幅超过共识预期的18万人。</t>
+  </si>
+  <si>
+    <t>COMEX黄金期货主力合约收跌3.34%，创2022年4月22日以来主力合约最大收盘跌幅，报2311.1美元/盎司
+COMEX白银期货主力合约收跌6.69%，报29.27美元/盎司。</t>
+  </si>
+  <si>
+    <t>2024.6.8</t>
+  </si>
+  <si>
+    <t>早间消息，中国央行5月外汇储备数据显示5月份停止增持黄金</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -181,55 +211,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,6 +268,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -319,7 +328,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,49 +364,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,121 +502,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,21 +555,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +587,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,154 +660,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -791,52 +824,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1121,17 +1154,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1139,7 +1172,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1150,7 +1183,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1161,7 +1194,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1172,7 +1205,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1180,7 +1213,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1199,7 +1232,7 @@
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1268,7 +1301,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1276,7 +1309,7 @@
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
@@ -1297,18 +1330,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="D10 C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="53.125" customWidth="1"/>
+    <col min="3" max="3" width="98.625" customWidth="1"/>
+    <col min="4" max="4" width="96.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1369,6 +1402,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>日期</t>
   </si>
@@ -91,6 +78,14 @@
     <t>一万亿长期国债开始发行，首发400亿元人民币30年期特别国债。</t>
   </si>
   <si>
+    <t>人民银行公布我国5月的金融数据:5月末，狭义货币M1余额为64.68万亿元，同比下降4.2%；
+广义货币M2余额为301.85万亿，同比增长7.0%；
+此外，社会融资规模存量391.93万亿元，同比+8.4%</t>
+  </si>
+  <si>
+    <t>此后多天，A股成交量在7000多亿低位</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -115,7 +110,7 @@
     <t>房地产板块在前期上涨基础上冲顶，然后进入了1周以上的回调</t>
   </si>
   <si>
-    <t>是是</t>
+    <t>早间消息，中国央行5月外汇储备数据显示5月份停止增持黄金</t>
   </si>
   <si>
     <t>序号</t>
@@ -172,15 +167,12 @@
   </si>
   <si>
     <t>2024.6.8</t>
-  </si>
-  <si>
-    <t>早间消息，中国央行5月外汇储备数据显示5月份停止增持黄金</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -211,6 +203,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -224,6 +244,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,14 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +304,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +312,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -299,57 +327,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +356,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,24 +422,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,18 +470,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,36 +482,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,24 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +547,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,21 +594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,148 +652,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,64 +804,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1140,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1154,17 +1146,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1172,7 +1164,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1183,7 +1175,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1194,7 +1186,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1205,7 +1197,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1213,7 +1205,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1232,7 +1224,7 @@
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1245,6 +1237,17 @@
       </c>
       <c r="B9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10">
+        <v>6.14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1262,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1275,7 +1278,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1283,7 +1286,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1291,7 +1294,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1299,26 +1302,29 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:3">
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6">
+        <v>6.8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="D10 C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1346,13 +1352,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1363,62 +1369,62 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:3">

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -86,6 +86,15 @@
     <t>此后多天，A股成交量在7000多亿低位</t>
   </si>
   <si>
+    <t>惠誉评级中国主权评级首席分析师Jeremy Zook表示，惠誉将2024年中国GDP增速预测从3月的4.5%上调至4.8%。</t>
+  </si>
+  <si>
+    <t>不过，惠誉也指出，中国经济不会陷入通缩，随着震荡的猪肉价格止跌回升，通胀率将在今年年底升至1.3%。</t>
+  </si>
+  <si>
+    <t>离岸美元兑人民币升至9.27,港股通连续9天流出A股</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -111,6 +120,9 @@
   </si>
   <si>
     <t>早间消息，中国央行5月外汇储备数据显示5月份停止增持黄金</t>
+  </si>
+  <si>
+    <t>离岸美元兑人民币升至9.27</t>
   </si>
   <si>
     <t>序号</t>
@@ -173,11 +185,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -810,8 +823,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1243,11 +1256,35 @@
       <c r="A10">
         <v>6.14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11">
+        <v>6.19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12">
+        <v>6.19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1297,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="97.875" customWidth="1"/>
@@ -1278,7 +1315,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1286,7 +1323,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1294,7 +1331,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1302,10 +1339,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1313,10 +1350,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1324,7 +1361,15 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7">
+        <v>6.2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1352,13 +1397,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1369,62 +1414,62 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:3">

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>离岸美元兑人民币升至9.27,港股通连续9天流出A股</t>
+  </si>
+  <si>
+    <t>上午消息，财政部6月24日公布5月财政收支情况。1—5月，印花税1505亿元，同比下降18.6%。其中，证券交易印花税439亿元，同比下降50.8%。</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1145,16 +1148,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="96.25" customWidth="1"/>
+    <col min="2" max="2" width="107.125" customWidth="1"/>
     <col min="3" max="3" width="58.25" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
@@ -1285,6 +1288,14 @@
       </c>
       <c r="B13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14">
+        <v>6.24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1315,7 +1326,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1323,7 +1334,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1331,7 +1342,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1339,10 +1350,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1350,10 +1361,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1361,7 +1372,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1369,7 +1380,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1408,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1414,62 +1425,62 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:3">

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -98,6 +111,12 @@
     <t>上午消息，财政部6月24日公布5月财政收支情况。1—5月，印花税1505亿元，同比下降18.6%。其中，证券交易印花税439亿元，同比下降50.8%。</t>
   </si>
   <si>
+    <t>openAI宣布将采取额外措施，停止来自不在OpenAI支持的国家、地区名单上的API使用</t>
+  </si>
+  <si>
+    <t>游戏传媒人工智能板块随后反弹</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -125,7 +144,10 @@
     <t>早间消息，中国央行5月外汇储备数据显示5月份停止增持黄金</t>
   </si>
   <si>
-    <t>离岸美元兑人民币升至9.27</t>
+    <t>离岸美元兑人民币升至7.27</t>
+  </si>
+  <si>
+    <t>离岸人民币升至7.30，日元兑美元跌至161</t>
   </si>
   <si>
     <t>序号</t>
@@ -182,12 +204,18 @@
   </si>
   <si>
     <t>2024.6.8</t>
+  </si>
+  <si>
+    <t>2024.6.24</t>
+  </si>
+  <si>
+    <t>集运指数欧线上涨至5400点</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -219,55 +247,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,6 +304,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -357,7 +364,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,49 +400,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,121 +538,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,21 +591,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,6 +623,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,148 +696,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,52 +860,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1148,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1298,6 +1326,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15">
+        <v>6.25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1308,13 +1347,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="97.875" customWidth="1"/>
@@ -1326,7 +1365,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1334,7 +1373,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1342,7 +1381,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1350,10 +1389,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1361,10 +1400,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1372,7 +1411,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1380,7 +1419,15 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8">
+        <v>6.28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1442,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1408,13 +1455,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1425,66 +1472,71 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:3">
-      <c r="C8" s="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>日期</t>
   </si>
@@ -150,6 +137,9 @@
     <t>离岸人民币升至7.30，日元兑美元跌至161</t>
   </si>
   <si>
+    <t>6月30日，国家统计局发布数据显示，6月份，制造业采购经理指数（PMI）为49.5%，与5月份持平；</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -215,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -247,6 +237,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,6 +278,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,14 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +346,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -335,57 +361,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,13 +390,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,24 +456,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,18 +504,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,36 +516,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,24 +540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +581,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -623,21 +628,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,148 +686,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,52 +850,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1347,13 +1337,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="97.875" customWidth="1"/>
@@ -1428,6 +1418,14 @@
       </c>
       <c r="B8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9">
+        <v>6.3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1455,13 +1453,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1472,59 +1470,59 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1532,10 +1530,10 @@
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -104,6 +117,122 @@
     <t>游戏传媒人工智能板块随后反弹</t>
   </si>
   <si>
+    <r>
+      <t>沪深2市成交额为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5803</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿元，较上个交易日缩量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿元，成交额不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿元，创下近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月以来新低。截至目前，两市成交额数据已连续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个交易日不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿元。</t>
+    </r>
+  </si>
+  <si>
+    <t>两市成交量5749亿，连续3天成交量低于6000亿</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -138,6 +267,9 @@
   </si>
   <si>
     <t>6月30日，国家统计局发布数据显示，6月份，制造业采购经理指数（PMI）为49.5%，与5月份持平；</t>
+  </si>
+  <si>
+    <t>人民币回调到7.284</t>
   </si>
   <si>
     <t>序号</t>
@@ -205,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -213,7 +345,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,54 +370,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,6 +432,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -375,10 +492,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -390,49 +534,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,121 +672,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,21 +725,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,6 +757,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,216 +830,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1166,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1180,17 +1327,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1239,7 +1386,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1301,7 +1448,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>6.2</v>
       </c>
       <c r="B13" t="s">
@@ -1325,6 +1472,22 @@
       </c>
       <c r="C15" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16">
+        <v>7.3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1337,9 +1500,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1355,7 +1518,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1363,7 +1526,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1371,7 +1534,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1379,10 +1542,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1390,10 +1553,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1401,7 +1564,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1409,7 +1572,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1417,15 +1580,23 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10">
+        <v>7.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1453,13 +1624,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1470,70 +1641,70 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>日期</t>
   </si>
@@ -118,6 +105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>沪深2市成交额为</t>
     </r>
     <r>
@@ -230,7 +223,13 @@
     </r>
   </si>
   <si>
+    <t>有市场传闻称，有券商近期针对内部人员及其亲属的股票账户启动三年倒查</t>
+  </si>
+  <si>
     <t>两市成交量5749亿，连续3天成交量低于6000亿</t>
+  </si>
+  <si>
+    <t>上证跌至1922，创业板跌至1628，2市总成交量5820，连续4天低于6000亿</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -337,7 +336,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -375,6 +374,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -388,6 +415,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,14 +467,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,6 +483,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -463,57 +498,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,13 +533,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,24 +599,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,18 +647,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -618,36 +659,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,24 +683,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -697,12 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +724,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,21 +771,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,148 +829,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,52 +996,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1313,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1484,10 +1483,26 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18">
+        <v>7.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19">
+        <v>7.6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1502,8 +1517,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -1518,7 +1533,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1526,7 +1541,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1534,7 +1549,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1542,10 +1557,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1553,10 +1568,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1564,7 +1579,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1572,7 +1587,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1580,7 +1595,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1588,7 +1603,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1596,7 +1611,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1624,13 +1639,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1641,70 +1656,70 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -232,6 +232,16 @@
     <t>上证跌至1922，创业板跌至1628，2市总成交量5820，连续4天低于6000亿</t>
   </si>
   <si>
+    <t>上证跌至2904之后开始访谈，与股帮预计2906点的预计一致，国家队开始放量买入中证1000ETF，最终两市成交量放大至7400亿，
+三大指数均明显反弹</t>
+  </si>
+  <si>
+    <t>摩根大通将比亚迪股价上调475港元和440元，预估2024年销量400万</t>
+  </si>
+  <si>
+    <t>2024年6月份，全国居民消费价格同比上涨0.2%。环比下降0.2%</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -271,6 +281,9 @@
     <t>人民币回调到7.284</t>
   </si>
   <si>
+    <t>纽约黄金反弹至2400美元</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -331,18 +344,25 @@
   </si>
   <si>
     <t>集运指数欧线上涨至5400点</t>
+  </si>
+  <si>
+    <t>2024.7.4</t>
+  </si>
+  <si>
+    <t>集运指数欧线上涨至5800点</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -974,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,6 +1012,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1312,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1505,6 +1531,30 @@
         <v>28</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1515,10 +1565,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -1533,7 +1583,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1541,7 +1591,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1549,7 +1599,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1557,10 +1607,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1568,10 +1618,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1579,7 +1629,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1587,7 +1637,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1595,7 +1645,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1603,7 +1653,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1611,7 +1661,15 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11">
+        <v>7.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1623,13 +1681,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
@@ -1639,13 +1697,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1656,70 +1714,78 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:3">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>日期</t>
   </si>
@@ -232,7 +245,7 @@
     <t>上证跌至1922，创业板跌至1628，2市总成交量5820，连续4天低于6000亿</t>
   </si>
   <si>
-    <t>上证跌至2904之后开始访谈，与股帮预计2906点的预计一致，国家队开始放量买入中证1000ETF，最终两市成交量放大至7400亿，
+    <t>上证跌至2904之后开始反弹，与股帮预计2906点的预计一致，国家队开始放量买入中证1000ETF，最终两市成交量放大至7400亿，
 三大指数均明显反弹</t>
   </si>
   <si>
@@ -240,6 +253,12 @@
   </si>
   <si>
     <t>2024年6月份，全国居民消费价格同比上涨0.2%。环比下降0.2%</t>
+  </si>
+  <si>
+    <t>证监会依法批准中证金融公司暂停转融券业务，进一步强化融券逆周期调节。自2024年7月11日起实施。</t>
+  </si>
+  <si>
+    <t>两市总成交放量1090亿，总成交7870亿，主力流入92亿，港资流入30亿，涨停104，跌停8亿</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -355,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -394,55 +413,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,6 +470,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -532,7 +530,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,49 +572,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,121 +710,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,21 +763,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -791,6 +795,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,152 +868,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,59 +1034,56 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1338,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1535,7 +1551,7 @@
       <c r="A20" s="6">
         <v>7.9</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1553,6 +1569,22 @@
       </c>
       <c r="B22" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24">
+        <v>7.11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1600,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -1583,7 +1615,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1591,7 +1623,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1599,7 +1631,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1607,10 +1639,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1618,10 +1650,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1629,7 +1661,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1637,7 +1669,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1645,7 +1677,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1653,7 +1685,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1661,7 +1693,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1669,7 +1701,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1683,8 +1715,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -1697,13 +1729,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1714,78 +1746,78 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
+    <sheet name="个股消息" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>日期</t>
   </si>
@@ -258,7 +259,32 @@
     <t>证监会依法批准中证金融公司暂停转融券业务，进一步强化融券逆周期调节。自2024年7月11日起实施。</t>
   </si>
   <si>
-    <t>两市总成交放量1090亿，总成交7870亿，主力流入92亿，港资流入30亿，涨停104，跌停8亿</t>
+    <r>
+      <t>两市总成交放量1090亿，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总成交7870亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，主力流入92亿，港资流入30亿，涨停104，跌停8亿</t>
+    </r>
+  </si>
+  <si>
+    <t>6月，M2货币供应同比6.2%，前值7%；M1货币供应同比-5%，前值-4.2%。M2-M1剪刀差扩大</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -383,9 +409,17 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -883,139 +917,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1023,16 +1063,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,10 +1397,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1368,17 +1411,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1386,7 +1429,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1397,7 +1440,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1408,7 +1451,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1419,7 +1462,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1427,7 +1470,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1446,7 +1489,7 @@
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1465,7 +1508,7 @@
       <c r="A10">
         <v>6.14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1489,7 +1532,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>6.2</v>
       </c>
       <c r="B13" t="s">
@@ -1519,7 +1562,7 @@
       <c r="A16">
         <v>7.3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1548,15 +1591,15 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>7.9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>7.1</v>
       </c>
       <c r="B21" t="s">
@@ -1564,7 +1607,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>7.1</v>
       </c>
       <c r="B22" t="s">
@@ -1572,7 +1615,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>7.1</v>
       </c>
       <c r="B23" t="s">
@@ -1583,8 +1626,16 @@
       <c r="A24">
         <v>7.11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25">
+        <v>7.13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1666,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1623,7 +1674,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1631,7 +1682,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1639,21 +1690,21 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1661,7 +1712,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1669,7 +1720,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1677,15 +1728,15 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1693,7 +1744,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1701,7 +1752,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1729,13 +1780,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1746,78 +1797,123 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="85.125" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,33 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
     <sheet name="外汇黄金" sheetId="2" r:id="rId2"/>
     <sheet name="期货" sheetId="3" r:id="rId3"/>
     <sheet name="个股消息" sheetId="4" r:id="rId4"/>
+    <sheet name="GDP数据" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -260,6 +248,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>两市总成交放量1090亿，</t>
     </r>
     <r>
@@ -287,6 +282,9 @@
     <t>6月，M2货币供应同比6.2%，前值7%；M1货币供应同比-5%，前值-4.2%。M2-M1剪刀差扩大</t>
   </si>
   <si>
+    <t>2市成交量连续2天保持在6800亿，国家队明显加仓宽基ETF，特别是沪深300和创业板ETF明显放量</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -395,19 +393,25 @@
   </si>
   <si>
     <t>集运指数欧线上涨至5800点</t>
+  </si>
+  <si>
+    <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
+  </si>
+  <si>
+    <t>1—6月份，社会消费品零售总额235969亿元，同比增长3.7%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -447,6 +451,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -463,6 +495,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -504,21 +544,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -564,28 +589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,13 +610,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,24 +676,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,18 +724,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,36 +736,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,24 +760,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -769,12 +779,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +801,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,21 +848,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,148 +906,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,25 +1058,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1081,52 +1085,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1397,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1636,6 +1640,14 @@
       </c>
       <c r="B25" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26">
+        <v>7.18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1678,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1674,7 +1686,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1682,7 +1694,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1690,10 +1702,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1701,10 +1713,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1712,7 +1724,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1720,7 +1732,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1728,7 +1740,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1736,7 +1748,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1744,7 +1756,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1752,7 +1764,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1780,13 +1792,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1797,78 +1809,78 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1894,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1920,4 +1932,37 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="69.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2">
+        <v>7.15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:2">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>日期</t>
   </si>
@@ -285,6 +285,9 @@
     <t>2市成交量连续2天保持在6800亿，国家队明显加仓宽基ETF，特别是沪深300和创业板ETF明显放量</t>
   </si>
   <si>
+    <t>央行下调7天期逆回购利率10个BP</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -325,6 +328,9 @@
   </si>
   <si>
     <t>纽约黄金反弹至2400美元</t>
+  </si>
+  <si>
+    <t>纽约黄金反弹至2488美元</t>
   </si>
   <si>
     <t>序号</t>
@@ -410,8 +416,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1058,25 +1064,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1401,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1650,6 +1656,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27">
+        <v>7.22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1660,10 +1674,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -1678,7 +1692,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1686,7 +1700,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1694,7 +1708,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1702,10 +1716,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1713,10 +1727,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1724,7 +1738,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1732,7 +1746,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1740,7 +1754,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1748,7 +1762,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1756,7 +1770,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1764,7 +1778,15 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12">
+        <v>7.17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1792,13 +1814,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1809,78 +1831,78 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1953,12 +1975,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -285,7 +285,17 @@
     <t>2市成交量连续2天保持在6800亿，国家队明显加仓宽基ETF，特别是沪深300和创业板ETF明显放量</t>
   </si>
   <si>
-    <t>央行下调7天期逆回购利率10个BP</t>
+    <t>央行下调7天期逆回购利率10个BP，低于外媒传闻的双降25个基点，三大指数均微跌</t>
+  </si>
+  <si>
+    <t>缺少增加资金，两市成交量又萎缩到6400亿，</t>
+  </si>
+  <si>
+    <t>沪创业板大跌3%</t>
+  </si>
+  <si>
+    <t>7月25日，工农中建交五大行同时下调存款挂牌利率。其中，三个月、半年、一年整存整取挂牌利率均下调10基点，
+分别为1.05%、1.25%、1.35%；二年、三年、五年整存整取挂牌利率均下调20基点，分别为1.45%、1.75%、1.8%。</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1057,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1097,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1407,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1662,6 +1675,25 @@
       </c>
       <c r="B27" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28">
+        <v>7.23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29">
+        <v>7.25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1724,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1700,7 +1732,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1708,7 +1740,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1716,10 +1748,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1727,10 +1759,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1738,7 +1770,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1746,7 +1778,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1754,7 +1786,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1762,7 +1794,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1770,7 +1802,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1778,7 +1810,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -1786,7 +1818,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1814,13 +1846,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1831,78 +1863,78 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1975,12 +2007,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>日期</t>
   </si>
@@ -298,6 +298,9 @@
 分别为1.05%、1.25%、1.35%；二年、三年、五年整存整取挂牌利率均下调20基点，分别为1.45%、1.75%、1.8%。</t>
   </si>
   <si>
+    <t>成交低迷，两市的总成交额约为5928.72亿元</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
     <t>纽约黄金反弹至2488美元</t>
   </si>
   <si>
+    <t>受美国GDP超预期影响，离岸人民币从7.28暴跌到7.20</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -409,6 +415,18 @@
   </si>
   <si>
     <t>集运指数欧线上涨至5800点</t>
+  </si>
+  <si>
+    <t>2024.7.24</t>
+  </si>
+  <si>
+    <t>在突破8万8的历史最高点后，沪铜跌回7万2</t>
+  </si>
+  <si>
+    <t>比特币维持在6万多美元的高位</t>
+  </si>
+  <si>
+    <t>由于巴勒斯坦和以色列频繁传出和谈，集运指数欧线跌至3300</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -426,8 +444,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1067,39 +1085,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1420,10 +1435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1692,8 +1707,16 @@
       <c r="A29">
         <v>7.25</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30">
+        <v>7.25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1729,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -1724,7 +1747,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1732,7 +1755,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1740,7 +1763,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1748,10 +1771,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1759,10 +1782,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1770,7 +1793,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1778,7 +1801,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1786,7 +1809,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1794,7 +1817,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1802,7 +1825,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1810,7 +1833,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -1818,7 +1841,15 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13">
+        <v>7.25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1830,10 +1861,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -1846,13 +1877,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1863,78 +1894,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2007,12 +2062,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,25 @@
     <sheet name="个股消息" sheetId="4" r:id="rId4"/>
     <sheet name="GDP数据" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>日期</t>
   </si>
@@ -301,6 +314,9 @@
     <t>成交低迷，两市的总成交额约为5928.72亿元</t>
   </si>
   <si>
+    <t>传闻限制量化交易，高频交易费增加十倍，撤单一次5元</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -433,19 +449,28 @@
   </si>
   <si>
     <t>1—6月份，社会消费品零售总额235969亿元，同比增长3.7%</t>
+  </si>
+  <si>
+    <t>发改委出台家电以旧换新补贴：力度及额度有望超过09年</t>
+  </si>
+  <si>
+    <t>家电股出现涨停潮，格力大涨5%，海信电器涨停</t>
+  </si>
+  <si>
+    <t>无人驾驶板块调整一天后连续大涨2天，大众交通接近三倍，尾盘开板，金龙汽车涨停，江铃汽车连续2天大涨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -485,34 +510,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -529,6 +526,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -538,41 +574,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,7 +627,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,49 +669,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,121 +807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,21 +860,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -882,6 +892,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,148 +965,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,25 +1117,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1119,52 +1144,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1435,10 +1460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1717,6 +1742,14 @@
       </c>
       <c r="B30" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31">
+        <v>7.26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1780,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1755,7 +1788,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1763,7 +1796,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1771,10 +1804,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1782,10 +1815,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1793,7 +1826,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1801,7 +1834,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1809,7 +1842,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1817,7 +1850,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1825,7 +1858,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1833,7 +1866,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -1841,7 +1874,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -1849,7 +1882,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1863,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -1877,13 +1910,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1894,102 +1927,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2046,13 +2079,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="69.75" customWidth="1"/>
   </cols>
@@ -2062,12 +2095,31 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4">
+        <v>7.25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5">
+        <v>7.26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>日期</t>
   </si>
@@ -445,6 +445,12 @@
     <t>由于巴勒斯坦和以色列频繁传出和谈，集运指数欧线跌至3300</t>
   </si>
   <si>
+    <t>无人驾驶板块调整一天后连续大涨2天，大众交通接近三倍，尾盘开板，金龙汽车涨停，江铃汽车连续2天大涨</t>
+  </si>
+  <si>
+    <t>大众交通，金龙汽车继续涨停，引领无人驾驶板块</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -455,9 +461,6 @@
   </si>
   <si>
     <t>家电股出现涨停潮，格力大涨5%，海信电器涨停</t>
-  </si>
-  <si>
-    <t>无人驾驶板块调整一天后连续大涨2天，大众交通接近三倍，尾盘开板，金龙汽车涨停，江铃汽车连续2天大涨</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1121,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1474,17 +1480,17 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1492,7 +1498,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1503,7 +1509,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1514,7 +1520,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1525,7 +1531,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1533,7 +1539,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1552,7 +1558,7 @@
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1571,7 +1577,7 @@
       <c r="A10">
         <v>6.14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1595,7 +1601,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>6.2</v>
       </c>
       <c r="B13" t="s">
@@ -1625,7 +1631,7 @@
       <c r="A16">
         <v>7.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1654,15 +1660,15 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>7.9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>7.1</v>
       </c>
       <c r="B21" t="s">
@@ -1670,7 +1676,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>7.1</v>
       </c>
       <c r="B22" t="s">
@@ -1678,7 +1684,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>7.1</v>
       </c>
       <c r="B23" t="s">
@@ -1689,7 +1695,7 @@
       <c r="A24">
         <v>7.11</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1732,7 +1738,7 @@
       <c r="A29">
         <v>7.25</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1806,7 +1812,7 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1814,7 +1820,7 @@
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
@@ -1846,7 +1852,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
@@ -1970,10 +1976,10 @@
       <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1989,7 +1995,7 @@
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2034,13 +2040,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="85.125" customWidth="1"/>
@@ -2070,6 +2076,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="3">
+        <v>7.26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4">
+        <v>7.29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2079,13 +2101,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="69.75" customWidth="1"/>
   </cols>
@@ -2095,12 +2117,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2108,18 +2130,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5">
-        <v>7.26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -13,25 +13,12 @@
     <sheet name="个股消息" sheetId="4" r:id="rId4"/>
     <sheet name="GDP数据" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>日期</t>
   </si>
@@ -317,6 +304,55 @@
     <t>传闻限制量化交易，高频交易费增加十倍，撤单一次5元</t>
   </si>
   <si>
+    <t>成绩量又萎缩到5800亿，但有2300多只个股上涨，涨停60家，跌停仅9家</t>
+  </si>
+  <si>
+    <t>上证指数补2867缺口，成交量5900亿</t>
+  </si>
+  <si>
+    <t>成交量暴涨至9000亿，上涨5000家，下跌只有300多家，涨停80多家，自动驾驶整体回调，大众交通高开最后回调2个多点，成交量52亿</t>
+  </si>
+  <si>
+    <t>创业板放量上涨3.5%</t>
+  </si>
+  <si>
+    <t>美国公布非农数据：7月季调后非农就业人口录得11.4万人，为2024年4月以来最小增幅，远低于预期的17.5万人</t>
+  </si>
+  <si>
+    <t>受非农就业数据以及关联的美联储降息预期，纳斯达克大跌2.3%,2.4%</t>
+  </si>
+  <si>
+    <t>日经受加息及汇率和美股波动影响大跌5.37%</t>
+  </si>
+  <si>
+    <t>最新发布的财报显示，伯克希尔哈撒韦在二季度将其持有的苹果公司股份从7.89亿股大幅减至约4亿股，降幅近50%。
+伯克希尔二季度现金储备再创纪录新高，达2769亿美元，此前一季度末时的现金储备为1890亿美元。</t>
+  </si>
+  <si>
+    <t>一位资深业内人士表示，除了石油股外，近期巴菲特其他持股基本都在减持中。
+巴菲特估计不仅仅是认为苹果股价阶段性见顶，应该是认为美股整体周期已见顶，他需要通过高位减持的策略储备现金。</t>
+  </si>
+  <si>
+    <t>但斌、段永平回应：没有减持想法</t>
+  </si>
+  <si>
+    <t>日经继续大跌6%，并触发熔断，韩国综指也低大跌5.5并临时停盘，台湾加权指数大跌6.8%</t>
+  </si>
+  <si>
+    <t>日经午后暴跌至11.3%，韩国综指，台湾加权跟随</t>
+  </si>
+  <si>
+    <t>日经225指数重挫12.4%，创下该指数史上最大单日跌幅
+中国台湾证交所加权股价指数收盘下跌8.4%，为历史最大单日跌幅
+首尔综合指数盘中跌幅一度超过10%，为2020年来首次。</t>
+  </si>
+  <si>
+    <t>受英伟达暴跌影响，国内工业富联跌8%，神宇股份跌15%</t>
+  </si>
+  <si>
+    <t>日经225开盘反弹10%，台湾仅反弹3%后低走，韩国综合指数高开4%后低走</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -365,6 +401,50 @@
     <t>受美国GDP超预期影响，离岸人民币从7.28暴跌到7.20</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7月31日，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日本央行宣布加息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，将政策利率上调15个基点至0.15%至0.25%，并宣布逐步削减每月购债规模至3万亿日元，紧缩程度超出市场预期。</t>
+    </r>
+  </si>
+  <si>
+    <t>受美联储降息预期，人民币从7.24暴涨至7.16</t>
+  </si>
+  <si>
+    <t>受美联储降息预期及日央行加息印象，美元兑日元从153涨至最高144</t>
+  </si>
+  <si>
+    <t>日经指数开盘大跌6%</t>
+  </si>
+  <si>
+    <t>黄金维持在2480高位，美油回调到74美元</t>
+  </si>
+  <si>
+    <t>离岸人民币最高涨至7.09</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -445,10 +525,31 @@
     <t>由于巴勒斯坦和以色列频繁传出和谈，集运指数欧线跌至3300</t>
   </si>
   <si>
+    <t>评论</t>
+  </si>
+  <si>
     <t>无人驾驶板块调整一天后连续大涨2天，大众交通接近三倍，尾盘开板，金龙汽车涨停，江铃汽车连续2天大涨</t>
   </si>
   <si>
     <t>大众交通，金龙汽车继续涨停，引领无人驾驶板块</t>
+  </si>
+  <si>
+    <t>大众交通高开最后回调2个多点，成交量52亿</t>
+  </si>
+  <si>
+    <t>大众交通低开后反弹至8.5%，最后只上涨2%。成交量放大到52亿</t>
+  </si>
+  <si>
+    <t>大众交通-4%低开，上午冲击涨停失败，放巨量成交42亿</t>
+  </si>
+  <si>
+    <t>成交量太大，回调可能性很大</t>
+  </si>
+  <si>
+    <t>从7.29开始低空经济反弹，万丰奥威上涨了大概40%</t>
+  </si>
+  <si>
+    <t>大众交通最终涨停，成交量53亿</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -466,7 +567,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -475,7 +576,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +593,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -513,6 +620,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -529,6 +670,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -570,21 +719,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -630,13 +764,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -644,20 +771,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -672,13 +785,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,24 +851,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -732,18 +899,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -756,36 +911,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -804,24 +935,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -835,12 +954,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,6 +976,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -895,21 +1023,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,152 +1081,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,61 +1254,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1466,31 +1588,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="107.125" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="3" max="3" width="71.5" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1539,7 +1661,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1631,7 +1753,7 @@
       <c r="A16">
         <v>7.3</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1660,7 +1782,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>7.9</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1695,7 +1817,7 @@
       <c r="A24">
         <v>7.11</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1756,6 +1878,111 @@
       </c>
       <c r="B31" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="5">
+        <v>7.29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34">
+        <v>7.31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35">
+        <v>8.2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36">
+        <v>8.2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37">
+        <v>8.2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" ht="71" customHeight="1" spans="1:4">
+      <c r="A38">
+        <v>8.4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39">
+        <v>8.5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40">
+        <v>8.5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" ht="84" customHeight="1" spans="1:2">
+      <c r="A41">
+        <v>8.5</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42">
+        <v>8.5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43">
+        <v>8.6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +1995,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -1786,7 +2013,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1794,7 +2021,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1802,7 +2029,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -1810,10 +2037,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1821,10 +2048,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -1832,7 +2059,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -1840,7 +2067,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -1848,7 +2075,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -1856,7 +2083,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1864,7 +2091,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -1872,7 +2099,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -1880,7 +2107,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -1888,7 +2115,55 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14">
+        <v>7.31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15">
+        <v>8.2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16">
+        <v>8.5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17">
+        <v>8.5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18">
+        <v>8.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +2178,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -1916,13 +2191,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1933,102 +2208,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2040,13 +2315,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="85.125" customWidth="1"/>
@@ -2062,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2081,7 +2356,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2089,7 +2364,50 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5">
+        <v>7.31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6">
+        <v>8.2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7">
+        <v>8.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8">
+        <v>8.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9">
+        <v>8.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2117,12 +2435,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2130,10 +2448,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
   <si>
     <t>日期</t>
   </si>
@@ -350,7 +350,38 @@
     <t>受英伟达暴跌影响，国内工业富联跌8%，神宇股份跌15%</t>
   </si>
   <si>
-    <t>日经225开盘反弹10%，台湾仅反弹3%后低走，韩国综合指数高开4%后低走</t>
+    <t>日经225开盘反弹10%，台湾仅反弹3%后低走，韩国综合指数高开4%后低走
+日经225收盘上涨10.23%,创历史最大涨幅</t>
+  </si>
+  <si>
+    <t>大盘成交6500亿，缩量1300亿，但是尾盘拉升，创业板涨1.3%,沪指涨0.23%，4600家上涨，仅400多家下跌</t>
+  </si>
+  <si>
+    <t>总成交量4900亿，创4年来新低，指数微跌</t>
+  </si>
+  <si>
+    <t>上证指数接近2841的关键点</t>
+  </si>
+  <si>
+    <t>总成交量继续萎缩，4700亿，3700家上涨，1377家下跌，大资金流出96亿。大盘在下探2846点后反弹，疑似国家队护盘</t>
+  </si>
+  <si>
+    <t>两市总成交量4700多亿</t>
+  </si>
+  <si>
+    <t>成交量恢复到5900亿，两市反弹1%，个股普涨</t>
+  </si>
+  <si>
+    <t>成交量仍然是5900亿，指数几乎也没变</t>
+  </si>
+  <si>
+    <t>创业板跌至1567，两市成交量仍然在5500亿低位</t>
+  </si>
+  <si>
+    <t>央行买入4000亿长期国债，传闻续存房贷整体利率下调1个点以上。创业板涨2.5%，上证涨0.68%，尾盘回调，银行股大幅回调，总成交量急剧放大到8700亿</t>
+  </si>
+  <si>
+    <t>总成交量再次萎缩到5600亿，三大指数都微跌</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -445,6 +476,18 @@
     <t>离岸人民币最高涨至7.09</t>
   </si>
   <si>
+    <t>随着全球金融波动减缓，离岸人民币跌至7.14，纽约黄金冲高至2500以后回调至2448美元</t>
+  </si>
+  <si>
+    <t>回调三天后，纽约黄金站上2500美元</t>
+  </si>
+  <si>
+    <t>8.19黄金股整体上涨，莱绅通灵涨停</t>
+  </si>
+  <si>
+    <t>受美联储确定降息影响，人民币升至7.11</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -550,6 +593,51 @@
   </si>
   <si>
     <t>大众交通最终涨停，成交量53亿</t>
+  </si>
+  <si>
+    <t>无人驾驶金龙汽车带领板块反弹，大众交通震荡后仍然下跌4%</t>
+  </si>
+  <si>
+    <t>大众交通短期可能继续回调</t>
+  </si>
+  <si>
+    <t>墨脱板块早盘低开后下午突然拉升，保利联合领涨，高争民爆跟随</t>
+  </si>
+  <si>
+    <t>墨脱板块继续反弹，西藏天路涨停后开板，中岩大地稳步上涨，保利联合反而下跌</t>
+  </si>
+  <si>
+    <t>华为海思龙头力源信息放量上涨3%，换手率53%，成交41亿</t>
+  </si>
+  <si>
+    <t>换手成交量太大，需要再观察一日</t>
+  </si>
+  <si>
+    <t>连续四天缩量调整后力源信息快速拉升涨停</t>
+  </si>
+  <si>
+    <t>9.1未能加仓</t>
+  </si>
+  <si>
+    <t>华为海思龙头盘中资金出逃，但是尾盘仍然涨停，短期14个涨停</t>
+  </si>
+  <si>
+    <t>成交量太大，明天可能行情结束</t>
+  </si>
+  <si>
+    <t>固态电池板块南都电源连续3个涨停，鹏辉能源连续4天弱势</t>
+  </si>
+  <si>
+    <t>明显弱于办卡，成交量也较大，清仓</t>
+  </si>
+  <si>
+    <t>大众交通拉高8%后回调，但是尾盘并未跳水，承接较强</t>
+  </si>
+  <si>
+    <t>明日上涨可能性很高</t>
+  </si>
+  <si>
+    <t>大众交通9点50分涨停，大资金买入8亿</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -573,10 +661,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +712,20 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1084,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,37 +1198,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,129 +1231,135 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1268,6 +1370,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1588,10 +1696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -1620,7 +1728,7 @@
       <c r="A2">
         <v>4.29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1631,7 +1739,7 @@
       <c r="A3">
         <v>5.4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1642,7 +1750,7 @@
       <c r="A4">
         <v>5.11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1653,7 +1761,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1680,7 +1788,7 @@
       <c r="A8">
         <v>5.14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1699,7 +1807,7 @@
       <c r="A10">
         <v>6.14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1723,7 +1831,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>6.2</v>
       </c>
       <c r="B13" t="s">
@@ -1785,12 +1893,12 @@
       <c r="A20" s="10">
         <v>7.9</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>7.1</v>
       </c>
       <c r="B21" t="s">
@@ -1798,7 +1906,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>7.1</v>
       </c>
       <c r="B22" t="s">
@@ -1806,7 +1914,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>7.1</v>
       </c>
       <c r="B23" t="s">
@@ -1860,7 +1968,7 @@
       <c r="A29">
         <v>7.25</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1881,7 +1989,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>7.29</v>
       </c>
       <c r="B32" t="s">
@@ -1889,7 +1997,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>7.3</v>
       </c>
       <c r="B33" t="s">
@@ -1935,7 +2043,7 @@
       <c r="A38">
         <v>8.4</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -1957,7 +2065,7 @@
       <c r="A40">
         <v>8.5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1965,7 +2073,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1981,8 +2089,83 @@
       <c r="A43">
         <v>8.6</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44">
+        <v>8.6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45">
+        <v>8.12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46">
+        <v>8.13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47">
+        <v>8.14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48">
+        <v>8.15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49">
+        <v>8.16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="4">
+        <v>8.3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52">
+        <v>9.3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1995,10 +2178,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -2013,7 +2196,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -2021,7 +2204,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -2029,7 +2212,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2037,21 +2220,21 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>62</v>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2059,7 +2242,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -2067,7 +2250,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2075,15 +2258,15 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -2091,7 +2274,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2099,7 +2282,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2107,7 +2290,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -2115,7 +2298,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -2123,7 +2306,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2131,7 +2314,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -2139,7 +2322,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -2147,7 +2330,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2155,7 +2338,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -2163,7 +2346,34 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20">
+        <v>8.6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21">
+        <v>8.16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22">
+        <v>9.4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2191,13 +2401,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2208,102 +2418,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2315,10 +2525,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2337,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2356,7 +2566,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2364,7 +2574,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -2372,7 +2582,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2380,7 +2590,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2388,10 +2598,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2399,7 +2609,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2407,7 +2617,97 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10">
+        <v>8.13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11">
+        <v>8.19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14">
+        <v>9.2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15">
+        <v>9.4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16">
+        <v>9.4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17">
+        <v>9.4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18">
+        <v>9.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2435,12 +2735,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2448,10 +2748,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
   <si>
     <t>日期</t>
   </si>
@@ -384,6 +384,27 @@
     <t>总成交量再次萎缩到5600亿，三大指数都微跌</t>
   </si>
   <si>
+    <t>三市继续下跌，沪指跌至2765，创业板跌至1538，均创近期新低，成交量萎缩到5400亿</t>
+  </si>
+  <si>
+    <t>人民币上涨并未带来短期增量资金</t>
+  </si>
+  <si>
+    <t>继续缩量,总成交仅5200亿,上午两市继续下跌,尾盘似乎是国家队买入,三大指数略微翻红</t>
+  </si>
+  <si>
+    <t>总成绩了萎缩到5000亿</t>
+  </si>
+  <si>
+    <t>沪指收于2704,成交量仍然只有5200亿,多只前期龙头连续跌停，深圳华强，大众交通，科森科技</t>
+  </si>
+  <si>
+    <t>8月货币数据，狭义货币(M1)余额63.02万亿元，同比下降7.3%(预期-6.70%)。流通中货币(M0)余额11.95万亿元，同比增长12.2%。</t>
+  </si>
+  <si>
+    <t>中国8月M1增速已连续第5个月下降(此前曾在1989年8、9月、2022年1月、2024年4月、5月、6月、7月出现过负值)。</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -631,13 +652,47 @@
     <t>明显弱于办卡，成交量也较大，清仓</t>
   </si>
   <si>
-    <t>大众交通拉高8%后回调，但是尾盘并未跳水，承接较强</t>
+    <t>大众交通拉高8%后回调，但是尾盘并未跳水，承接较强，成交量40亿</t>
   </si>
   <si>
     <t>明日上涨可能性很高</t>
   </si>
   <si>
-    <t>大众交通9点50分涨停，大资金买入8亿</t>
+    <t>大众交通9点50分涨停，大资金净买入10亿</t>
+  </si>
+  <si>
+    <t>神宇股份连续3天大跌25%，早盘未高开，杀跌2个点后一度反弹翻红。</t>
+  </si>
+  <si>
+    <t>考虑到后续可能继续下跌，早盘杀跌的时候清仓</t>
+  </si>
+  <si>
+    <t>宝丽迪大涨一天后直接大跌8%，考虑明后天企稳后可能反弹</t>
+  </si>
+  <si>
+    <t>宝丽迪早盘低开，下午突然拉升到12%以上
+宝丽迪最终涨停，下个交易日应该还有溢价，甚至两连板</t>
+  </si>
+  <si>
+    <t>大众交通直接开盘涨停</t>
+  </si>
+  <si>
+    <t>华为海斯发布当天，概念龙头-深圳华强跌停，主力流出6.6亿</t>
+  </si>
+  <si>
+    <t>大众交通被重新纳入重点监控，开盘涨停后垂直跌停，金龙汽车，锦江在线也同时跌停</t>
+  </si>
+  <si>
+    <t>南都电源尾盘跌破5日线，不宜买入</t>
+  </si>
+  <si>
+    <t>南都电源继续下跌11%</t>
+  </si>
+  <si>
+    <t>折叠屏概念华映科技高开后接近跌停,然后上演地天板.</t>
+  </si>
+  <si>
+    <t>2024年1月公司新获“一种折叠屏的折痕处同步支撑结构”专利。公司已加入华为供应商体系。</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -650,6 +705,9 @@
   </si>
   <si>
     <t>家电股出现涨停潮，格力大涨5%，海信电器涨停</t>
+  </si>
+  <si>
+    <t>8月CPI仅增加0.6%，7月为0.5%</t>
   </si>
 </sst>
 </file>
@@ -1696,16 +1754,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="107.125" customWidth="1"/>
+    <col min="2" max="2" width="117.25" customWidth="1"/>
     <col min="3" max="3" width="71.5" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
@@ -2166,6 +2224,52 @@
       </c>
       <c r="B52" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53">
+        <v>9.6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55">
+        <v>9.11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56">
+        <v>9.13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57">
+        <v>9.14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2300,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -2204,7 +2308,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -2212,7 +2316,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2220,10 +2324,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -2231,10 +2335,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2242,7 +2346,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -2250,7 +2354,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2258,7 +2362,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2266,7 +2370,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -2274,7 +2378,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2282,7 +2386,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2290,7 +2394,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -2298,7 +2402,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -2306,7 +2410,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2314,7 +2418,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -2322,7 +2426,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -2330,7 +2434,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2338,7 +2442,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -2346,7 +2450,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -2354,7 +2458,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2362,10 +2466,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -2373,7 +2477,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2401,13 +2505,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2418,102 +2522,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2525,10 +2629,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2547,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2566,7 +2670,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2574,7 +2678,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -2582,7 +2686,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2590,7 +2694,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2598,10 +2702,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2609,7 +2713,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2617,7 +2721,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2625,10 +2729,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2636,7 +2740,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2644,7 +2748,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -2652,10 +2756,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2663,10 +2767,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -2674,10 +2778,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -2685,10 +2789,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2696,10 +2800,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2707,7 +2811,85 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19">
+        <v>9.5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20">
+        <v>9.5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21">
+        <v>9.6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22">
+        <v>9.6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23">
+        <v>9.9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24">
+        <v>9.9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25">
+        <v>9.9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27">
+        <v>9.13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2719,13 +2901,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="69.75" customWidth="1"/>
   </cols>
@@ -2735,12 +2917,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2748,10 +2930,18 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5">
+        <v>9.9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
   <si>
     <t>日期</t>
   </si>
@@ -405,6 +405,15 @@
     <t>中国8月M1增速已连续第5个月下降(此前曾在1989年8、9月、2022年1月、2024年4月、5月、6月、7月出现过负值)。</t>
   </si>
   <si>
+    <t>总成交量萎缩至4800亿</t>
+  </si>
+  <si>
+    <t>美联储正式降息50个基点，略超市场预期</t>
+  </si>
+  <si>
+    <t>成交量放大至6000亿，个股普涨</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -507,6 +516,12 @@
   </si>
   <si>
     <t>受美联储确定降息影响，人民币升至7.11</t>
+  </si>
+  <si>
+    <t>美联储正式降息50个基点，略超市场预期，纽约黄金上涨至2600美元上方，人民币升至7.08</t>
+  </si>
+  <si>
+    <t>离岸，在岸人民币继续升值7.04</t>
   </si>
   <si>
     <t>序号</t>
@@ -1754,10 +1769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2272,6 +2287,30 @@
         <v>73</v>
       </c>
     </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58">
+        <v>9.18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59">
+        <v>9.19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60">
+        <v>9.19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2282,10 +2321,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -2300,7 +2339,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -2308,7 +2347,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -2316,7 +2355,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2324,10 +2363,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -2335,10 +2374,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2346,7 +2385,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -2354,7 +2393,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2362,7 +2401,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2370,7 +2409,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -2378,7 +2417,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2386,7 +2425,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2394,7 +2433,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -2402,7 +2441,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -2410,7 +2449,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2418,7 +2457,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -2426,7 +2465,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -2434,7 +2473,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2442,7 +2481,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -2450,7 +2489,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -2458,7 +2497,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2466,10 +2505,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -2477,7 +2516,23 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23">
+        <v>9.19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24">
+        <v>9.2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2505,13 +2560,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2522,102 +2577,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2670,7 +2725,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2678,7 +2733,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -2686,7 +2741,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2694,7 +2749,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2702,10 +2757,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2713,7 +2768,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2721,7 +2776,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2729,10 +2784,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2740,7 +2795,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2748,7 +2803,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -2756,10 +2811,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2767,10 +2822,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -2778,10 +2833,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -2789,10 +2844,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2800,10 +2855,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2811,7 +2866,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -2819,10 +2874,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -2830,7 +2885,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -2838,7 +2893,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -2846,7 +2901,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -2854,7 +2909,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -2862,7 +2917,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -2870,7 +2925,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -2878,7 +2933,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -2886,10 +2941,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2917,12 +2972,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2930,10 +2985,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -2941,7 +2996,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
   <si>
     <t>日期</t>
   </si>
@@ -414,6 +414,293 @@
     <t>成交量放大至6000亿，个股普涨</t>
   </si>
   <si>
+    <t>总成交量5500亿</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国人民银行行长潘功胜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日在国新办发布会上宣布四大政策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，近期将下调存款准备金率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个百分点，向金融市场提供长期流动性约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万亿元，在今年年内还将视市场流动性的状况，可能择机进一步下调存款准备金率0.25-0.5个百分点。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天期逆回购操作利率下调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个百分点，从目前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.7%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调降至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5%
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，引导商业银行将存量房贷利率降至新发放贷款利率的附近，预计平均降幅大约在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个百分点左右。统一首套房和二套房的房贷最低首付比例，将全国层面的二套房贷款最低首付比例由当前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下调到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+4，创设新的金融工具支持股票市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>　在降准降息方面，近期将下调存款准备金率0.5个百分点，向金融市场提供长期流动性约1万亿元；在今年年内还将视市场流动性的状况，可能择机进一步下调存款准备金率0.25-0.5个百分点。降低中央银行的政策利率，即7天期逆回购操作利率下调0.2个百分点，从目前的1.7%调降至1.5%，同时引导贷款市场报价利率和存款利率同步下行，保持商业银行净息差的稳定。
+　　在降低存量房贷利率和统一房贷最低首付比例方面，引导商业银行将存量房贷利率降至新发放贷款利率的附近，预计平均降幅大约在0.5个百分点左右。统一首套房和二套房的房贷最低首付比例，将全国层面的二套房贷款最低首付比例由当前的25%下调到15%。将5月份人民银行创设的3000亿元保障性住房再贷款，中央银行资金的支持比例由原来的60%提高到100%，增强对银行和收购主体的市场化激励。将年底前到期的经营性物业贷款和“金融16条”这两项政策文件延期到2026年底。原来这两份文件是2024年底到期。
+　　在创设新的货币政策工具支持股票市场稳定发展方面，第一项是创设证券、基金、保险公司互换便利，支持符合条件的证券、基金、保险公司通过资产质押，从中央银行获取流动性，这项政策将大幅提升机构的资金获取能力和股票增持能力；第二项是创设股票回购增持专项再贷款，引导银行向上市公司和主要股东提供贷款，支持回购和增持股票。</t>
+  </si>
+  <si>
+    <t>结构性货币政策工具支持资本市场。其中一项是证券、基金、保险公司互换便利，支持符合条件的证券、基金、保险公司使用自身拥有的债券、股票ETF、沪深300成分股作为抵押，从中央银行换入国债、央行票据等高流动性资产，这项政策将大幅提升相关机构的资金获取和股票增持。机构通过这个工具获取的资金只能用于投资股票市场。
+潘功胜透露，首期互换便利操作规模5000亿元，未来可视情况扩大规模。“我跟(证监会)吴清主席说了，只要这个事情做得好，未来可以再来5000亿，或者第三个5000亿元，我们(的态度)是开放的。”
+谈及平准基金的创设，中国人民银行行长潘功胜在回应提问时表示，正在研究。(证券时报)</t>
+  </si>
+  <si>
+    <t>发布会最先宣布央行的4打政策，但沪市仅上涨不到0.9%并有回落，但在10点40潘功胜谈到创设新的金融工具以及平准基金后开始强烈反弹，半日两市成交5200亿</t>
+  </si>
+  <si>
+    <t>沪指上涨4.15%，深成指上涨4.36%，创业板涨5.54，成交量9700亿，放大4200亿，大资金流入360亿，下跌仅仅161家</t>
+  </si>
+  <si>
+    <t>短线炒作股，涨幅过大股全面回落，保变电器跌停，深圳华强跌停，常山北明剧烈震荡最后跌7%</t>
+  </si>
+  <si>
+    <t>夜间富时中国3倍做多etf一次性暴涨30%，纳斯达克中国红金龙指数涨9%</t>
+  </si>
+  <si>
+    <t>3指数继续高开后回落,半日继续放量2700亿</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -524,6 +811,18 @@
     <t>离岸，在岸人民币继续升值7.04</t>
   </si>
   <si>
+    <t>纽约黄金期货升至2645，纽约原油期货收于71美元</t>
+  </si>
+  <si>
+    <t>黄金涨幅过大在美联储下次降息前黄金应该有回调</t>
+  </si>
+  <si>
+    <t>受央行政策大招影响，人民币继续拉升至7.02，疑似外资买入人民币资产</t>
+  </si>
+  <si>
+    <t>人民币最高涨至6.99</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -708,6 +1007,21 @@
   </si>
   <si>
     <t>2024年1月公司新获“一种折叠屏的折痕处同步支撑结构”专利。公司已加入华为供应商体系。</t>
+  </si>
+  <si>
+    <t>贵州茅台宣布30-60亿股票回购注销计划，系史上首次</t>
+  </si>
+  <si>
+    <t>贵州茅台开盘后小涨1个多点</t>
+  </si>
+  <si>
+    <t>央行大利好，三大指数大涨，茅台，五粮液均大涨，工业富联涨停，其他消费电子白马股均大涨</t>
+  </si>
+  <si>
+    <t>常山北明竞价跌停，9.25拉至-7%成交，开盘快速拉升到红盘，回调到-3左右，主力买入2.5亿，随后开始强行拉升到5%。最后涨停，涨停时主力买入接近10亿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2%的时候担心跌停卖出</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -734,10 +1048,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +1113,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -946,6 +1266,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1259,10 +1585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,34 +1597,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,111 +1633,114 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1432,7 +1758,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1448,6 +1774,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1769,10 +2101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2311,6 +2643,63 @@
         <v>76</v>
       </c>
     </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61">
+        <v>9.23</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" ht="135" customHeight="1" spans="1:4">
+      <c r="A62">
+        <v>9.24</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63">
+        <v>9.24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64">
+        <v>9.24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65">
+        <v>9.24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66">
+        <v>9.25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2321,10 +2710,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -2339,7 +2728,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -2347,7 +2736,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -2355,7 +2744,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2363,10 +2752,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -2374,10 +2763,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2385,7 +2774,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -2393,7 +2782,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2401,7 +2790,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2409,7 +2798,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -2417,7 +2806,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2425,7 +2814,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2433,7 +2822,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -2441,7 +2830,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -2449,7 +2838,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2457,7 +2846,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -2465,7 +2854,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -2473,7 +2862,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2481,7 +2870,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -2489,7 +2878,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -2497,7 +2886,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2505,10 +2894,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -2516,7 +2905,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -2524,15 +2913,42 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25">
+        <v>9.23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26">
+        <v>9.24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27">
+        <v>9.25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2560,13 +2976,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2577,102 +2993,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2684,16 +3100,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="85.125" customWidth="1"/>
+    <col min="2" max="2" width="97.375" customWidth="1"/>
     <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="4" width="66.5" customWidth="1"/>
   </cols>
@@ -2706,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2725,7 +3141,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -2733,7 +3149,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -2741,7 +3157,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2749,7 +3165,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2757,10 +3173,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2768,7 +3184,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -2776,7 +3192,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2784,10 +3200,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2795,7 +3211,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2803,7 +3219,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -2811,10 +3227,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2822,10 +3238,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -2833,10 +3249,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -2844,10 +3260,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2855,10 +3271,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2866,7 +3282,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -2874,10 +3290,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -2885,7 +3301,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -2893,7 +3309,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -2901,7 +3317,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -2909,7 +3325,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -2917,7 +3333,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -2925,7 +3341,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -2933,7 +3349,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -2941,10 +3357,45 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="4">
+        <v>9.2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29">
+        <v>9.23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30">
+        <v>9.24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31">
+        <v>9.25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2972,12 +3423,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2985,10 +3436,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -2996,7 +3447,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -12,13 +12,14 @@
     <sheet name="期货" sheetId="3" r:id="rId3"/>
     <sheet name="个股消息" sheetId="4" r:id="rId4"/>
     <sheet name="GDP数据" sheetId="5" r:id="rId5"/>
+    <sheet name="小龙头总结" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="226">
   <si>
     <t>日期</t>
   </si>
@@ -30,6 +31,12 @@
   </si>
   <si>
     <t>总结</t>
+  </si>
+  <si>
+    <t>中国资本市场迎来第三个“国九条”</t>
+  </si>
+  <si>
+    <t>当天大盘高开后直接回调</t>
   </si>
   <si>
     <t>4.25开始传闻央行初步进入二级市场直接购买国债，4.28,4.29连续两天两市放量上涨，
@@ -686,7 +693,7 @@
 谈及平准基金的创设，中国人民银行行长潘功胜在回应提问时表示，正在研究。(证券时报)</t>
   </si>
   <si>
-    <t>发布会最先宣布央行的4打政策，但沪市仅上涨不到0.9%并有回落，但在10点40潘功胜谈到创设新的金融工具以及平准基金后开始强烈反弹，半日两市成交5200亿</t>
+    <t>发布会最先宣布央行的4大政策，但沪市仅上涨不到0.9%并有回落，但在10点40潘功胜谈到创设新的金融工具以及平准基金后开始强烈反弹，半日两市成交5200亿</t>
   </si>
   <si>
     <t>沪指上涨4.15%，深成指上涨4.36%，创业板涨5.54，成交量9700亿，放大4200亿，大资金流入360亿，下跌仅仅161家</t>
@@ -698,7 +705,70 @@
     <t>夜间富时中国3倍做多etf一次性暴涨30%，纳斯达克中国红金龙指数涨9%</t>
   </si>
   <si>
-    <t>3指数继续高开后回落,半日继续放量2700亿</t>
+    <t>3指数继续高开后回落,半日继续放量2700亿，最终成就11000多亿（我预期1.4万亿），远未达预期</t>
+  </si>
+  <si>
+    <t>人民币汇率回调至7.01，夜间富时中国3倍做多etf跌8%，上午A股量能急剧萎缩，截止10：50 减少2100亿</t>
+  </si>
+  <si>
+    <t>茅台，五粮液延续涨势，整个白酒板块继续上涨，消费板块继续上涨</t>
+  </si>
+  <si>
+    <t>港股上涨至19000点上方</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF4D4F53"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证监会日前就《上市公司监管指引第10号——市值管理（征求意见稿）》公开征求意见，其中要求长期破净公司应当披露估值提升计划</t>
+    </r>
+  </si>
+  <si>
+    <t>央国企+地产+白酒大涨</t>
+  </si>
+  <si>
+    <t>13点消息，中央政治局：努力提振资本市场。其中提到：实施有力度的降息！三大指数上午回调，1点开始强烈拉升，成交量急剧放大</t>
+  </si>
+  <si>
+    <t>会议强调，要加大财政货币政策逆周期调节力度，保证必要的财政支出，切实做好基层“三保”工作。
+要发行使用好超长期特别国债和地方政府专项债，更好发挥政府投资带动作用。要降低存款准备金率，实施有力度的降息。</t>
+  </si>
+  <si>
+    <t>沪指重返3000点，总成交11664亿，151股涨停，地产，白酒，大消费，破净央国企大涨，白酒几乎全盘涨停，史上罕见</t>
+  </si>
+  <si>
+    <t>高盛称中国股市上涨可继续</t>
+  </si>
+  <si>
+    <t>夜间富时中国3倍做多etf再涨23.55%，红金龙指数再涨10.8%</t>
+  </si>
+  <si>
+    <t>大盘继续放量4000亿，半日成交9400亿，上交所出现交易故障，大量股票1个小时无交易</t>
+  </si>
+  <si>
+    <t>股帮认为现在是岛形反转，第一浪上涨不会超过530点，在3174点左右，已经出现3个跳空缺口，只能再出现一个就会回调</t>
+  </si>
+  <si>
+    <t>盘中，五粮液2连涨停，东方财富接近20%，宁德时代涨12%</t>
+  </si>
+  <si>
+    <t>央行：自9月27日起下调金融机构存款准备金率0.5个百分点</t>
+  </si>
+  <si>
+    <t>创业板涨10%，创历史，沪指涨2.89，深指涨6.71，总成交14556亿，放大2800亿，涨停138家，白酒，券商，光伏，大消费，有色金属是上涨主力</t>
+  </si>
+  <si>
+    <t>东方财富涨停，成交281亿创历史记录，宁德时代成交155亿，茅台成交140亿，五粮液成绩134亿</t>
+  </si>
+  <si>
+    <t>牛市！牛市！注意短期剧烈回调，在回调中找机会，继续关注题材</t>
+  </si>
+  <si>
+    <t>高盛：对冲基金大量买入中国股票，期待已久的复苏可能终于到来</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1018,12 +1088,62 @@
     <t>央行大利好，三大指数大涨，茅台，五粮液均大涨，工业富联涨停，其他消费电子白马股均大涨</t>
   </si>
   <si>
-    <t>常山北明竞价跌停，9.25拉至-7%成交，开盘快速拉升到红盘，回调到-3左右，主力买入2.5亿，随后开始强行拉升到5%。最后涨停，涨停时主力买入接近10亿</t>
+    <t>茅台史上首次回购之后央行就出大利好，巧合还是布局？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">常山北明竞价跌停，9.25拉至-7%成交，开盘快速拉升到红盘，回调到-3左右，主力买入2.5亿，随后开始强行拉升到5%。最后涨停，涨停时主力买入接近10亿
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有评论认为华为板块在MATE70发布之前不会倒下，常山北明还不会倒下</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> -2%的时候担心跌停卖出</t>
   </si>
   <si>
+    <t>常山北明龙虎榜，呼家楼，欢乐海岸买入超1亿， 六一中路买入</t>
+  </si>
+  <si>
+    <t>银之杰到10：30 主力流出6个亿，总成交24亿，仍然涨6.9%</t>
+  </si>
+  <si>
+    <t>茅台，五粮液延续涨势，整个白酒板块继续上涨</t>
+  </si>
+  <si>
+    <t>白酒板块几乎全部涨停</t>
+  </si>
+  <si>
+    <t>五粮液盘中再涨停，东方财富接近20%涨停，成交量超220亿，宁德时代涨12%，成交量破百亿</t>
+  </si>
+  <si>
+    <t>白酒再次全部涨停</t>
+  </si>
+  <si>
+    <t>大盘爆发前的龙头大众交通，深圳华强，常山北明，大唐电信，国中水务，博士眼镜，保变电器全部出现滞涨</t>
+  </si>
+  <si>
+    <t>再次验证风格转换后资金抛弃涨幅较大的个股而转向板块洼地</t>
+  </si>
+  <si>
+    <t>东方财富当日主力买入22亿，近10日主力买入52亿</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1037,6 +1157,60 @@
   </si>
   <si>
     <t>8月CPI仅增加0.6%，7月为0.5%</t>
+  </si>
+  <si>
+    <t>8月货币数据，狭义货币(M1)余额63.02万亿元，同比下降7.3%(预期-6.70%)。
+流通中货币(M0)余额11.95万亿元，同比增长12.2%。</t>
+  </si>
+  <si>
+    <t>汉嘉设计继续在5日线上方，有希望走出小龙头行情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>银之杰11：27开始跳水，上午收盘前接近绿盘，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应该是洗掉了一个大户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，下午开盘后来开始拉升，1：55接近涨停</t>
+    </r>
+  </si>
+  <si>
+    <t>银之杰涨停收盘，汉嘉设计涨4.5，继续稳步在5日线上方</t>
+  </si>
+  <si>
+    <t>银之杰继续涨停</t>
+  </si>
+  <si>
+    <t>汉嘉设计高开后回调，到2点开始拉升最终涨停，成绩7.5亿，大资金净买入3800万，主力持仓涨至12%</t>
+  </si>
+  <si>
+    <t>汉嘉设计已经收出5个涨停，5个涨停是小龙头的极限</t>
+  </si>
+  <si>
+    <t>前龙头正丹股份从9.20开始走出一波反弹，今日收于最高点</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1225,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1237,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1082,6 +1263,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1119,6 +1301,26 @@
       <color rgb="FF222222"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF4D4F53"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1262,6 +1464,13 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1585,10 +1794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,143 +1806,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,43 +1961,55 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2101,130 +2331,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="117.25" customWidth="1"/>
+    <col min="2" max="2" width="122" customWidth="1"/>
     <col min="3" max="3" width="71.5" customWidth="1"/>
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2">
-        <v>4.29</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>4.12</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="109" customHeight="1" spans="1:3">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3">
-        <v>5.4</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>4.29</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="120" customHeight="1" spans="1:3">
+    <row r="4" ht="109" customHeight="1" spans="1:3">
       <c r="A4">
-        <v>5.11</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>5.4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="97" customHeight="1" spans="1:2">
+    <row r="5" ht="120" customHeight="1" spans="1:3">
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="97" customHeight="1" spans="1:2">
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7">
+        <v>5.11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8">
         <v>5.13</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="77" customHeight="1" spans="1:3">
-      <c r="A8">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="77" customHeight="1" spans="1:3">
+      <c r="A9">
         <v>5.14</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10">
         <v>5.17</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11">
         <v>6.14</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11">
-        <v>6.19</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2232,200 +2465,200 @@
         <v>6.19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13">
+        <v>6.19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="7">
         <v>6.2</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15">
         <v>6.24</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16">
         <v>6.25</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16">
-        <v>7.3</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19">
+        <v>7.5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20">
         <v>7.6</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="10">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="15">
         <v>7.9</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="4">
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="7">
         <v>7.1</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="4">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="7">
         <v>7.1</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="4">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="7">
         <v>7.1</v>
       </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:2">
-      <c r="A24">
-        <v>7.11</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>33</v>
+      <c r="B24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25">
-        <v>7.13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
+        <v>7.11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26">
-        <v>7.18</v>
+        <v>7.13</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27">
+        <v>7.18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28">
         <v>7.22</v>
       </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29">
         <v>7.23</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:2">
-      <c r="A29">
-        <v>7.25</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30">
         <v>7.25</v>
       </c>
-      <c r="B30" t="s">
-        <v>40</v>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31">
+        <v>7.25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32">
         <v>7.26</v>
       </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="4">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="7">
         <v>7.29</v>
       </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="4">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="7">
         <v>7.3</v>
       </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:3">
-      <c r="A34">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35">
         <v>7.31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35">
-        <v>8.2</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -2433,7 +2666,7 @@
         <v>8.2</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -2441,263 +2674,400 @@
         <v>8.2</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" ht="71" customHeight="1" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
       <c r="A38">
+        <v>8.2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" ht="71" customHeight="1" spans="1:4">
+      <c r="A39">
         <v>8.4</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:2">
-      <c r="A39">
-        <v>8.5</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" s="16" t="s">
         <v>52</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40">
         <v>8.5</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" ht="84" customHeight="1" spans="1:2">
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:2">
+      <c r="B41" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" ht="84" customHeight="1" spans="1:2">
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>55</v>
+      <c r="B42" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43">
-        <v>8.6</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>8.5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44">
         <v>8.6</v>
       </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:4">
+      <c r="B44" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
       <c r="A45">
+        <v>8.6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46">
         <v>8.12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46">
-        <v>8.13</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
       </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47">
-        <v>8.14</v>
+        <v>8.13</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48">
-        <v>8.15</v>
+        <v>8.14</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49">
+        <v>8.15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50">
         <v>8.16</v>
       </c>
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="4">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="7">
         <v>8.2</v>
       </c>
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="4">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="7">
         <v>8.3</v>
       </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:2">
-      <c r="A52">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53">
         <v>9.3</v>
       </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:3">
-      <c r="A53">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54">
         <v>9.6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:2">
-      <c r="A54" s="4">
-        <v>9.1</v>
       </c>
       <c r="B54" t="s">
         <v>69</v>
       </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
-      <c r="A55">
-        <v>9.11</v>
+      <c r="A55" s="7">
+        <v>9.1</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56">
+        <v>9.11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57">
         <v>9.13</v>
       </c>
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:3">
-      <c r="A57">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58">
         <v>9.14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:2">
-      <c r="A58">
-        <v>9.18</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
       </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59">
+        <v>9.18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="11">
         <v>9.19</v>
       </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:2">
-      <c r="A60">
-        <v>9.19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
+      <c r="B60" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61">
+        <v>9.19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" ht="135" customHeight="1" spans="1:4">
-      <c r="A62">
-        <v>9.24</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:2">
+    </row>
+    <row r="63" ht="135" customHeight="1" spans="1:4">
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:3">
-      <c r="A64">
+      <c r="D63" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" s="12" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A64" s="12">
         <v>9.24</v>
       </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:2">
-      <c r="A65">
+    <row r="65" s="12" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A65" s="12">
         <v>9.24</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:2">
-      <c r="A66">
+      <c r="C65" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" s="12" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A66" s="12">
+        <v>9.24</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67">
         <v>9.25</v>
       </c>
-      <c r="B66" t="s">
-        <v>85</v>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68">
+        <v>9.26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69">
+        <v>9.26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70">
+        <v>9.26</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" s="12" customFormat="1" ht="109" customHeight="1" spans="1:3">
+      <c r="A71" s="23">
+        <v>9.26</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" s="12" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A72" s="12">
+        <v>9.26</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A73">
+        <v>9.26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A74">
+        <v>9.27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:2">
+      <c r="A75">
+        <v>9.27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:2">
+      <c r="A76">
+        <v>9.27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:2">
+      <c r="A77">
+        <v>9.27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:2">
+      <c r="A78">
+        <v>9.27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" s="13" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A79" s="13">
+        <v>9.27</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80">
+        <v>9.27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="11">
+        <v>9.27</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:2">
+      <c r="A82">
+        <v>9.27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2710,10 +3080,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -2728,7 +3098,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -2736,7 +3106,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -2744,7 +3114,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2752,21 +3122,21 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>91</v>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -2774,7 +3144,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -2782,7 +3152,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -2790,15 +3160,15 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -2806,7 +3176,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -2814,7 +3184,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -2822,7 +3192,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -2830,15 +3200,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>101</v>
+      <c r="B14" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -2846,7 +3216,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -2854,7 +3224,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -2862,7 +3232,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -2870,7 +3240,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -2878,7 +3248,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -2886,7 +3256,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2894,10 +3264,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -2905,7 +3275,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -2913,15 +3283,15 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="7">
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -2929,10 +3299,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -2940,7 +3310,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -2948,7 +3318,12 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28">
+        <v>9.27</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +3337,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2976,13 +3351,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2993,102 +3368,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>133</v>
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>136</v>
+        <v>155</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3100,17 +3475,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="97.375" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3122,26 +3497,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3149,7 +3524,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3157,7 +3532,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3165,7 +3540,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3173,10 +3548,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3184,7 +3559,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3192,7 +3567,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3200,10 +3575,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3211,26 +3586,26 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -3238,10 +3613,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -3249,10 +3624,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -3260,10 +3635,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -3271,10 +3646,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3282,7 +3657,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -3290,10 +3665,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3301,15 +3676,15 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21">
         <v>9.6</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>170</v>
+      <c r="B21" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3317,7 +3692,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3325,7 +3700,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3333,7 +3708,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -3341,15 +3716,15 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="7">
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -3357,18 +3732,18 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="7">
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -3376,26 +3751,96 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
       <c r="A30">
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:4">
+        <v>200</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" ht="92" customHeight="1" spans="1:4">
       <c r="A31">
         <v>9.25</v>
       </c>
-      <c r="B31" t="s">
-        <v>181</v>
+      <c r="B31" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32">
+        <v>9.25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33">
+        <v>9.26</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34">
+        <v>9.26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35">
+        <v>9.26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36">
+        <v>9.27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37">
+        <v>9.27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38">
+        <v>9.27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39">
+        <v>9.27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3407,15 +3852,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="69.75" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="16384" width="69.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:2">
@@ -3423,12 +3869,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3436,10 +3882,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3447,7 +3893,114 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6">
+        <v>9.14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="3" max="3" width="46.75" customWidth="1"/>
+    <col min="4" max="16384" width="95.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2">
+        <v>9.26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3">
+        <v>9.26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4">
+        <v>9.26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5">
+        <v>9.26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6">
+        <v>9.27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7">
+        <v>9.27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8">
+        <v>9.27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="249">
   <si>
     <t>日期</t>
   </si>
@@ -771,6 +771,48 @@
     <t>高盛：对冲基金大量买入中国股票，期待已久的复苏可能终于到来</t>
   </si>
   <si>
+    <t>多个美国明星经理呼吁买入一切中国资产</t>
+  </si>
+  <si>
+    <t>房地产政策继续松绑，广州解除一切限购，二套房首付也降至15%</t>
+  </si>
+  <si>
+    <t>9月29日晚，央行连发四项金融支持房地产政策，给房贷个人和房企同时送上政策大礼包。</t>
+  </si>
+  <si>
+    <t>四项政策分别是：1．中国人民银行关于完善商业性个人住房贷款利率定价机制的公告（《中国人民银行公告〔2024〕第11号》）及答记者问；2．《中国人民银行 国家金融监督管理总局关于优化个人住房贷款最低首付款比例政策的通知》；3．《中国人民银行办公厅关于优化保障性住房再贷款有关要求的通知》；4．《中国人民银行 国家金融监督管理总局关于延长部分房地产金融政策期限的通知》。</t>
+  </si>
+  <si>
+    <t>上证高开4个点，创业板高开5个点，两市9点40成交接近5000亿</t>
+  </si>
+  <si>
+    <t>9点半指数回调，但10点开始三大指数继续爆涨，10点过，总成交超万亿，10点40，总成绩超1万4千亿</t>
+  </si>
+  <si>
+    <t>北证指数大涨15%，11点，总成交量超1万5千以</t>
+  </si>
+  <si>
+    <t>受新首相以及A股大涨影响，日经225 大跌4.6%</t>
+  </si>
+  <si>
+    <t>两市总成交2.6万亿创历史记录，涨停700多家，沪指涨8%，创业板涨15.36%创历史记录，但是主力流出400多亿</t>
+  </si>
+  <si>
+    <t>沪指高开10.13%，深成指高开12.67%，创业板高开18.44%</t>
+  </si>
+  <si>
+    <t>9点51分，两市总成交破万亿，但是主力流出650亿</t>
+  </si>
+  <si>
+    <t>10点44分，总成交2万亿，成交量放大6000亿，主力流出1500亿，恒生指数跌7%，富时中国A50期货暴跌8.3%</t>
+  </si>
+  <si>
+    <t>有不好迹象，主力在出货，沪指下午可能翻绿</t>
+  </si>
+  <si>
+    <t>两市半日成交2.5万亿。272只个股涨停，沪指出现明显回调，主力流出1700亿</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -973,6 +1015,12 @@
     <t>由于巴勒斯坦和以色列频繁传出和谈，集运指数欧线跌至3300</t>
   </si>
   <si>
+    <t>国内主要期货跟随股市连续大涨，煤炭，铁矿石，玻璃连续2天上涨超过8%，</t>
+  </si>
+  <si>
+    <t>因该是跟房地产政策继续松绑有关</t>
+  </si>
+  <si>
     <t>评论</t>
   </si>
   <si>
@@ -1144,6 +1192,18 @@
     <t>东方财富当日主力买入22亿，近10日主力买入52亿</t>
   </si>
   <si>
+    <t>东方财富高开，9：47成交160亿涨 17%，主力资金流出19亿</t>
+  </si>
+  <si>
+    <t>东方财富继续涨停，成交创天量320亿，主力流出24亿</t>
+  </si>
+  <si>
+    <t>贵州茅台高开后翻绿，成交290亿</t>
+  </si>
+  <si>
+    <t>宁德时代成交308亿，高开后回调</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1211,6 +1271,15 @@
   </si>
   <si>
     <t>前龙头正丹股份从9.20开始走出一波反弹，今日收于最高点</t>
+  </si>
+  <si>
+    <t>银之杰直接涨停开盘，成为大牛股</t>
+  </si>
+  <si>
+    <t>汉嘉设计早盘剧烈震荡，最高涨12%</t>
+  </si>
+  <si>
+    <t>同花顺连续2个涨停</t>
   </si>
 </sst>
 </file>
@@ -1271,6 +1340,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="宋体"/>
@@ -1281,13 +1357,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1936,7 +2005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,6 +2018,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1958,9 +2030,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1970,16 +2039,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1988,9 +2057,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2011,6 +2077,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2331,10 +2406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2374,7 +2449,7 @@
       <c r="A3">
         <v>4.29</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -2385,7 +2460,7 @@
       <c r="A4">
         <v>5.4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -2396,7 +2471,7 @@
       <c r="A5">
         <v>5.11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
@@ -2407,7 +2482,7 @@
       <c r="A6">
         <v>5.11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2434,7 +2509,7 @@
       <c r="A9">
         <v>5.14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
@@ -2453,7 +2528,7 @@
       <c r="A11">
         <v>6.14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -2477,7 +2552,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>6.2</v>
       </c>
       <c r="B14" t="s">
@@ -2539,12 +2614,12 @@
       <c r="A21" s="15">
         <v>7.9</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>7.1</v>
       </c>
       <c r="B22" t="s">
@@ -2552,7 +2627,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>7.1</v>
       </c>
       <c r="B23" t="s">
@@ -2560,7 +2635,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>7.1</v>
       </c>
       <c r="B24" t="s">
@@ -2614,7 +2689,7 @@
       <c r="A30">
         <v>7.25</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2635,7 +2710,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>7.29</v>
       </c>
       <c r="B33" t="s">
@@ -2643,7 +2718,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>7.3</v>
       </c>
       <c r="B34" t="s">
@@ -2689,7 +2764,7 @@
       <c r="A39">
         <v>8.4</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -2711,7 +2786,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2719,7 +2794,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2735,7 +2810,7 @@
       <c r="A44">
         <v>8.6</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2791,7 +2866,7 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>8.2</v>
       </c>
       <c r="B51" t="s">
@@ -2799,7 +2874,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>8.3</v>
       </c>
       <c r="B52" t="s">
@@ -2826,7 +2901,7 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
-      <c r="A55" s="7">
+      <c r="A55" s="4">
         <v>9.1</v>
       </c>
       <c r="B55" t="s">
@@ -2868,8 +2943,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="11">
+    <row r="60" s="10" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="10">
         <v>9.19</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -2888,7 +2963,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2896,40 +2971,40 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" s="12" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A64" s="12">
+    <row r="64" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A64" s="11">
         <v>9.24</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" s="12" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A65" s="12">
+    <row r="65" s="11" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A65" s="11">
         <v>9.24</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" s="12" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A66" s="12">
+    <row r="66" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A66" s="11">
         <v>9.24</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2964,29 +3039,29 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" s="12" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="23">
+    <row r="71" s="11" customFormat="1" ht="109" customHeight="1" spans="1:3">
+      <c r="A71" s="22">
         <v>9.26</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" s="12" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A72" s="12">
+    <row r="72" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A72" s="11">
         <v>9.26</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3038,11 +3113,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" s="13" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A79" s="13">
+    <row r="79" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A79" s="11">
         <v>9.27</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3054,8 +3129,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="11">
+    <row r="81" s="10" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="10">
         <v>9.27</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -3068,6 +3143,113 @@
       </c>
       <c r="B82" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:2">
+      <c r="A83">
+        <v>9.27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84" s="4">
+        <v>9.29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" s="12" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="24">
+        <v>9.29</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A86" s="25">
+        <v>9.3</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:2">
+      <c r="A87" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:2">
+      <c r="A88" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:2">
+      <c r="A89" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" s="13" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A90" s="26">
+        <v>9.3</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A91">
+        <v>10.8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:2">
+      <c r="A92">
+        <v>10.8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:3">
+      <c r="A93">
+        <v>10.8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:2">
+      <c r="A94">
+        <v>10.8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:1">
+      <c r="A95">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3280,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3106,7 +3288,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3114,7 +3296,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3122,21 +3304,21 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>5.17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>111</v>
+      <c r="B5" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3144,7 +3326,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3152,7 +3334,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3160,15 +3342,15 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3176,7 +3358,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3184,7 +3366,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3192,7 +3374,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3200,7 +3382,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3208,7 +3390,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3216,7 +3398,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3224,7 +3406,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3232,7 +3414,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3240,7 +3422,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3248,7 +3430,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3256,7 +3438,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3264,10 +3446,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3275,7 +3457,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3283,15 +3465,15 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3299,10 +3481,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3310,7 +3492,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3318,7 +3500,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
@@ -3335,10 +3517,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -3351,13 +3533,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3368,102 +3550,113 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3475,10 +3668,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3497,14 +3690,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
@@ -3512,11 +3705,11 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3524,7 +3717,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3532,7 +3725,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3540,7 +3733,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3548,10 +3741,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3559,7 +3752,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3567,7 +3760,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3575,10 +3768,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3586,26 +3779,26 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -3613,10 +3806,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -3624,10 +3817,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -3635,10 +3828,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -3646,10 +3839,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3657,7 +3850,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -3665,10 +3858,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3676,15 +3869,15 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21">
         <v>9.6</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>190</v>
+      <c r="B21" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3692,7 +3885,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3700,7 +3893,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3708,7 +3901,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -3716,15 +3909,15 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -3732,18 +3925,18 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -3751,7 +3944,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -3759,10 +3952,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -3770,10 +3963,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -3781,7 +3974,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -3789,7 +3982,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -3797,7 +3990,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -3805,7 +3998,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -3813,7 +4006,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -3821,7 +4014,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -3829,10 +4022,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -3840,7 +4033,39 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41">
+        <v>10.8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42">
+        <v>10.8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43">
+        <v>10.8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3869,12 +4094,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3882,10 +4107,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3893,15 +4118,15 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6">
         <v>9.14</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>218</v>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -3916,13 +4141,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="67.125" customWidth="1"/>
@@ -3938,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3949,7 +4174,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3957,7 +4182,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3965,7 +4190,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3973,7 +4198,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3981,7 +4206,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -3989,10 +4214,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4000,7 +4225,31 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="264">
   <si>
     <t>日期</t>
   </si>
@@ -813,6 +813,18 @@
     <t>两市半日成交2.5万亿。272只个股涨停，沪指出现明显回调，主力流出1700亿</t>
   </si>
   <si>
+    <t>总成叫3.4万亿，放大8000亿</t>
+  </si>
+  <si>
+    <t>截止9点40，因获利回吐，港股昨日暴跌，富时中国A50期货暴跌，开盘大部分股票下跌，3支C字头新股全部腰斩并停牌，创业板权重跌8。6%白酒整体大跌，地产大跌，固态电池大跌，芯片跌幅较小</t>
+  </si>
+  <si>
+    <t>9点40，大资金流出680亿证券整体跌幅较小，而且大智慧和东方财富还上涨，东方财富10分钟成交220亿</t>
+  </si>
+  <si>
+    <t>消费，零售，旅游，房地产是本轮率先上涨的板块，也是今日领跌板块</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -935,6 +947,9 @@
     <t>人民币最高涨至6.99</t>
   </si>
   <si>
+    <t>在美联储加息预期减弱情况下，虽然A继续大涨，但是人民币跌至7.06</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1204,6 +1219,33 @@
     <t>宁德时代成交308亿，高开后回调</t>
   </si>
   <si>
+    <t>万科成交超100亿，高开后大幅回调，只涨1%</t>
+  </si>
+  <si>
+    <t>券商全板块涨停，房地产回调，芯片板块全线大涨</t>
+  </si>
+  <si>
+    <t>旅游全板块飘绿，前期龙头长白山跌5%</t>
+  </si>
+  <si>
+    <t>宁德时代成交392亿，涨18%，东方财富继续涨停，成交330亿，贵州茅台成交350亿，跌1.5%，五粮液成交220亿</t>
+  </si>
+  <si>
+    <t>五粮液连续3日涨停后，成交220亿，收出大阴线</t>
+  </si>
+  <si>
+    <t>长江电力成交140亿，跌1.9%</t>
+  </si>
+  <si>
+    <t>创业板权重整体涨17%，带动创业板涨17%</t>
+  </si>
+  <si>
+    <t>东方财富10分钟成交220亿，券商牛市风向标，东方财富是券商风向标</t>
+  </si>
+  <si>
+    <t>固态电池南都电源率先反弹，宁德时代仍大跌12%</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1280,6 +1322,9 @@
   </si>
   <si>
     <t>同花顺连续2个涨停</t>
+  </si>
+  <si>
+    <t>在疯牛环境下，银之杰，汉嘉设计继续涨停</t>
   </si>
 </sst>
 </file>
@@ -1318,6 +1363,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -1327,14 +1380,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2005,7 +2050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2024,6 +2069,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2033,9 +2081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2043,9 +2088,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2081,10 +2123,7 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2406,10 +2445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2420,25 +2459,25 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:3">
+    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2">
         <v>4.12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -2582,7 +2621,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2611,7 +2650,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2767,10 +2806,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2794,7 +2833,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2943,11 +2982,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="10">
+    <row r="60" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="11">
         <v>9.19</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2963,7 +3002,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2971,7 +3010,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2981,30 +3020,30 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A64" s="11">
+    <row r="64" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A64" s="6">
         <v>9.24</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A65" s="11">
+    <row r="65" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A65" s="6">
         <v>9.24</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A66" s="11">
+    <row r="66" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A66" s="6">
         <v>9.24</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3039,29 +3078,29 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" s="11" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="22">
+    <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
+      <c r="A71" s="21">
         <v>9.26</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A72" s="11">
+    <row r="72" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A72" s="6">
         <v>9.26</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3113,11 +3152,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A79" s="11">
+    <row r="79" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A79" s="6">
         <v>9.27</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3129,11 +3168,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="10" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="10">
+    <row r="81" s="11" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="11">
         <v>9.27</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3162,7 +3201,7 @@
       </c>
     </row>
     <row r="85" s="12" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="24">
+      <c r="A85" s="23">
         <v>9.29</v>
       </c>
       <c r="B85" s="12" t="s">
@@ -3172,11 +3211,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="25">
+    <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A86" s="24">
         <v>9.3</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3204,11 +3243,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" s="13" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="26">
+    <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A90" s="24">
         <v>9.3</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3247,9 +3286,36 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:1">
-      <c r="A95">
+    <row r="95" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A95" s="6">
         <v>10.8</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:2">
+      <c r="A96">
+        <v>10.9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:2">
+      <c r="A97">
+        <v>10.9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:2">
+      <c r="A98">
+        <v>10.9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3264,8 +3330,8 @@
   <sheetPr/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -3280,7 +3346,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3288,7 +3354,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3296,7 +3362,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3304,10 +3370,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3315,10 +3381,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3326,7 +3392,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3334,7 +3400,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3342,7 +3408,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3350,7 +3416,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3358,7 +3424,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3366,7 +3432,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3374,7 +3440,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3382,15 +3448,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>135</v>
+      <c r="B14" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3398,7 +3464,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3406,7 +3472,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3414,7 +3480,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3422,7 +3488,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3430,7 +3496,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3438,7 +3504,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3446,10 +3512,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3457,7 +3523,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3465,7 +3531,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3473,7 +3539,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3481,10 +3547,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3492,7 +3558,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3500,12 +3566,15 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
       <c r="A28">
-        <v>9.27</v>
+        <v>10.8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3533,13 +3602,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3550,102 +3619,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3653,10 +3722,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3668,10 +3737,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3690,14 +3759,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
@@ -3705,11 +3774,11 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3717,7 +3786,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3725,7 +3794,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3733,7 +3802,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3741,10 +3810,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3752,7 +3821,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3760,7 +3829,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3768,10 +3837,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3779,7 +3848,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3787,7 +3856,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -3795,10 +3864,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -3806,10 +3875,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -3817,10 +3886,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -3828,10 +3897,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -3839,10 +3908,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3850,7 +3919,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -3858,10 +3927,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3869,7 +3938,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -3877,7 +3946,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3885,7 +3954,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3893,7 +3962,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3901,7 +3970,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -3909,7 +3978,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3917,7 +3986,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -3925,10 +3994,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3936,7 +4005,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -3944,7 +4013,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -3952,21 +4021,21 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
       <c r="A31">
         <v>9.25</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>218</v>
+      <c r="B31" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -3974,7 +4043,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -3982,7 +4051,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -3990,7 +4059,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -3998,7 +4067,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4006,7 +4075,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4014,7 +4083,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4022,10 +4091,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4033,7 +4102,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4041,7 +4110,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4049,7 +4118,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4057,7 +4126,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4065,7 +4134,79 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44">
+        <v>10.8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45">
+        <v>10.8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46">
+        <v>10.8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47">
+        <v>10.8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A48" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49">
+        <v>10.8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50">
+        <v>10.8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51">
+        <v>10.9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52">
+        <v>10.9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4094,12 +4235,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4107,10 +4248,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4118,7 +4259,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4126,7 +4267,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4141,10 +4282,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -4163,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4174,7 +4315,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4182,7 +4323,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4190,7 +4331,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4198,7 +4339,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4206,7 +4347,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4214,10 +4355,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4225,7 +4366,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4233,7 +4374,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4241,7 +4382,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4249,7 +4390,15 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12">
+        <v>10.8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="272">
   <si>
     <t>日期</t>
   </si>
@@ -813,7 +813,15 @@
     <t>两市半日成交2.5万亿。272只个股涨停，沪指出现明显回调，主力流出1700亿</t>
   </si>
   <si>
-    <t>总成叫3.4万亿，放大8000亿</t>
+    <t>总成叫3.5万亿，放大8000亿，涨停790家，沪指涨4.59，深成指涨9.17，创业板涨17.25%，上涨5000家，下跌300家，涨幅大于10%超过2200家
+三只次新高开后突然跳水，芯片，光刻胶，创业板权重，消费电子，低空经济涨幅较大，
+白酒，饮料，消费开始出现分化，旅游整体回调，
+ST板块涨跌互现，前期龙头ST景峰 连续跌停
+主力卖出2200亿有见顶可能</t>
+  </si>
+  <si>
+    <t>港股跌9.4 科技指数跌12.8，腾讯跌8，小米跌8.4 万科跌31融创跌34美团跌15.4，富时A50指数期货大跌11%
+港股券商板块暴跌，招商证券跌36%,申万鸿源跌35%</t>
   </si>
   <si>
     <t>截止9点40，因获利回吐，港股昨日暴跌，富时中国A50期货暴跌，开盘大部分股票下跌，3支C字头新股全部腰斩并停牌，创业板权重跌8。6%白酒整体大跌，地产大跌，固态电池大跌，芯片跌幅较小</t>
@@ -823,6 +831,15 @@
   </si>
   <si>
     <t>消费，零售，旅游，房地产是本轮率先上涨的板块，也是今日领跌板块</t>
+  </si>
+  <si>
+    <t>三大指数均低开，盘中剧烈震荡，最后沪指跌6.62，深成指跌8.15%，创业板跌10.59%，成交量29000亿，缩量5100亿，854家跌停，51家涨停，最后1个小时跌停数量急剧增加，跟2月份股灾有相似之处</t>
+  </si>
+  <si>
+    <t>受港股券商大跌影响，券商大部分跌停，东方财富成交900亿创历史记录成为风向标，中信证券成交422亿，芯片，海思，高速铜揽比较抗跌，仅跌不到1个点，大消费，旅游，地产继续领跌，其他游戏短剧，低空，光模块，商业航天，固态电池也大跌</t>
+  </si>
+  <si>
+    <t>前期熊市龙头，大众交通三连涨停，常山北明继续涨停，神宇股份大涨，南都电源涨，大盘反向标 ST景峰涨停</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1240,10 +1257,24 @@
     <t>创业板权重整体涨17%，带动创业板涨17%</t>
   </si>
   <si>
+    <t>金融管理部门已进行窗口指导：银行信贷资金严禁违规进入股市</t>
+  </si>
+  <si>
     <t>东方财富10分钟成交220亿，券商牛市风向标，东方财富是券商风向标</t>
   </si>
   <si>
     <t>固态电池南都电源率先反弹，宁德时代仍大跌12%</t>
+  </si>
+  <si>
+    <t>上交所融资余额报8059.25亿元，较前一交易日增加556.69亿元；深交所融资余额报7306.23亿元，
+较前一交易日增加513.78亿元；两市合计15365.48亿元，较前一交易日增加1070.47亿元。
+这是一个历史罕见的数据。</t>
+  </si>
+  <si>
+    <t>值得一提的是，高峰时期的2015年，融资余额有近30个交易日突破2万亿，最高达到2.26万亿。关于杠杆水平的另一个重要指标是：融资余额占流通市值比重，当时这个指标达到了4.3%以上。截至目前，无论是融资余额规模，还是融资余额占流通市值比重，都远小于2015年疯牛时期。</t>
+  </si>
+  <si>
+    <t>外资加仓也很迅猛，晨星公司（Morningstar）的数据显示，截至10月4日当周，流入规模为52亿美元，相比之下，2024年迄今为止的平均周度流出量为8300万美元，而去年平均每周外流2700万美元。</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1336,10 +1367,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,6 +1402,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF174573"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -1387,6 +1430,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1421,14 +1480,6 @@
       <color rgb="FF4D4F53"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1908,10 +1959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1920,137 +1971,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2063,7 +2114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2072,7 +2123,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2081,8 +2132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2093,38 +2144,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2445,10 +2511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2459,25 +2525,25 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:3">
+    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2">
         <v>4.12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -2621,7 +2687,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2650,7 +2716,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="14">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2806,10 +2872,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2825,7 +2891,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2833,7 +2899,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2982,11 +3048,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="11">
+    <row r="60" s="13" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="13">
         <v>9.19</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3002,7 +3068,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3010,7 +3076,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3078,7 +3144,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3086,13 +3152,13 @@
       </c>
     </row>
     <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="21">
+      <c r="A71" s="15">
         <v>9.26</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3168,11 +3234,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="11" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="11">
+    <row r="81" s="13" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="13">
         <v>9.27</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3200,19 +3266,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="12" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="23">
+    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="24">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3244,7 +3310,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="24">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3286,19 +3352,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A95" s="6">
+    <row r="95" s="15" customFormat="1" ht="112" customHeight="1" spans="1:2">
+      <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:2">
-      <c r="A96">
-        <v>10.9</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="96" s="16" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A96" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3316,6 +3382,38 @@
       </c>
       <c r="B98" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:2">
+      <c r="A99">
+        <v>10.9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A100" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:2">
+      <c r="A101">
+        <v>10.9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:2">
+      <c r="A102">
+        <v>10.9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3444,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3354,7 +3452,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3362,7 +3460,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3370,10 +3468,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3381,10 +3479,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3392,7 +3490,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3400,7 +3498,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3408,7 +3506,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3416,7 +3514,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3424,7 +3522,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3432,7 +3530,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3440,7 +3538,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3448,15 +3546,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>139</v>
+      <c r="B14" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3464,7 +3562,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3472,7 +3570,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3480,7 +3578,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3488,7 +3586,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3496,7 +3594,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3504,7 +3602,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3512,10 +3610,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3523,7 +3621,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3531,7 +3629,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3539,7 +3637,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3547,10 +3645,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3558,7 +3656,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3566,7 +3664,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3574,7 +3672,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3602,13 +3700,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3619,102 +3717,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3722,10 +3820,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3737,10 +3835,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3759,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3778,7 +3876,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3786,7 +3884,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3794,7 +3892,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3802,7 +3900,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3810,10 +3908,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3821,7 +3919,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3829,7 +3927,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3837,10 +3935,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3848,7 +3946,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3856,7 +3954,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -3864,10 +3962,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -3875,10 +3973,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -3886,10 +3984,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -3897,10 +3995,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -3908,10 +4006,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3919,7 +4017,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -3927,10 +4025,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3938,7 +4036,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -3946,7 +4044,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3954,7 +4052,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3962,7 +4060,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3970,7 +4068,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -3978,7 +4076,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3986,7 +4084,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -3994,10 +4092,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4005,7 +4103,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4013,7 +4111,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4021,10 +4119,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4032,10 +4130,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4043,7 +4141,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4051,7 +4149,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4059,7 +4157,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4067,7 +4165,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4075,7 +4173,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4083,7 +4181,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4091,10 +4189,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4102,7 +4200,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4110,7 +4208,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4118,7 +4216,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4126,7 +4224,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4134,7 +4232,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4142,7 +4240,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4150,7 +4248,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4158,7 +4256,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4166,7 +4264,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4174,7 +4272,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4182,7 +4280,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4190,15 +4288,15 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51">
-        <v>10.9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A51" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4206,7 +4304,34 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53">
+        <v>10.9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54">
+        <v>10.9</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55">
+        <v>10.9</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4235,12 +4360,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4248,10 +4373,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4259,7 +4384,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4267,7 +4392,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4304,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4315,7 +4440,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4323,7 +4448,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4331,7 +4456,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4339,7 +4464,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4347,7 +4472,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4355,10 +4480,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4366,7 +4491,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4374,7 +4499,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4382,7 +4507,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4390,7 +4515,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4398,7 +4523,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="274">
   <si>
     <t>日期</t>
   </si>
@@ -822,6 +822,12 @@
   <si>
     <t>港股跌9.4 科技指数跌12.8，腾讯跌8，小米跌8.4 万科跌31融创跌34美团跌15.4，富时A50指数期货大跌11%
 港股券商板块暴跌，招商证券跌36%,申万鸿源跌35%</t>
+  </si>
+  <si>
+    <t>午夜富时中国三倍做多ETF暴跌30%</t>
+  </si>
+  <si>
+    <t>情况不妙，A股有暴涨暴跌的可能性</t>
   </si>
   <si>
     <t>截止9点40，因获利回吐，港股昨日暴跌，富时中国A50期货暴跌，开盘大部分股票下跌，3支C字头新股全部腰斩并停牌，创业板权重跌8。6%白酒整体大跌，地产大跌，固态电池大跌，芯片跌幅较小</t>
@@ -2101,7 +2107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2142,6 +2148,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2511,10 +2520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2687,7 +2696,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2716,7 +2725,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2872,10 +2881,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2891,7 +2900,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2899,7 +2908,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2938,11 +2947,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:2">
-      <c r="A47">
+    <row r="47" s="14" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A47" s="14">
         <v>8.13</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3068,7 +3077,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3076,7 +3085,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3144,7 +3153,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3152,13 +3161,13 @@
       </c>
     </row>
     <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="15">
+      <c r="A71" s="16">
         <v>9.26</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3266,19 +3275,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+    <row r="85" s="15" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3310,7 +3319,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3352,28 +3361,31 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" s="15" customFormat="1" ht="112" customHeight="1" spans="1:2">
-      <c r="A95" s="15">
+    <row r="95" s="16" customFormat="1" ht="112" customHeight="1" spans="1:2">
+      <c r="A95" s="16">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" s="16" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A96" s="16">
+    <row r="96" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A96" s="17">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:2">
-      <c r="A97">
-        <v>10.9</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" s="14" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A97" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>122</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:2">
@@ -3381,7 +3393,7 @@
         <v>10.9</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:2">
@@ -3389,23 +3401,23 @@
         <v>10.9</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A100" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:2">
+      <c r="A100">
         <v>10.9</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:2">
-      <c r="A101">
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A101" s="6">
         <v>10.9</v>
       </c>
-      <c r="B101" t="s">
-        <v>126</v>
+      <c r="B101" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:2">
@@ -3413,7 +3425,15 @@
         <v>10.9</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:2">
+      <c r="A103">
+        <v>10.9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3464,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3452,7 +3472,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3460,7 +3480,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3468,10 +3488,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3479,10 +3499,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3490,7 +3510,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3498,7 +3518,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3506,7 +3526,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3514,7 +3534,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3522,7 +3542,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3530,7 +3550,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3538,7 +3558,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3546,7 +3566,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3554,7 +3574,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3562,7 +3582,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3570,7 +3590,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3578,7 +3598,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3586,7 +3606,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3594,7 +3614,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3602,7 +3622,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3610,10 +3630,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3621,7 +3641,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3629,7 +3649,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3637,7 +3657,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3645,10 +3665,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3656,7 +3676,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3664,7 +3684,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3672,7 +3692,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3700,13 +3720,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3717,102 +3737,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3820,10 +3840,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3876,7 +3896,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3884,7 +3904,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3892,7 +3912,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3900,7 +3920,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3908,10 +3928,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3919,7 +3939,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3927,7 +3947,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3935,10 +3955,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3946,7 +3966,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3954,7 +3974,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -3962,10 +3982,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -3973,10 +3993,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -3984,10 +4004,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -3995,10 +4015,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4006,10 +4026,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4017,7 +4037,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4025,10 +4045,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4036,7 +4056,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4044,7 +4064,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4052,7 +4072,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4060,7 +4080,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4068,7 +4088,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4076,7 +4096,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4084,7 +4104,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4092,10 +4112,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4103,7 +4123,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4111,7 +4131,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4119,10 +4139,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4130,10 +4150,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4141,7 +4161,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4149,7 +4169,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4157,7 +4177,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4165,7 +4185,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4173,7 +4193,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4181,7 +4201,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4189,10 +4209,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4200,7 +4220,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4208,7 +4228,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4216,7 +4236,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4224,7 +4244,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4232,7 +4252,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4240,7 +4260,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4248,7 +4268,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4256,7 +4276,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4264,7 +4284,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4272,7 +4292,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4280,7 +4300,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4288,7 +4308,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4296,7 +4316,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4304,7 +4324,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4312,7 +4332,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4320,10 +4340,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4331,7 +4351,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4360,12 +4380,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4373,10 +4393,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4384,7 +4404,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4392,7 +4412,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4429,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4440,7 +4460,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4448,7 +4468,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4456,7 +4476,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4464,7 +4484,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4472,7 +4492,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4480,10 +4500,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4491,7 +4511,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4499,7 +4519,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4507,7 +4527,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4515,7 +4535,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4523,7 +4543,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="276">
   <si>
     <t>日期</t>
   </si>
@@ -839,10 +839,13 @@
     <t>消费，零售，旅游，房地产是本轮率先上涨的板块，也是今日领跌板块</t>
   </si>
   <si>
-    <t>三大指数均低开，盘中剧烈震荡，最后沪指跌6.62，深成指跌8.15%，创业板跌10.59%，成交量29000亿，缩量5100亿，854家跌停，51家涨停，最后1个小时跌停数量急剧增加，跟2月份股灾有相似之处</t>
+    <t>三大指数均低开，盘中剧烈震荡，最后沪指跌6.62，深成指跌8.15%，创业板跌10.59%，成交量29000亿，缩量5100亿，主力流出2377亿，854家跌停，51家涨停，最后1个小时跌停数量急剧增加，跟2月份股灾有相似之处</t>
   </si>
   <si>
     <t>受港股券商大跌影响，券商大部分跌停，东方财富成交900亿创历史记录成为风向标，中信证券成交422亿，芯片，海思，高速铜揽比较抗跌，仅跌不到1个点，大消费，旅游，地产继续领跌，其他游戏短剧，低空，光模块，商业航天，固态电池也大跌</t>
+  </si>
+  <si>
+    <t>目前市场焦点在证券和芯片板块</t>
   </si>
   <si>
     <t>前期熊市龙头，大众交通三连涨停，常山北明继续涨停，神宇股份大涨，南都电源涨，大盘反向标 ST景峰涨停</t>
@@ -1281,6 +1284,9 @@
   </si>
   <si>
     <t>外资加仓也很迅猛，晨星公司（Morningstar）的数据显示，截至10月4日当周，流入规模为52亿美元，相比之下，2024年迄今为止的平均周度流出量为8300万美元，而去年平均每周外流2700万美元。</t>
+  </si>
+  <si>
+    <t>东方财富成交900亿，主力流出119亿，中信证券成交422亿，主力流出80亿，宁德时代成交290亿，主力流出5亿，中芯国家成交280亿，主力流入2。9亿</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1376,7 +1382,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1495,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1965,10 +1978,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1977,34 +1990,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2016,94 +2026,97 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2150,9 +2163,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2200,6 +2210,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2522,8 +2535,8 @@
   <sheetPr/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2696,7 +2709,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2725,7 +2738,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2881,10 +2894,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2900,7 +2913,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2908,7 +2921,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2947,8 +2960,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" s="14" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A47" s="14">
+    <row r="47" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A47" s="6">
         <v>8.13</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3077,7 +3090,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3085,7 +3098,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3153,7 +3166,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3161,13 +3174,13 @@
       </c>
     </row>
     <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>9.26</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3275,19 +3288,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3319,7 +3332,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3361,24 +3374,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" s="16" customFormat="1" ht="112" customHeight="1" spans="1:2">
-      <c r="A95" s="16">
+    <row r="95" s="15" customFormat="1" ht="112" customHeight="1" spans="1:2">
+      <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A96" s="17">
+    <row r="96" s="16" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A97" s="14">
+    <row r="97" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A97" s="6">
         <v>10.8</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -3420,12 +3433,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:2">
+    <row r="102" customHeight="1" spans="1:3">
       <c r="A102">
         <v>10.9</v>
       </c>
       <c r="B102" t="s">
         <v>128</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:2">
@@ -3433,7 +3449,7 @@
         <v>10.9</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3464,7 +3480,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3472,7 +3488,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3480,7 +3496,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3488,10 +3504,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3499,10 +3515,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3510,7 +3526,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3518,7 +3534,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3526,7 +3542,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3534,7 +3550,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3542,7 +3558,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3550,7 +3566,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3558,7 +3574,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3566,7 +3582,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3574,7 +3590,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3582,7 +3598,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3590,7 +3606,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3598,7 +3614,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3606,7 +3622,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3614,7 +3630,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3622,7 +3638,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3630,10 +3646,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3641,7 +3657,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3649,7 +3665,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3657,7 +3673,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3665,10 +3681,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3676,7 +3692,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3684,7 +3700,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3692,7 +3708,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3720,13 +3736,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3737,102 +3753,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3840,10 +3856,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3855,10 +3871,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3877,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3896,7 +3912,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3904,7 +3920,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3912,7 +3928,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3920,7 +3936,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3928,10 +3944,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3939,7 +3955,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3947,7 +3963,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3955,10 +3971,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3966,7 +3982,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3974,7 +3990,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -3982,10 +3998,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -3993,10 +4009,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4004,10 +4020,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4015,10 +4031,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4026,10 +4042,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4037,7 +4053,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4045,10 +4061,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4056,7 +4072,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4064,7 +4080,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4072,7 +4088,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4080,7 +4096,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4088,7 +4104,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4096,7 +4112,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4104,7 +4120,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4112,10 +4128,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4123,7 +4139,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4131,7 +4147,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4139,10 +4155,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4150,10 +4166,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4161,7 +4177,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4169,7 +4185,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4177,7 +4193,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4185,7 +4201,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4193,7 +4209,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4201,7 +4217,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4209,10 +4225,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4220,7 +4236,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4228,7 +4244,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4236,7 +4252,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4244,7 +4260,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4252,7 +4268,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4260,7 +4276,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4268,7 +4284,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4276,7 +4292,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4284,7 +4300,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4292,7 +4308,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4300,7 +4316,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4308,7 +4324,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4316,7 +4332,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4324,7 +4340,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4332,7 +4348,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4340,10 +4356,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4351,7 +4367,15 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56">
+        <v>10.9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4380,12 +4404,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4393,10 +4417,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4404,7 +4428,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4412,7 +4436,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4449,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4460,7 +4484,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4468,7 +4492,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4476,7 +4500,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4484,7 +4508,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4492,7 +4516,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4500,10 +4524,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4511,7 +4535,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4519,7 +4543,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4527,7 +4551,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4535,7 +4559,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4543,7 +4567,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="284">
   <si>
     <t>日期</t>
   </si>
@@ -851,6 +851,12 @@
     <t>前期熊市龙头，大众交通三连涨停，常山北明继续涨停，神宇股份大涨，南都电源涨，大盘反向标 ST景峰涨停</t>
   </si>
   <si>
+    <t>总成交21000亿，缩量8000亿，主力流出708亿，三大指数回调，沪指涨1.3%，创业板跌2.9%，涨停82，跌停48，大蓝筹，银行，煤炭，基建，航运涨。券商，地产，芯片，继续回调，分化加剧，银之杰跌停，润和软件180亿巨量跌停</t>
+  </si>
+  <si>
+    <t>市场焦点仍然在券商，东方财富成交519亿，大跌17%，主力流出47亿</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1289,6 +1295,12 @@
     <t>东方财富成交900亿，主力流出119亿，中信证券成交422亿，主力流出80亿，宁德时代成交290亿，主力流出5亿，中芯国家成交280亿，主力流入2。9亿</t>
   </si>
   <si>
+    <t>银之杰盘中拉起，最终跌停，双成药业，润和软件巨量跌停</t>
+  </si>
+  <si>
+    <t>C长联再跌18%，回调至最高点的大概1/3</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1368,6 +1380,18 @@
   </si>
   <si>
     <t>在疯牛环境下，银之杰，汉嘉设计继续涨停</t>
+  </si>
+  <si>
+    <t>银之杰跌停，8个20%涨停结束</t>
+  </si>
+  <si>
+    <t>还会继续下跌</t>
+  </si>
+  <si>
+    <t>汉嘉设计昨日跌停，今日再跌16%</t>
+  </si>
+  <si>
+    <t>行情也结束了，可以关注止跌反弹</t>
   </si>
 </sst>
 </file>
@@ -2533,10 +2557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3450,6 +3474,22 @@
       </c>
       <c r="B103" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:2">
+      <c r="A104" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:2">
+      <c r="A105" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3480,7 +3520,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3488,7 +3528,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3496,7 +3536,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3504,10 +3544,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3515,10 +3555,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3526,7 +3566,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3534,7 +3574,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3542,7 +3582,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3550,7 +3590,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3558,7 +3598,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3566,7 +3606,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3574,7 +3614,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3582,7 +3622,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3590,7 +3630,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3598,7 +3638,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3606,7 +3646,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3614,7 +3654,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3622,7 +3662,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3630,7 +3670,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3638,7 +3678,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3646,10 +3686,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3657,7 +3697,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3665,7 +3705,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3673,7 +3713,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3681,10 +3721,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3692,7 +3732,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3700,7 +3740,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3708,7 +3748,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3736,13 +3776,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3753,102 +3793,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3856,10 +3896,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3871,10 +3911,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3893,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3912,7 +3952,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3920,7 +3960,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3928,7 +3968,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3936,7 +3976,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3944,10 +3984,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3955,7 +3995,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3963,7 +4003,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -3971,10 +4011,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3982,7 +4022,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3990,7 +4030,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -3998,10 +4038,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4009,10 +4049,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4020,10 +4060,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4031,10 +4071,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4042,10 +4082,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4053,7 +4093,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4061,10 +4101,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4072,7 +4112,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4080,7 +4120,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4088,7 +4128,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4096,7 +4136,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4104,7 +4144,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4112,7 +4152,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4120,7 +4160,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4128,10 +4168,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4139,7 +4179,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4147,7 +4187,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4155,10 +4195,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4166,10 +4206,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4177,7 +4217,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4185,7 +4225,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4193,7 +4233,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4201,7 +4241,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4209,7 +4249,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4217,7 +4257,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4225,10 +4265,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4236,7 +4276,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4244,7 +4284,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4252,7 +4292,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4260,7 +4300,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4268,7 +4308,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4276,7 +4316,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4284,7 +4324,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4292,7 +4332,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4300,7 +4340,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4308,7 +4348,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4316,7 +4356,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4324,7 +4364,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4332,7 +4372,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4340,7 +4380,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4348,7 +4388,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4356,10 +4396,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4367,7 +4407,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4375,7 +4415,23 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4404,12 +4460,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4417,10 +4473,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4428,7 +4484,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4436,7 +4492,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4451,10 +4507,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -4473,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4484,7 +4540,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4492,7 +4548,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4500,7 +4556,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4508,7 +4564,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4516,7 +4572,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4524,10 +4580,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4535,7 +4591,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4543,7 +4599,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4551,7 +4607,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4559,7 +4615,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4567,7 +4623,29 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="290">
   <si>
     <t>日期</t>
   </si>
@@ -820,6 +820,9 @@
 主力卖出2200亿有见顶可能</t>
   </si>
   <si>
+    <t>北向资金总成交5100亿，较8月份的900亿放大了接近6倍</t>
+  </si>
+  <si>
     <t>港股跌9.4 科技指数跌12.8，腾讯跌8，小米跌8.4 万科跌31融创跌34美团跌15.4，富时A50指数期货大跌11%
 港股券商板块暴跌，招商证券跌36%,申万鸿源跌35%</t>
   </si>
@@ -855,6 +858,15 @@
   </si>
   <si>
     <t>市场焦点仍然在券商，东方财富成交519亿，大跌17%，主力流出47亿</t>
+  </si>
+  <si>
+    <t>巴克莱银行称中国市场录得390亿美元资金流入，国内投资者流入300亿，国外90亿，日本市场流出90亿。</t>
+  </si>
+  <si>
+    <t>三大指数低开后一路走低，总成交15868亿，缩量5700亿，涨停51，跌停33，大资金流出1125亿，风电，竣工，半导体，卫星导航跌幅居前，跨境支付，贵金属涨幅居前</t>
+  </si>
+  <si>
+    <t>东方财富，润和软件，中信证券成交前3，白酒，券商继续回调</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1392,6 +1404,12 @@
   </si>
   <si>
     <t>行情也结束了，可以关注止跌反弹</t>
+  </si>
+  <si>
+    <t>银之杰再跌15%，汉嘉跌3.8%</t>
+  </si>
+  <si>
+    <t>2股已经走出顶部，可能还会继续下跌</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1421,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2144,7 +2162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2157,7 +2175,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2166,7 +2184,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2196,10 +2214,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2223,10 +2244,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2557,10 +2578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2733,7 +2754,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2762,7 +2783,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2918,10 +2939,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2945,7 +2966,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3114,7 +3135,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3122,7 +3143,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3190,7 +3211,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3204,7 +3225,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3313,7 +3334,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3324,7 +3345,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3356,7 +3377,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3402,7 +3423,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3410,26 +3431,26 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A97" s="6">
+    <row r="97" s="16" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="6" t="s">
+    </row>
+    <row r="98" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A98" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:2">
-      <c r="A98">
-        <v>10.9</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3449,36 +3470,36 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A101" s="6">
+    <row r="101" customHeight="1" spans="1:2">
+      <c r="A101">
         <v>10.9</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:3">
-      <c r="A102">
+    <row r="102" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A102" s="6">
         <v>10.9</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:2">
+    </row>
+    <row r="103" customHeight="1" spans="1:3">
       <c r="A103">
         <v>10.9</v>
       </c>
       <c r="B103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="31" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:2">
-      <c r="A104" s="4">
-        <v>10.1</v>
+      <c r="A104">
+        <v>10.9</v>
       </c>
       <c r="B104" t="s">
         <v>131</v>
@@ -3490,6 +3511,38 @@
       </c>
       <c r="B105" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:2">
+      <c r="A106" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:2">
+      <c r="A107">
+        <v>10.11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A108" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:2">
+      <c r="A109">
+        <v>10.11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3573,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3528,7 +3581,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3536,7 +3589,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3544,10 +3597,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3555,10 +3608,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3566,7 +3619,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3574,7 +3627,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3582,7 +3635,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3590,7 +3643,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3598,7 +3651,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3606,7 +3659,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3614,7 +3667,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3622,7 +3675,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3630,7 +3683,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3638,7 +3691,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3646,7 +3699,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3654,7 +3707,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3662,7 +3715,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3670,7 +3723,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3678,7 +3731,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3686,10 +3739,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3697,7 +3750,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3705,7 +3758,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3713,7 +3766,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3721,10 +3774,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3732,7 +3785,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3740,7 +3793,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3748,7 +3801,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3776,13 +3829,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3793,102 +3846,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3896,10 +3949,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3964,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
@@ -3933,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3952,7 +4005,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -3960,7 +4013,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -3968,7 +4021,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3976,7 +4029,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -3984,10 +4037,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3995,7 +4048,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4003,7 +4056,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4011,10 +4064,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4022,7 +4075,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4030,7 +4083,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4038,10 +4091,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4049,10 +4102,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4060,10 +4113,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4071,10 +4124,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4082,10 +4135,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4093,7 +4146,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4101,10 +4154,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4112,7 +4165,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4120,7 +4173,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4128,7 +4181,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4136,7 +4189,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4144,7 +4197,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4152,7 +4205,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4160,7 +4213,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4168,10 +4221,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4179,7 +4232,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4187,7 +4240,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4195,10 +4248,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4206,10 +4259,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4217,7 +4270,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4225,7 +4278,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4233,7 +4286,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4241,7 +4294,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4249,7 +4302,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4257,7 +4310,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4265,10 +4318,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4276,7 +4329,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4284,7 +4337,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4292,7 +4345,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4300,7 +4353,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4308,7 +4361,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4316,7 +4369,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4324,7 +4377,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4332,7 +4385,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4340,7 +4393,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4348,7 +4401,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4356,7 +4409,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4364,7 +4417,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4372,7 +4425,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4380,7 +4433,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4388,7 +4441,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4396,10 +4449,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4407,7 +4460,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4415,7 +4468,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4423,7 +4476,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4431,7 +4484,12 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59">
+        <v>10.11</v>
       </c>
     </row>
   </sheetData>
@@ -4460,12 +4518,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4473,10 +4531,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4484,7 +4542,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4492,7 +4550,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4507,10 +4565,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -4529,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4540,7 +4598,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4548,7 +4606,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4556,7 +4614,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4564,7 +4622,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4572,7 +4630,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4580,10 +4638,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4591,7 +4649,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4599,7 +4657,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4607,7 +4665,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4615,7 +4673,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4623,7 +4681,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4631,10 +4689,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4642,10 +4700,21 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15">
+        <v>10.11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -13,13 +13,14 @@
     <sheet name="个股消息" sheetId="4" r:id="rId4"/>
     <sheet name="GDP数据" sheetId="5" r:id="rId5"/>
     <sheet name="小龙头总结" sheetId="6" r:id="rId6"/>
+    <sheet name="疯狂新股" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="298">
   <si>
     <t>日期</t>
   </si>
@@ -869,6 +870,31 @@
     <t>东方财富，润和软件，中信证券成交前3，白酒，券商继续回调</t>
   </si>
   <si>
+    <t>财政部发布会主要内容：
+一是加力支持地方化解政府债务风险，较大规模增加债务额度，支持地方化解隐性债务。
+二是发行特别国债，支持国有大型商业银行补充核心一级资本。
+三是叠加运用地方政府专项债券、专项资金、税收政策等工具，支持推动房地产市场止跌回稳。
+四是加大对重点群体的支持保障力度，下一步还将加大对学生群体奖优助困力度，提升整体消费能力。</t>
+  </si>
+  <si>
+    <t>下周一地产，化债会有板块性大涨
+券商也可能反弹
+建筑，设计，管道，钢铁，水泥也会大涨</t>
+  </si>
+  <si>
+    <t>国家统计局：9月CPI同比上涨0.4%，PPI同比下降2.8%</t>
+  </si>
+  <si>
+    <t>　中信建投（601066）宏观研报认为，这次财政部发布会没有给出增量发债数据，也未指明大规模刺激，但提到化债和中央加杠杆，表述积极。
+我们分析框架中，化债对经济的正面影响大于增量刺激，有效化债意味着我们走在正确的对抗通缩路径之上。
+这次会议还标志着中央加杠杆启动，也是市场期待已久的“中央下场”。
+中央财政和货币联动宽松，对市场而言，这是一场流动性盛宴。
+流动性盛宴之下股债走势，历史已有答案，10年前新《预算法》落定前后，债务置换推进，股债均有不俗表现。</t>
+  </si>
+  <si>
+    <t>在早盘回调的情况下三大指数均上涨2%左右，成交量16490亿放大622亿，主流仅仅流出72亿，121家涨停，ST景峰继续涨停，润和软件涨停</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1313,6 +1339,12 @@
     <t>C长联再跌18%，回调至最高点的大概1/3</t>
   </si>
   <si>
+    <t>东方财富上午跌9%后拉起，最终涨1%，成交量334亿再次排名两市第一</t>
+  </si>
+  <si>
+    <t>润和软件再次20%涨停，成交130亿，主力流入1.8亿</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1410,6 +1442,9 @@
   </si>
   <si>
     <t>2股已经走出顶部，可能还会继续下跌</t>
+  </si>
+  <si>
+    <t>银之杰反弹14%，汉嘉涨9.66%</t>
   </si>
 </sst>
 </file>
@@ -1421,8 +1456,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2175,7 +2210,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2184,7 +2219,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2214,13 +2249,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2244,10 +2276,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2258,6 +2290,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2578,10 +2613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2754,7 +2789,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2783,7 +2818,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2939,10 +2974,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2966,7 +3001,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3135,7 +3170,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3143,7 +3178,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3211,7 +3246,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3225,7 +3260,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3334,7 +3369,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3345,7 +3380,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3377,7 +3412,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3423,7 +3458,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3431,7 +3466,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3439,7 +3474,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="29" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3493,7 +3528,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3529,8 +3564,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A108" s="17">
+    <row r="108" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A108" s="6">
         <v>10.11</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -3543,6 +3578,41 @@
       </c>
       <c r="B109" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="110" ht="82" customHeight="1" spans="1:3">
+      <c r="A110">
+        <v>10.12</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:2">
+      <c r="A111">
+        <v>10.13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" ht="98" customHeight="1" spans="1:2">
+      <c r="A112">
+        <v>10.13</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:2">
+      <c r="A113">
+        <v>10.14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3643,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3581,7 +3651,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3589,7 +3659,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3597,10 +3667,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3608,10 +3678,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3619,7 +3689,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3627,7 +3697,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3635,7 +3705,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3643,7 +3713,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3651,7 +3721,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3659,7 +3729,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3667,7 +3737,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3675,7 +3745,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3683,7 +3753,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3691,7 +3761,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3699,7 +3769,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3707,7 +3777,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3715,7 +3785,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3723,7 +3793,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3731,7 +3801,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3739,10 +3809,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3750,7 +3820,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3758,7 +3828,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3766,7 +3836,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3774,10 +3844,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3785,7 +3855,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3793,7 +3863,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3801,7 +3871,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3829,13 +3899,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3846,102 +3916,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3949,10 +4019,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3964,10 +4034,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3986,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4005,7 +4075,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4013,7 +4083,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4021,7 +4091,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4029,7 +4099,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4037,10 +4107,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4048,7 +4118,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4056,7 +4126,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4064,10 +4134,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4075,7 +4145,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4083,7 +4153,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4091,10 +4161,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4102,10 +4172,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4113,10 +4183,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4124,10 +4194,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4135,10 +4205,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4146,7 +4216,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4154,10 +4224,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4165,7 +4235,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4173,7 +4243,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4181,7 +4251,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4189,7 +4259,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4197,7 +4267,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4205,7 +4275,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4213,7 +4283,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4221,10 +4291,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4232,7 +4302,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4240,7 +4310,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4248,10 +4318,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4259,10 +4329,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4270,7 +4340,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4278,7 +4348,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4286,7 +4356,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4294,7 +4364,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4302,7 +4372,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4310,7 +4380,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4318,10 +4388,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4329,7 +4399,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4337,7 +4407,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4345,7 +4415,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4353,7 +4423,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4361,7 +4431,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4369,7 +4439,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4377,7 +4447,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4385,7 +4455,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4393,7 +4463,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4401,7 +4471,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4409,7 +4479,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4417,7 +4487,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4425,7 +4495,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4433,7 +4503,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4441,7 +4511,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4449,10 +4519,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4460,7 +4530,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4468,7 +4538,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4476,7 +4546,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4484,12 +4554,23 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
       <c r="A59">
-        <v>10.11</v>
+        <v>10.14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60">
+        <v>10.14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4518,12 +4599,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4531,10 +4612,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4542,7 +4623,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4550,7 +4631,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4565,10 +4646,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -4587,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4598,7 +4679,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4606,7 +4687,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4614,7 +4695,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4622,7 +4703,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4630,7 +4711,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4638,10 +4719,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4649,7 +4730,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4657,7 +4738,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4665,7 +4746,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4673,7 +4754,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4681,7 +4762,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4689,10 +4770,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4700,10 +4781,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4711,14 +4792,42 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16">
+        <v>10.14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="65.625" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="303">
   <si>
     <t>日期</t>
   </si>
@@ -895,6 +895,12 @@
     <t>在早盘回调的情况下三大指数均上涨2%左右，成交量16490亿放大622亿，主流仅仅流出72亿，121家涨停，ST景峰继续涨停，润和软件涨停</t>
   </si>
   <si>
+    <t>6点，中国人民银行发布的9月金融数据。数据显示，9月末，广义货币（M2）余额309.48万亿元，同比增长6.8%，较上个月回升0.5个百分点。狭义货币（M1）余额62.82万亿元，同比下降7.4%，已经连续六个月负增长，且续创有记录以来新低。</t>
+  </si>
+  <si>
+    <t>三大指数同时下跌，成交量16500亿，主力流出850亿，涨停72，跌停2，券商整体下跌，长山北明继续强势上涨，成为龙头</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1020,6 +1026,9 @@
     <t>在美联储加息预期减弱情况下，虽然A继续大涨，但是人民币跌至7.06</t>
   </si>
   <si>
+    <t>由于美联储大幅降息的预期落空，使得美元相对其他货币迅速走强，离岸人民币兑美元跌至7.12</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1445,6 +1454,12 @@
   </si>
   <si>
     <t>银之杰反弹14%，汉嘉涨9.66%</t>
+  </si>
+  <si>
+    <t>长联科技首日上涨1788%，第二日在大盘影响下最高688，第三日收盘255，相对前一日腰斩</t>
+  </si>
+  <si>
+    <t>C强邦首日最高2121%，第二日收盘109，相对于高点跌超过50%</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1471,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2197,7 +2212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2210,7 +2225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2219,7 +2234,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2252,7 +2267,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2276,10 +2291,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2290,9 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2613,10 +2625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3584,10 +3596,10 @@
       <c r="A110">
         <v>10.12</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3603,7 +3615,7 @@
       <c r="A112">
         <v>10.13</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3613,6 +3625,22 @@
       </c>
       <c r="B113" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:2">
+      <c r="A114">
+        <v>10.14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:2">
+      <c r="A115">
+        <v>10.15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3625,10 +3653,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -3643,7 +3671,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3651,7 +3679,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3659,7 +3687,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3667,10 +3695,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3678,10 +3706,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3689,7 +3717,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3697,7 +3725,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3705,7 +3733,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3713,7 +3741,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3721,7 +3749,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3729,7 +3757,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3737,7 +3765,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3745,7 +3773,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3753,7 +3781,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3761,7 +3789,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3769,7 +3797,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3777,7 +3805,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3785,7 +3813,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3793,7 +3821,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3801,7 +3829,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3809,10 +3837,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3820,7 +3848,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3828,7 +3856,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3836,7 +3864,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3844,10 +3872,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3855,7 +3883,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3863,7 +3891,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3871,7 +3899,15 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29">
+        <v>10.15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3899,13 +3935,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3916,102 +3952,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4019,10 +4055,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4056,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4075,7 +4111,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4083,7 +4119,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4091,7 +4127,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4099,7 +4135,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4107,10 +4143,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4118,7 +4154,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4126,7 +4162,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4134,10 +4170,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4145,7 +4181,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4153,7 +4189,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4161,10 +4197,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4172,10 +4208,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4183,10 +4219,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4194,10 +4230,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4205,10 +4241,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4216,7 +4252,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4224,10 +4260,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4235,7 +4271,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4243,7 +4279,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4251,7 +4287,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4259,7 +4295,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4267,7 +4303,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4275,7 +4311,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4283,7 +4319,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4291,10 +4327,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4302,7 +4338,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4310,7 +4346,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4318,10 +4354,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4329,10 +4365,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4340,7 +4376,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4348,7 +4384,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4356,7 +4392,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4364,7 +4400,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4372,7 +4408,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4380,7 +4416,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4388,10 +4424,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4399,7 +4435,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4407,7 +4443,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4415,7 +4451,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4423,7 +4459,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4431,7 +4467,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4439,7 +4475,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4447,7 +4483,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4455,7 +4491,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4463,7 +4499,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4471,7 +4507,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4479,7 +4515,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4487,7 +4523,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4495,7 +4531,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4503,7 +4539,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4511,7 +4547,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4519,10 +4555,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4530,7 +4566,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4538,7 +4574,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4546,7 +4582,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4554,7 +4590,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4562,7 +4598,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4570,7 +4606,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4599,12 +4635,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4612,10 +4648,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4623,7 +4659,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4631,7 +4667,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4648,7 +4684,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4668,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4679,7 +4715,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4687,7 +4723,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4695,7 +4731,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4703,7 +4739,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4711,7 +4747,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4719,10 +4755,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4730,7 +4766,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4738,7 +4774,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4746,7 +4782,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4754,7 +4790,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4762,7 +4798,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4770,10 +4806,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4781,10 +4817,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4792,10 +4828,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4803,7 +4839,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4815,18 +4851,36 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="65.625" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="65.625" customWidth="1"/>
     <col min="3" max="3" width="40.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2">
+        <v>10.9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3">
+        <v>10.11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="308">
   <si>
     <t>日期</t>
   </si>
@@ -901,6 +901,15 @@
     <t>三大指数同时下跌，成交量16500亿，主力流出850亿，涨停72，跌停2，券商整体下跌，长山北明继续强势上涨，成为龙头</t>
   </si>
   <si>
+    <t>晚间中国红金龙指数大跌5.9%，富时中国三倍做多ETF大跌15.8%</t>
+  </si>
+  <si>
+    <t>今日港股和A股都将下跌</t>
+  </si>
+  <si>
+    <t>上证持平，创业板跌2.2%，成交13800以缩量2600亿，主流流出379亿，涨停106，跌停5，常山北明继续涨停，第一人气，银之杰也涨停，人气第二，板块跨境支付人气第一</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1029,6 +1038,9 @@
     <t>由于美联储大幅降息的预期落空，使得美元相对其他货币迅速走强，离岸人民币兑美元跌至7.12</t>
   </si>
   <si>
+    <t>黄金继续走强，纽约黄金涨至2683附近</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1460,6 +1472,9 @@
   </si>
   <si>
     <t>C强邦首日最高2121%，第二日收盘109，相对于高点跌超过50%</t>
+  </si>
+  <si>
+    <t>N上大开盘后1分钟内直接停牌，最终涨1060%</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1486,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2225,7 +2240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2234,7 +2249,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2267,7 +2282,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2291,10 +2306,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2625,10 +2640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3635,12 +3650,31 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:2">
-      <c r="A115">
+    <row r="115" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A115" s="6">
         <v>10.15</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="6" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:3">
+      <c r="A116">
+        <v>10.16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:2">
+      <c r="A117">
+        <v>10.17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3653,10 +3687,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -3671,7 +3705,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3679,7 +3713,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3687,7 +3721,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3695,10 +3729,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3706,10 +3740,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3717,7 +3751,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3725,7 +3759,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3733,7 +3767,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3741,7 +3775,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3749,7 +3783,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3757,7 +3791,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3765,7 +3799,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3773,7 +3807,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3781,7 +3815,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3789,7 +3823,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3797,7 +3831,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3805,7 +3839,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3813,7 +3847,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3821,7 +3855,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3829,7 +3863,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3837,10 +3871,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3848,7 +3882,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3856,7 +3890,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3864,7 +3898,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3872,10 +3906,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3883,7 +3917,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3891,7 +3925,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3899,7 +3933,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -3907,7 +3941,15 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30">
+        <v>10.16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3935,13 +3977,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3952,102 +3994,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4055,10 +4097,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4111,7 +4153,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4119,7 +4161,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4127,7 +4169,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4135,7 +4177,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4143,10 +4185,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4154,7 +4196,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4162,7 +4204,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4170,10 +4212,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4181,7 +4223,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4189,7 +4231,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4197,10 +4239,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4208,10 +4250,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4219,10 +4261,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4230,10 +4272,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4241,10 +4283,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4252,7 +4294,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4260,10 +4302,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4271,7 +4313,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4279,7 +4321,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4287,7 +4329,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4295,7 +4337,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4303,7 +4345,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4311,7 +4353,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4319,7 +4361,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4327,10 +4369,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4338,7 +4380,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4346,7 +4388,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4354,10 +4396,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4365,10 +4407,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4376,7 +4418,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4384,7 +4426,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4392,7 +4434,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4400,7 +4442,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4408,7 +4450,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4416,7 +4458,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4424,10 +4466,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4435,7 +4477,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4443,7 +4485,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4451,7 +4493,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4459,7 +4501,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4467,7 +4509,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4475,7 +4517,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4483,7 +4525,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4491,7 +4533,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4499,7 +4541,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4507,7 +4549,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4515,7 +4557,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4523,7 +4565,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4531,7 +4573,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4539,7 +4581,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4547,7 +4589,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4555,10 +4597,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4566,7 +4608,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4574,7 +4616,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4582,7 +4624,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4590,7 +4632,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4598,7 +4640,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4606,7 +4648,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4635,12 +4677,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4648,10 +4690,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4659,7 +4701,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4667,7 +4709,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4704,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4715,7 +4757,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4723,7 +4765,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4731,7 +4773,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4739,7 +4781,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4747,7 +4789,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4755,10 +4797,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4766,7 +4808,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4774,7 +4816,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4782,7 +4824,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4790,7 +4832,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4798,7 +4840,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4806,10 +4848,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4817,10 +4859,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4828,10 +4870,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4839,7 +4881,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4851,13 +4893,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
     <col min="2" max="2" width="65.625" customWidth="1"/>
@@ -4869,7 +4911,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4877,7 +4919,15 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4">
+        <v>10.6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="316">
   <si>
     <t>日期</t>
   </si>
@@ -910,6 +910,21 @@
     <t>上证持平，创业板跌2.2%，成交13800以缩量2600亿，主流流出379亿，涨停106，跌停5，常山北明继续涨停，第一人气，银之杰也涨停，人气第二，板块跨境支付人气第一</t>
   </si>
   <si>
+    <t>三大指数微跌的情况下，成交量放大搭配15100亿，但是主力流出535亿，国务院召开房地产会议但不及预期，但是港股和内地地产均大跌，A股地产跌6%</t>
+  </si>
+  <si>
+    <t>上午10点，国家统计局公布今年前三季度中国GDP同比增长4.8%，社会零售总额增长3.3%超预期</t>
+  </si>
+  <si>
+    <t>10：44消息，中国人民正式宣布，已联合证监会下发通知，即日起启动证券、基金、保险公司互换便利（SFISF）操作。目前有20家证券、基金公司获批参与工具操作，合计申请额度已超2000亿元。</t>
+  </si>
+  <si>
+    <t>中午消息，潘功胜表示，预计年底前视市场流动性情况，择机进一步下调存款准备金率0.25-0.5个百分点；下周一（10月21日）公布的贷款市场报价利率（LPR）也会下行0.2-0.25个百分点。</t>
+  </si>
+  <si>
+    <t>在三大消息刺激下，三大指数早盘震荡，下午开始创业板强烈拉升，沪指涨2.9，深成指涨4.7%，创业板涨7.9%，成交量21000亿放大6100亿，主力流入319亿，华为，芯片，光刻机，创业板权重领涨</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1364,6 +1379,15 @@
   </si>
   <si>
     <t>润和软件再次20%涨停，成交130亿，主力流入1.8亿</t>
+  </si>
+  <si>
+    <t>银之杰冲高16%后反而收阴。创历史新高，主力出货很明显</t>
+  </si>
+  <si>
+    <t>蒙草生态和润和软件走出小龙头趋势，沿五日线小幅上涨，后续可能继续走高并拉出涨停</t>
+  </si>
+  <si>
+    <t>神宇股份继续沿5日线上涨</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1486,8 +1510,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2240,7 +2264,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2249,7 +2273,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2282,7 +2306,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2306,10 +2330,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2640,10 +2664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3671,10 +3695,50 @@
     </row>
     <row r="117" customHeight="1" spans="1:2">
       <c r="A117">
-        <v>10.17</v>
+        <v>10.16</v>
       </c>
       <c r="B117" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:2">
+      <c r="A118">
+        <v>10.17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:2">
+      <c r="A119">
+        <v>10.18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:2">
+      <c r="A120">
+        <v>10.18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:2">
+      <c r="A121">
+        <v>10.18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:2">
+      <c r="A122">
+        <v>10.18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3769,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3713,7 +3777,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3721,7 +3785,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3729,10 +3793,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3740,10 +3804,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3751,7 +3815,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3759,7 +3823,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3767,7 +3831,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3775,7 +3839,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3783,7 +3847,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3791,7 +3855,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3799,7 +3863,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3807,7 +3871,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3815,7 +3879,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3823,7 +3887,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3831,7 +3895,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3839,7 +3903,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3847,7 +3911,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3855,7 +3919,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3863,7 +3927,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3871,10 +3935,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3882,7 +3946,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3890,7 +3954,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3898,7 +3962,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3906,10 +3970,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3917,7 +3981,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3925,7 +3989,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3933,7 +3997,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -3941,7 +4005,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -3949,7 +4013,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3977,13 +4041,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3994,102 +4058,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4097,10 +4161,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4112,10 +4176,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4134,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4153,7 +4217,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4161,7 +4225,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4169,7 +4233,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4177,7 +4241,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4185,10 +4249,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4196,7 +4260,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4204,7 +4268,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4212,10 +4276,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4223,7 +4287,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4231,7 +4295,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4239,10 +4303,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4250,10 +4314,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4261,10 +4325,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4272,10 +4336,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4283,10 +4347,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4294,7 +4358,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4302,10 +4366,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4313,7 +4377,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4321,7 +4385,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4329,7 +4393,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4337,7 +4401,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4345,7 +4409,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4353,7 +4417,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4361,7 +4425,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4369,10 +4433,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4380,7 +4444,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4388,7 +4452,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4396,10 +4460,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4407,10 +4471,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4418,7 +4482,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4426,7 +4490,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4434,7 +4498,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4442,7 +4506,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4450,7 +4514,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4458,7 +4522,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4466,10 +4530,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4477,7 +4541,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4485,7 +4549,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4493,7 +4557,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4501,7 +4565,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4509,7 +4573,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4517,7 +4581,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4525,7 +4589,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4533,7 +4597,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4541,7 +4605,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4549,7 +4613,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4557,7 +4621,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4565,7 +4629,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4573,7 +4637,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4581,7 +4645,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4589,7 +4653,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4597,10 +4661,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4608,7 +4672,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4616,7 +4680,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4624,7 +4688,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4632,7 +4696,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4640,7 +4704,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4648,7 +4712,31 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61">
+        <v>10.17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62">
+        <v>10.17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63">
+        <v>10.17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4677,12 +4765,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4690,10 +4778,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4701,7 +4789,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4709,7 +4797,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4724,10 +4812,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -4746,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4757,7 +4845,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4765,7 +4853,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4773,7 +4861,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4781,7 +4869,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4789,7 +4877,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4797,10 +4885,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4808,7 +4896,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4816,7 +4904,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4824,7 +4912,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4832,7 +4920,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4840,7 +4928,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4848,10 +4936,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4859,10 +4947,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4870,10 +4958,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4881,7 +4969,15 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17">
+        <v>10.17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +4991,7 @@
   <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4911,7 +5007,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4919,7 +5015,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4927,7 +5023,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="318">
   <si>
     <t>日期</t>
   </si>
@@ -923,6 +923,12 @@
   </si>
   <si>
     <t>在三大消息刺激下，三大指数早盘震荡，下午开始创业板强烈拉升，沪指涨2.9，深成指涨4.7%，创业板涨7.9%，成交量21000亿放大6100亿，主力流入319亿，华为，芯片，光刻机，创业板权重领涨</t>
+  </si>
+  <si>
+    <t>前三季度，房地产开发投资下降10.1%。全国新建商品房销售面积70284万平方米，同比下降17.1%，降幅比上半年和1-8月份分别收窄1.9和0.9个百分点；新建商品房销售额68880亿元，下降22.7%，降幅比上半年和1-8月份分别收窄2.3和0.9个百分点。</t>
+  </si>
+  <si>
+    <t>在降准，降息，互换便利政策刺激下，牛市将引来第二浪</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -2251,7 +2257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2301,6 +2307,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2664,10 +2673,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2840,7 +2849,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2869,7 +2878,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3025,10 +3034,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3052,7 +3061,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3221,7 +3230,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3229,7 +3238,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3297,7 +3306,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3311,7 +3320,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3420,7 +3429,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3431,7 +3440,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3463,7 +3472,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3509,7 +3518,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3517,7 +3526,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3525,7 +3534,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3579,7 +3588,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3739,6 +3748,22 @@
       </c>
       <c r="B122" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:2">
+      <c r="A123">
+        <v>10.18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A124" s="17">
+        <v>10.18</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3794,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3777,7 +3802,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3785,7 +3810,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3793,10 +3818,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3804,10 +3829,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3815,7 +3840,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3823,7 +3848,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3831,7 +3856,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3839,7 +3864,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3847,7 +3872,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3855,7 +3880,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3863,7 +3888,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3871,7 +3896,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3879,7 +3904,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3887,7 +3912,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3895,7 +3920,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3903,7 +3928,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3911,7 +3936,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3919,7 +3944,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3927,7 +3952,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3935,10 +3960,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3946,7 +3971,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3954,7 +3979,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3962,7 +3987,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3970,10 +3995,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -3981,7 +4006,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -3989,7 +4014,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -3997,7 +4022,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4005,7 +4030,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4013,7 +4038,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4041,13 +4066,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4058,102 +4083,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4161,10 +4186,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4217,7 +4242,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4225,7 +4250,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4233,7 +4258,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4241,7 +4266,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4249,10 +4274,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4260,7 +4285,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4268,7 +4293,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4276,10 +4301,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4287,7 +4312,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4295,7 +4320,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4303,10 +4328,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4314,10 +4339,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4325,10 +4350,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4336,10 +4361,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4347,10 +4372,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4358,7 +4383,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4366,10 +4391,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4377,7 +4402,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4385,7 +4410,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4393,7 +4418,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4401,7 +4426,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4409,7 +4434,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4417,7 +4442,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4425,7 +4450,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4433,10 +4458,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4444,7 +4469,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4452,7 +4477,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4460,10 +4485,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4471,10 +4496,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4482,7 +4507,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4490,7 +4515,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4498,7 +4523,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4506,7 +4531,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4514,7 +4539,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4522,7 +4547,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4530,10 +4555,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4541,7 +4566,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4549,7 +4574,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4557,7 +4582,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4565,7 +4590,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4573,7 +4598,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4581,7 +4606,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4589,7 +4614,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4597,7 +4622,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4605,7 +4630,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4613,7 +4638,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4621,7 +4646,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4629,7 +4654,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4637,7 +4662,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4645,7 +4670,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4653,7 +4678,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4661,10 +4686,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4672,7 +4697,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4680,7 +4705,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4688,7 +4713,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4696,7 +4721,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4704,7 +4729,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4712,7 +4737,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -4720,7 +4745,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -4728,7 +4753,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -4736,7 +4761,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4765,12 +4790,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4778,10 +4803,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4789,7 +4814,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4797,7 +4822,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4834,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4845,7 +4870,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4853,7 +4878,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4861,7 +4886,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4869,7 +4894,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4877,7 +4902,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4885,10 +4910,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4896,7 +4921,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4904,7 +4929,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4912,7 +4937,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4920,7 +4945,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4928,7 +4953,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4936,10 +4961,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4947,10 +4972,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4958,10 +4983,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4969,7 +4994,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4977,7 +5002,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5007,7 +5032,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5015,7 +5040,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5023,7 +5048,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="325">
   <si>
     <t>日期</t>
   </si>
@@ -931,6 +931,21 @@
     <t>在降准，降息，互换便利政策刺激下，牛市将引来第二浪</t>
   </si>
   <si>
+    <t>中国人民银行授权全国银行间同业拆借中心公布，2024年10月21日贷款市场报价利率（LPR）为：1年期LPR为3.10%（前值是3.35%），5年期以上LPR为3.60%（前值是3.85%），均较此前下调0.25个百分点。</t>
+  </si>
+  <si>
+    <t>两市总成交量2.23万亿，继续保持高位</t>
+  </si>
+  <si>
+    <t>成交量1.9万亿，缩量2600亿，主力流出700亿，132只个股涨停，无跌停，华为，跨境支付回调，医药，短剧游戏传媒上涨</t>
+  </si>
+  <si>
+    <t>进入个股炒作阶段</t>
+  </si>
+  <si>
+    <t>双成药业，海能达走出强势行情，常山北明回探五日线</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1396,6 +1411,9 @@
     <t>神宇股份继续沿5日线上涨</t>
   </si>
   <si>
+    <t>岩石股份继续沿五日线上攻，并涨停</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1496,6 +1514,9 @@
   </si>
   <si>
     <t>银之杰反弹14%，汉嘉涨9.66%</t>
+  </si>
+  <si>
+    <t>四川长虹5连涨停，四川长虹属于算力和跨境支付概念，在大盘反转之前四川长虹已经出现异动，跟随大盘2个涨停并回调之后，经历3，4日的调整，随即开启主升浪</t>
   </si>
   <si>
     <t>长联科技首日上涨1788%，第二日在大盘影响下最高688，第三日收盘255，相对前一日腰斩</t>
@@ -2001,11 +2022,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2118,7 +2148,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2148,7 +2178,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2166,28 +2196,28 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2196,10 +2226,10 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2309,9 +2339,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2352,6 +2379,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2673,10 +2703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2849,7 +2879,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2878,7 +2908,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3034,10 +3064,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3061,7 +3091,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3230,7 +3260,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3238,7 +3268,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3306,7 +3336,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3320,7 +3350,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3429,7 +3459,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3440,7 +3470,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3472,7 +3502,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3518,7 +3548,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3526,7 +3556,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3534,7 +3564,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="29" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3588,7 +3618,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3758,12 +3788,47 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="17">
+    <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A124" s="31">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:2">
+      <c r="A125">
+        <v>10.21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:2">
+      <c r="A126">
+        <v>10.21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:3">
+      <c r="A127">
+        <v>10.22</v>
+      </c>
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:2">
+      <c r="A128">
+        <v>10.22</v>
+      </c>
+      <c r="B128" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3859,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3802,7 +3867,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3810,7 +3875,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3818,10 +3883,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3829,10 +3894,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3840,7 +3905,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3848,7 +3913,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3856,7 +3921,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3864,7 +3929,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3872,7 +3937,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3880,7 +3945,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3888,7 +3953,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3896,7 +3961,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3904,7 +3969,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3912,7 +3977,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3920,7 +3985,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3928,7 +3993,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -3936,7 +4001,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -3944,7 +4009,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -3952,7 +4017,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -3960,10 +4025,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -3971,7 +4036,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -3979,7 +4044,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -3987,7 +4052,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -3995,10 +4060,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4006,7 +4071,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4014,7 +4079,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4022,7 +4087,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4030,7 +4095,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4038,7 +4103,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4066,13 +4131,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4083,102 +4148,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4186,10 +4251,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4201,10 +4266,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4223,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4242,7 +4307,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4250,7 +4315,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4258,7 +4323,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4266,7 +4331,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4274,10 +4339,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4285,7 +4350,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4293,7 +4358,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4301,10 +4366,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4312,7 +4377,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4320,7 +4385,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4328,10 +4393,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4339,10 +4404,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4350,10 +4415,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4361,10 +4426,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4372,10 +4437,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4383,7 +4448,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4391,10 +4456,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4402,7 +4467,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4410,7 +4475,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4418,7 +4483,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4426,7 +4491,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4434,7 +4499,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4442,7 +4507,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4450,7 +4515,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4458,10 +4523,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4469,7 +4534,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4477,7 +4542,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4485,10 +4550,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4496,10 +4561,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4507,7 +4572,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4515,7 +4580,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4523,7 +4588,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4531,7 +4596,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4539,7 +4604,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4547,7 +4612,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4555,10 +4620,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4566,7 +4631,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4574,7 +4639,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4582,7 +4647,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4590,7 +4655,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4598,7 +4663,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4606,7 +4671,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4614,7 +4679,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4622,7 +4687,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4630,7 +4695,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4638,7 +4703,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4646,7 +4711,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4654,7 +4719,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4662,7 +4727,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4670,7 +4735,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4678,7 +4743,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4686,10 +4751,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4697,7 +4762,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4705,7 +4770,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4713,7 +4778,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4721,7 +4786,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4729,7 +4794,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4737,7 +4802,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -4745,7 +4810,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -4753,7 +4818,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -4761,7 +4826,15 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
+      <c r="A64">
+        <v>10.22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4790,12 +4863,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4803,10 +4876,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4814,7 +4887,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4822,7 +4895,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -4837,10 +4910,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -4859,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4870,7 +4943,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4878,7 +4951,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4886,7 +4959,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4894,7 +4967,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4902,7 +4975,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4910,10 +4983,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4921,7 +4994,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4929,7 +5002,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4937,7 +5010,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4945,7 +5018,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4953,7 +5026,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4961,10 +5034,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4972,10 +5045,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4983,10 +5056,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4994,7 +5067,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5002,7 +5075,15 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18">
+        <v>10.22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5113,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5040,7 +5121,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5048,7 +5129,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="339">
   <si>
     <t>日期</t>
   </si>
@@ -931,6 +931,9 @@
     <t>在降准，降息，互换便利政策刺激下，牛市将引来第二浪</t>
   </si>
   <si>
+    <t>央行互换便利政策细则出台，特别是第7，8条，明确告诉你们韭菜，加杠杆融资可以90%，对冲做空不能超过10%。上涨巨大，下跌有限。第10条抵押品包括债券，ETF，股票，还有公募ETF，所有金融衍生品都可以抵押。这是核弹级别的QE。</t>
+  </si>
+  <si>
     <t>中国人民银行授权全国银行间同业拆借中心公布，2024年10月21日贷款市场报价利率（LPR）为：1年期LPR为3.10%（前值是3.35%），5年期以上LPR为3.60%（前值是3.85%），均较此前下调0.25个百分点。</t>
   </si>
   <si>
@@ -944,6 +947,36 @@
   </si>
   <si>
     <t>双成药业，海能达走出强势行情，常山北明回探五日线</t>
+  </si>
+  <si>
+    <t>晚间消息，国社会科学院金融研究所发布2024年第三季度宏观金融分析报告《存量与增量并重：宏观经济治理思路创新》。报告建议中提到，提升资本市场内在稳定性，发行2万亿元特别国债支持设立股市平准基金</t>
+  </si>
+  <si>
+    <t>华为原生鸿蒙操作系统正式发布</t>
+  </si>
+  <si>
+    <t>部分鸿蒙概念股可能短期见顶</t>
+  </si>
+  <si>
+    <t>指数全天震荡，沪指微涨0.5%。创业板跌0.5%，总成交19000亿，主力流出630亿，涨停127家，涨跌个股均未2400多家</t>
+  </si>
+  <si>
+    <t>商业航天，固态电池，光伏，军工等板块主涨，光伏沉浸多日后涨幅最大，其中南都电源最高涨停，板块轮动明显</t>
+  </si>
+  <si>
+    <t>10月23日，国新办举行新闻发布会，工业和信息化部相关负责人介绍2024年前三季度工业和信息化发展情况。</t>
+  </si>
+  <si>
+    <t>谈及下一步工作安排，有关负责人表示：
+　　1．研究制定提升产业科技创新能力的政策措施，促进科技创新与产业创新深度融合。培育壮大低空经济、商业航天、生物制造等新产业(68.300, 0.66, 0.98%)新赛道。
+　　2．深入开展智能网联汽车准入和上路通行试点、“车路云一体化”试点，稳妥推进自动驾驶技术产业化。
+　　3．积极应对反补贴调查、高额关税等贸易壁垒，在投资、管理等方面为汽车企业出海提供更多支持和便利。
+　　4．积极推动新一代信息通信技术、新能源技术与无人机等低空装备融合创新，开展低空经济无线电频率使用研究，按需推进低空信息基础设施建设。
+　　5．聚焦新型工业化的重点方向和领域，加大科技金融、数字金融、跨境金融、政策性金融等支持力度，引导更多金融资源用于促进科技创新、先进制造、绿色发展和中小微企业。
+　　6．充分发挥科技型企业上市融资、并购重组、债券发行“绿色通道”机制，引导社会资本为重点领域和关键环节提供多渠道、可持续的资金保障。联合相关部门尽快建成第三批区域性股权市场“专精特新”专板。</t>
+  </si>
+  <si>
+    <t>两市在震荡中走跌,沪指跌0.68%,创业板跌1.37,成交15000亿缩量4000亿,主流流出720亿,涨停133家,昨日强势板块固态电池回调,ST板块强势，大量涨停</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1412,6 +1445,21 @@
   </si>
   <si>
     <t>岩石股份继续沿五日线上攻，并涨停</t>
+  </si>
+  <si>
+    <t>南都电源第二波沿五日线后拉出第一个大阳线，接近涨停，光智科技第八个涨停</t>
+  </si>
+  <si>
+    <t>科源制药因为收购第二个涨停，可注意第三天是否回调，但是连续3-4个涨停的可能性很大</t>
+  </si>
+  <si>
+    <t>台基股份3个涨停后继续小幅上调，可能走出连续上攻走势</t>
+  </si>
+  <si>
+    <t>蒙固利涨9%，走出第二波的可能性较大，后面可能会有涨停</t>
+  </si>
+  <si>
+    <t>汉嘉设计跌10%，仍然在5日线上方，仍然可能走出第二波，银之杰连续两天回调，但未出现放量大跌，仍有可能继续上涨</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1537,8 +1585,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2300,7 +2348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2309,7 +2357,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2342,7 +2390,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2366,10 +2414,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2703,10 +2751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3796,9 +3844,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:2">
+    <row r="125" customFormat="1" customHeight="1" spans="1:2">
       <c r="A125">
-        <v>10.21</v>
+        <v>10.19</v>
       </c>
       <c r="B125" t="s">
         <v>154</v>
@@ -3812,23 +3860,85 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:3">
+    <row r="127" customHeight="1" spans="1:2">
       <c r="A127">
-        <v>10.22</v>
+        <v>10.21</v>
       </c>
       <c r="B127" t="s">
         <v>156</v>
       </c>
-      <c r="C127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:2">
+    </row>
+    <row r="128" customHeight="1" spans="1:3">
       <c r="A128">
         <v>10.22</v>
       </c>
       <c r="B128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:2">
+      <c r="A129">
+        <v>10.22</v>
+      </c>
+      <c r="B129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:2">
+      <c r="A130">
+        <v>10.22</v>
+      </c>
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A131" s="6">
+        <v>10.22</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:2">
+      <c r="A132">
+        <v>10.23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:2">
+      <c r="A133">
+        <v>10.23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" ht="178" customHeight="1" spans="1:3">
+      <c r="A134">
+        <v>10.24</v>
+      </c>
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:2">
+      <c r="A135">
+        <v>10.24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3969,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3867,7 +3977,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3875,7 +3985,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3883,10 +3993,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -3894,10 +4004,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -3905,7 +4015,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -3913,7 +4023,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -3921,7 +4031,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -3929,7 +4039,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -3937,7 +4047,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3945,7 +4055,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -3953,7 +4063,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -3961,7 +4071,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -3969,7 +4079,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -3977,7 +4087,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -3985,7 +4095,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -3993,7 +4103,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4001,7 +4111,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4009,7 +4119,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4017,7 +4127,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4025,10 +4135,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4036,7 +4146,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4044,7 +4154,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4052,7 +4162,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4060,10 +4170,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4071,7 +4181,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4079,7 +4189,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4087,7 +4197,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4095,7 +4205,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4103,7 +4213,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4131,13 +4241,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4148,102 +4258,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4251,10 +4361,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4266,10 +4376,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4288,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4307,7 +4417,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4315,7 +4425,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4323,7 +4433,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4331,7 +4441,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4339,10 +4449,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4350,7 +4460,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4358,7 +4468,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4366,10 +4476,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4377,7 +4487,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4385,7 +4495,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4393,10 +4503,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4404,10 +4514,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4415,10 +4525,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4426,10 +4536,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4437,10 +4547,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4448,7 +4558,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4456,10 +4566,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4467,7 +4577,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4475,7 +4585,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4483,7 +4593,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4491,7 +4601,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4499,7 +4609,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4507,7 +4617,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4515,7 +4625,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4523,10 +4633,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4534,7 +4644,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4542,7 +4652,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4550,10 +4660,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4561,10 +4671,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4572,7 +4682,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4580,7 +4690,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4588,7 +4698,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4596,7 +4706,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4604,7 +4714,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4612,7 +4722,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4620,10 +4730,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4631,7 +4741,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4639,7 +4749,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4647,7 +4757,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4655,7 +4765,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4663,7 +4773,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4671,7 +4781,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4679,7 +4789,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4687,7 +4797,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4695,7 +4805,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4703,7 +4813,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4711,7 +4821,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4719,7 +4829,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4727,7 +4837,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4735,7 +4845,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4743,7 +4853,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4751,10 +4861,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4762,7 +4872,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4770,7 +4880,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4778,7 +4888,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4786,7 +4896,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4794,7 +4904,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4802,7 +4912,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -4810,7 +4920,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -4818,7 +4928,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -4826,7 +4936,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -4834,7 +4944,47 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65">
+        <v>10.23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66">
+        <v>10.23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67">
+        <v>10.23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:2">
+      <c r="A68">
+        <v>10.23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69">
+        <v>10.23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4846,13 +4996,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="16384" width="69.75" customWidth="1"/>
@@ -4863,12 +5013,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4876,10 +5026,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4887,7 +5037,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -4895,10 +5045,18 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7">
+        <v>10.18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4943,7 +5101,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4951,7 +5109,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4959,7 +5117,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4967,7 +5125,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4975,7 +5133,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -4983,10 +5141,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4994,7 +5152,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5002,7 +5160,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5010,7 +5168,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5018,7 +5176,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5026,7 +5184,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5034,10 +5192,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5045,10 +5203,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5056,10 +5214,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5067,7 +5225,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5075,7 +5233,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5083,7 +5241,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +5271,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5121,7 +5279,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5129,7 +5287,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="361">
   <si>
     <t>日期</t>
   </si>
@@ -979,6 +979,46 @@
     <t>两市在震荡中走跌,沪指跌0.68%,创业板跌1.37,成交15000亿缩量4000亿,主流流出720亿,涨停133家,昨日强势板块固态电池回调,ST板块强势，大量涨停</t>
   </si>
   <si>
+    <t>央行10月28日公告，为维护银行体系流动性合理充裕，进一步丰富央行货币政策工具箱，人民银行决定从即日起启用公开市场买断式逆回购操作工具。</t>
+  </si>
+  <si>
+    <t>操作对象为公开市场业务一级交易商，原则上每月开展一次操作，期限不超过1年。
+公开市场买断式逆回购采用固定数量、利率招标、多重价位中标，回购标的包括国债、地方政府债券、金融债券、公司信用类债券等。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财政部数据显示，1—9月，全国国有及国有控股企业营业总收入同比增长1.2%，利润总额同比下降2.3%。</t>
+    </r>
+  </si>
+  <si>
+    <t>两市继续震荡，成交19000亿，主力流出360亿，但涨停增加到294家，跌停1家，大盘蓝筹滞涨，而中证1000，中证2000反弹明显，ST板块继续活跃上涨，钢铁板块大涨5.3%，光伏继续上涨</t>
+  </si>
+  <si>
+    <t>国务院办公厅日前印发《关于加快完善生育支持政策体系推动建设生育友好型社会的若干措施》（以下简称《若干措施》），国家卫生健康委今天发布了关于《若干措施》的解读。</t>
+  </si>
+  <si>
+    <t>三大指数震荡下跌，创业板跌2.3%，成交量放大到2.1万亿，主力流出1000亿，涨停152，跌停19。多数板块下跌，中科大板块逆势上涨4.3%,并购重组，智普AI上涨</t>
+  </si>
+  <si>
+    <t>放量回调可能是加仓的时机</t>
+  </si>
+  <si>
+    <t>连续2天下跌后三大指数反弹，成交量放大至2.2万亿，主力流出540亿，盘中最多250只个股涨停。多数板块上涨
+其中智普AI继续大涨，光刻机，氢能源，光伏，在线教育涨幅居前。东方财富成交量明显放大，成交451亿。</t>
+  </si>
+  <si>
+    <t>成交量逐步放大，预期较好</t>
+  </si>
+  <si>
+    <t>根据多个消息，市场在等待财政部规模最大的债务置换计划</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1110,6 +1150,15 @@
     <t>黄金继续走强，纽约黄金涨至2683附近</t>
   </si>
   <si>
+    <t>人民币兑美元跌至7.14，以色列对伊朗有限报复，纽约原油跌至68美元</t>
+  </si>
+  <si>
+    <t>纽约黄金涨至2751美元，沪金涨至624，沪银则短期回调，沪铜从79000回调至76000</t>
+  </si>
+  <si>
+    <t>受美国大选影响，由于特朗普支持低利率，纽约黄金逼近2800美元</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1194,6 +1243,9 @@
   </si>
   <si>
     <t>因该是跟房地产政策继续松绑有关</t>
+  </si>
+  <si>
+    <t>黄金继续逼近2800美元，但是沪铜，沪银没有跟随上涨</t>
   </si>
   <si>
     <t>评论</t>
@@ -1460,6 +1512,27 @@
   </si>
   <si>
     <t>汉嘉设计跌10%，仍然在5日线上方，仍然可能走出第二波，银之杰连续两天回调，但未出现放量大跌，仍有可能继续上涨</t>
+  </si>
+  <si>
+    <t>鸿蒙智行官微今天上午宣布，问界 M9 上市 10 个月，累计大定突破 16 万台，持续蝉联中国市场 50 万元以上车型月度销冠</t>
+  </si>
+  <si>
+    <t>28，29日赛力斯连续大涨，并冲击最近几年的高点</t>
+  </si>
+  <si>
+    <t>大众交通前一日主力流入6亿并涨停，今日上午流出4亿，下午1点半有资金拉升，但最终未能涨停，出现高位十字形态，成交量放大到54亿</t>
+  </si>
+  <si>
+    <t>大众交通连续多日下午拉升，今日则在11.29突然拉升，盘中涨停，尾盘破板，该股有主力在运作反弹，但估计里面资金思路不够统一，导致炸板</t>
+  </si>
+  <si>
+    <t>东方财富成交量明显放大打451亿，最后上涨7.9%,可能是大盘继续上攻的预兆</t>
+  </si>
+  <si>
+    <t>硕贝德10.23涨停后已经横向调整6日，如果大盘向上，可能会再收出大阳线</t>
+  </si>
+  <si>
+    <t>润和软件成交269亿创天量，主力流出48亿，上午最大涨幅8个多点，下午1点43开始下跌，2点38开始跳水，巨量大阴线，应该是走出顶部了</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1567,6 +1640,9 @@
     <t>四川长虹5连涨停，四川长虹属于算力和跨境支付概念，在大盘反转之前四川长虹已经出现异动，跟随大盘2个涨停并回调之后，经历3，4日的调整，随即开启主升浪</t>
   </si>
   <si>
+    <t>四川长虹继续涨停</t>
+  </si>
+  <si>
     <t>长联科技首日上涨1788%，第二日在大盘影响下最高688，第三日收盘255，相对前一日腰斩</t>
   </si>
   <si>
@@ -1585,8 +1661,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1711,6 +1787,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1865,12 +1947,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -2193,10 +2269,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2205,34 +2281,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2244,98 +2317,101 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2348,7 +2424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2357,7 +2433,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2387,10 +2463,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2414,10 +2493,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2430,6 +2509,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2751,10 +2833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2927,7 +3009,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2956,7 +3038,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3112,10 +3194,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3139,7 +3221,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3308,7 +3390,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3316,7 +3398,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3384,7 +3466,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3398,7 +3480,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3507,7 +3589,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3518,7 +3600,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3550,7 +3632,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3596,7 +3678,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3604,7 +3686,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3612,7 +3694,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3666,7 +3748,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3837,7 +3919,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="31">
+      <c r="A124" s="32">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -3939,6 +4021,71 @@
       </c>
       <c r="B135" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:3">
+      <c r="A136">
+        <v>10.28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:2">
+      <c r="A137">
+        <v>10.28</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:2">
+      <c r="A138">
+        <v>10.28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:2">
+      <c r="A139">
+        <v>10.29</v>
+      </c>
+      <c r="B139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A140" s="6">
+        <v>10.29</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:3">
+      <c r="A141">
+        <v>10.31</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A142" s="17">
+        <v>10.31</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +4098,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -3969,7 +4116,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -3977,7 +4124,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -3985,7 +4132,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -3993,10 +4140,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4004,10 +4151,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4015,7 +4162,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4023,7 +4170,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4031,7 +4178,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4039,7 +4186,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4047,7 +4194,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4055,7 +4202,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4063,7 +4210,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4071,7 +4218,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4079,7 +4226,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4087,7 +4234,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4095,7 +4242,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4103,7 +4250,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4111,7 +4258,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4119,7 +4266,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4127,7 +4274,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4135,10 +4282,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4146,7 +4293,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4154,7 +4301,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4162,7 +4309,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4170,10 +4317,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4181,7 +4328,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4189,7 +4336,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4197,7 +4344,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4205,7 +4352,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4213,7 +4360,31 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31">
+        <v>10.24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32">
+        <v>10.28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33">
+        <v>10.31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4396,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -4241,13 +4412,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4258,102 +4429,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4361,10 +4532,18 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:3">
+      <c r="B14">
+        <v>10.31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4376,10 +4555,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4398,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4417,7 +4596,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4425,7 +4604,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4433,7 +4612,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4441,7 +4620,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4449,10 +4628,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4460,7 +4639,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4468,7 +4647,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4476,10 +4655,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4487,7 +4666,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4495,7 +4674,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4503,10 +4682,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4514,10 +4693,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4525,10 +4704,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4536,10 +4715,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4547,10 +4726,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4558,7 +4737,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4566,10 +4745,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4577,7 +4756,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4585,7 +4764,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4593,7 +4772,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4601,7 +4780,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4609,7 +4788,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4617,7 +4796,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4625,7 +4804,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4633,10 +4812,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4644,7 +4823,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4652,7 +4831,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4660,10 +4839,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4671,10 +4850,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4682,7 +4861,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4690,7 +4869,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4698,7 +4877,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4706,7 +4885,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4714,7 +4893,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4722,7 +4901,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4730,10 +4909,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4741,7 +4920,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4749,7 +4928,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4757,7 +4936,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4765,7 +4944,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4773,7 +4952,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4781,7 +4960,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4789,7 +4968,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4797,7 +4976,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4805,7 +4984,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4813,7 +4992,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -4821,7 +5000,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -4829,7 +5008,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4837,7 +5016,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -4845,7 +5024,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -4853,7 +5032,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -4861,10 +5040,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -4872,7 +5051,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -4880,7 +5059,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -4888,7 +5067,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -4896,7 +5075,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -4904,7 +5083,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -4912,7 +5091,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -4920,7 +5099,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -4928,7 +5107,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -4936,7 +5115,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -4944,7 +5123,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -4952,7 +5131,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -4960,7 +5139,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -4968,7 +5147,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -4976,7 +5155,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -4984,7 +5163,58 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70">
+        <v>10.26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:2">
+      <c r="A71">
+        <v>10.29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:2">
+      <c r="A72">
+        <v>10.31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A73" s="6">
+        <v>10.31</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74">
+        <v>10.31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:2">
+      <c r="A75">
+        <v>10.31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4999,7 +5229,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.75" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -5013,12 +5243,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5026,10 +5256,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5037,7 +5267,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5045,7 +5275,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5068,10 +5298,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -5090,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5101,7 +5331,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5109,7 +5339,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5117,7 +5347,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5125,7 +5355,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5133,7 +5363,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5141,10 +5371,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5152,7 +5382,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5160,7 +5390,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5168,7 +5398,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5176,7 +5406,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5184,7 +5414,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5192,10 +5422,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5203,10 +5433,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5214,10 +5444,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5225,7 +5455,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5233,7 +5463,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5241,7 +5471,23 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19">
+        <v>10.29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20">
+        <v>10.31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5517,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5279,7 +5525,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5287,7 +5533,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="362">
   <si>
     <t>日期</t>
   </si>
@@ -1535,6 +1535,9 @@
     <t>润和软件成交269亿创天量，主力流出48亿，上午最大涨幅8个多点，下午1点43开始下跌，2点38开始跳水，巨量大阴线，应该是走出顶部了</t>
   </si>
   <si>
+    <t>润和软件跳水导致银之杰，四川长虹，海能达，常山北明，欧非光，中粮资本等高标股出现不同程度的跳水</t>
+  </si>
+  <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
   </si>
   <si>
@@ -1661,8 +1664,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2411,7 +2414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2424,7 +2427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2433,7 +2436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2463,13 +2466,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2493,10 +2493,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2835,7 +2835,7 @@
   <sheetPr/>
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3009,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3194,10 +3194,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3466,7 +3466,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3480,7 +3480,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3600,7 +3600,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3678,7 +3678,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="29" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="32">
+      <c r="A124" s="31">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4038,7 +4038,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="32" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4080,8 +4080,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A142" s="17">
+    <row r="142" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A142" s="6">
         <v>10.31</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -4555,10 +4555,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -5215,6 +5215,14 @@
       </c>
       <c r="B75" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:2">
+      <c r="A76">
+        <v>10.31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5243,12 +5251,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5256,10 +5264,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5267,7 +5275,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5275,7 +5283,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5331,7 +5339,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5347,7 +5355,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5355,7 +5363,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5363,7 +5371,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5371,10 +5379,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5382,7 +5390,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5390,7 +5398,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5398,7 +5406,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5406,7 +5414,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5414,7 +5422,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5422,10 +5430,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5433,10 +5441,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5444,10 +5452,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5455,7 +5463,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5471,7 +5479,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5479,7 +5487,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5487,7 +5495,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5517,7 +5525,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5525,7 +5533,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5533,7 +5541,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="370">
   <si>
     <t>日期</t>
   </si>
@@ -814,7 +814,7 @@
     <t>两市半日成交2.5万亿。272只个股涨停，沪指出现明显回调，主力流出1700亿</t>
   </si>
   <si>
-    <t>总成叫3.5万亿，放大8000亿，涨停790家，沪指涨4.59，深成指涨9.17，创业板涨17.25%，上涨5000家，下跌300家，涨幅大于10%超过2200家
+    <t>总成交3.5万亿，放大8000亿，涨停790家，沪指涨4.59，深成指涨9.17，创业板涨17.25%，上涨5000家，下跌300家，涨幅大于10%超过2200家
 三只次新高开后突然跳水，芯片，光刻胶，创业板权重，消费电子，低空经济涨幅较大，
 白酒，饮料，消费开始出现分化，旅游整体回调，
 ST板块涨跌互现，前期龙头ST景峰 连续跌停
@@ -1017,6 +1017,21 @@
   </si>
   <si>
     <t>根据多个消息，市场在等待财政部规模最大的债务置换计划</t>
+  </si>
+  <si>
+    <t>早盘创业板出现杀跌，最多跌1.8%，沪指跟跌，市场高标股常山北明，四川长虹，双成药业等全部大跌，但是市场成交量放大2000多亿，而东方财富放量微涨，因此判断行情没有太大风险</t>
+  </si>
+  <si>
+    <t>凌晨消息国家统计局10月31日发布的数据显示，10月制造业PMI为50.1%，较9月上升0.3个百分点，重返荣枯线以上。</t>
+  </si>
+  <si>
+    <t>大盘成交量与前一日持平，涨停124，跌停165，跌停大幅增加，早盘多个前期高标股转跌，但上午海能达，常山北明仍有几个点涨幅，到下午所有高标全部跌停，创业板国民技术，台基股份跌停，银之杰跌接近20%</t>
+  </si>
+  <si>
+    <t>一线高标已经走出顶部，下个交易日部分股票肯定会继续跌停</t>
+  </si>
+  <si>
+    <t>浪源股份，星星科技等新晋强势股也受影响，没有收出大阳线</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1159,6 +1174,9 @@
     <t>受美国大选影响，由于特朗普支持低利率，纽约黄金逼近2800美元</t>
   </si>
   <si>
+    <t>美国10月非农新增就业人数骤降至1.2万远低于预期，导致美联储本月6日的降息预期非常大，大约0.25%-0.5%</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1536,6 +1554,12 @@
   </si>
   <si>
     <t>润和软件跳水导致银之杰，四川长虹，海能达，常山北明，欧非光，中粮资本等高标股出现不同程度的跳水</t>
+  </si>
+  <si>
+    <t>剑桥科技在随大盘回调后，最多跌不到1个点，随后10：14分后强力拉升，10：34涨停</t>
+  </si>
+  <si>
+    <t>大众交通跌停，该股资金来路较多，难以形成上涨合力，导致反弹很容易走烂</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1664,8 +1688,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2427,7 +2451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2436,7 +2460,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2469,7 +2493,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2493,10 +2517,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2833,10 +2857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4088,6 +4112,41 @@
         <v>177</v>
       </c>
     </row>
+    <row r="143" customHeight="1" spans="1:2">
+      <c r="A143">
+        <v>11.1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:2">
+      <c r="A144">
+        <v>11.1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145">
+        <v>11.1</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:2">
+      <c r="A146">
+        <v>11.1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4098,10 +4157,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4116,7 +4175,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4124,7 +4183,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4132,7 +4191,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4140,10 +4199,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4151,10 +4210,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4162,7 +4221,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4170,7 +4229,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4178,7 +4237,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4186,7 +4245,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4194,7 +4253,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4202,7 +4261,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4210,7 +4269,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4218,7 +4277,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4226,7 +4285,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4234,7 +4293,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4242,7 +4301,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4250,7 +4309,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4258,7 +4317,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4266,7 +4325,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4274,7 +4333,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4282,10 +4341,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4293,7 +4352,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4301,7 +4360,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4309,7 +4368,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4317,10 +4376,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4328,7 +4387,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4336,7 +4395,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4344,7 +4403,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4352,7 +4411,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4360,7 +4419,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4368,7 +4427,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4376,7 +4435,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4384,7 +4443,15 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34">
+        <v>11.4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4412,13 +4479,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4429,102 +4496,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4532,10 +4599,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -4543,7 +4610,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4555,10 +4622,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4577,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4596,7 +4663,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4604,7 +4671,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4612,7 +4679,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4620,7 +4687,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4628,10 +4695,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4639,7 +4706,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4647,7 +4714,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4655,10 +4722,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4666,7 +4733,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4674,7 +4741,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4682,10 +4749,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4693,10 +4760,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4704,10 +4771,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4715,10 +4782,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4726,10 +4793,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4737,7 +4804,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4745,10 +4812,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4756,7 +4823,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4764,7 +4831,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4772,7 +4839,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4780,7 +4847,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4788,7 +4855,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4796,7 +4863,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4804,7 +4871,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4812,10 +4879,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4823,7 +4890,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4831,7 +4898,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4839,10 +4906,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4850,10 +4917,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D31" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4861,7 +4928,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4869,7 +4936,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4877,7 +4944,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4885,7 +4952,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4893,7 +4960,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4901,7 +4968,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4909,10 +4976,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4920,7 +4987,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4928,7 +4995,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -4936,7 +5003,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -4944,7 +5011,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -4952,7 +5019,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -4960,7 +5027,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -4968,7 +5035,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -4976,7 +5043,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -4984,7 +5051,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4992,7 +5059,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5000,7 +5067,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5008,7 +5075,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5016,7 +5083,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5024,7 +5091,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5032,7 +5099,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5040,10 +5107,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5051,7 +5118,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5059,7 +5126,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5067,7 +5134,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5075,7 +5142,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5083,7 +5150,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5091,7 +5158,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5099,7 +5166,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5107,7 +5174,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5115,7 +5182,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5123,7 +5190,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5131,7 +5198,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5139,7 +5206,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5147,7 +5214,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5155,7 +5222,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5163,7 +5230,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5171,10 +5238,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5182,7 +5249,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5190,7 +5257,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5198,7 +5265,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5206,7 +5273,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5214,7 +5281,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5222,7 +5289,23 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:2">
+      <c r="A77">
+        <v>11.1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:2">
+      <c r="A78">
+        <v>11.1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5251,12 +5334,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5264,10 +5347,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5275,7 +5358,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5283,7 +5366,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5328,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5339,7 +5422,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5347,7 +5430,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5355,7 +5438,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5363,7 +5446,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5371,7 +5454,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5379,10 +5462,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5390,7 +5473,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5398,7 +5481,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5406,7 +5489,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5414,7 +5497,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5422,7 +5505,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5430,10 +5513,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5441,10 +5524,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5452,10 +5535,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5463,7 +5546,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5471,7 +5554,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5479,7 +5562,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5487,7 +5570,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5495,7 +5578,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5525,7 +5608,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5533,7 +5616,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5541,7 +5624,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="373">
   <si>
     <t>日期</t>
   </si>
@@ -1025,13 +1025,16 @@
     <t>凌晨消息国家统计局10月31日发布的数据显示，10月制造业PMI为50.1%，较9月上升0.3个百分点，重返荣枯线以上。</t>
   </si>
   <si>
-    <t>大盘成交量与前一日持平，涨停124，跌停165，跌停大幅增加，早盘多个前期高标股转跌，但上午海能达，常山北明仍有几个点涨幅，到下午所有高标全部跌停，创业板国民技术，台基股份跌停，银之杰跌接近20%</t>
+    <t>大盘成交量与前一日持平，涨停124，跌停165，跌停大幅增加，早盘多个前期高标股转跌，但上午海能达，常山北明仍有几个点涨幅，到下午所有高标全部跌停，创业板国民技术，台基股份跌停，银之杰跌接近20%，浪源股份，星星科技等新晋强势股也受影响，没有收出大阳线</t>
   </si>
   <si>
     <t>一线高标已经走出顶部，下个交易日部分股票肯定会继续跌停</t>
   </si>
   <si>
-    <t>浪源股份，星星科技等新晋强势股也受影响，没有收出大阳线</t>
+    <t>三市平开高走，缩量上涨，成交量缩减5400以，深成指涨1.99，创业板涨2.9，主力流出仅98亿，涨停186，跌停43，东方财富尾盘拉升，常山北明地天板，主力似乎在买入等待人大常委会的政策落地</t>
+  </si>
+  <si>
+    <t>高盛:过去4周全球资金净流入中国内地股市243.85亿美元</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1177,6 +1180,9 @@
     <t>美国10月非农新增就业人数骤降至1.2万远低于预期，导致美联储本月6日的降息预期非常大，大约0.25%-0.5%</t>
   </si>
   <si>
+    <t>高盛预计，美联储在2025年上半年还会有4次连续降息最终利率达到3.25%-3.5%，但其认为明年降息的速度和最终目标仍有很多不确定性。</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1560,6 +1566,9 @@
   </si>
   <si>
     <t>大众交通跌停，该股资金来路较多，难以形成上涨合力，导致反弹很容易走烂</t>
+  </si>
+  <si>
+    <t>东方财富尾盘强力拉升，主力大量买入24亿，最终上涨7.74%,常山北明早盘跌停，主力坚决做多，买入23亿，最终涨停</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -2438,7 +2447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2488,6 +2497,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2857,10 +2869,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3033,7 +3045,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3062,7 +3074,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3218,10 +3230,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3245,7 +3257,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3414,7 +3426,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3422,7 +3434,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3490,7 +3502,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3504,7 +3516,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3613,7 +3625,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3624,7 +3636,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3656,7 +3668,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3702,7 +3714,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3710,7 +3722,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3718,7 +3730,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3772,7 +3784,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3943,7 +3955,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="31">
+      <c r="A124" s="32">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4062,7 +4074,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4139,12 +4151,20 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:2">
-      <c r="A146">
-        <v>11.1</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="146" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A146" s="17">
+        <v>11.4</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:2">
+      <c r="A147">
+        <v>11.4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4157,10 +4177,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4175,7 +4195,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4183,7 +4203,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4191,7 +4211,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4199,10 +4219,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4210,10 +4230,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4221,7 +4241,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4229,7 +4249,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4237,7 +4257,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4245,7 +4265,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4253,7 +4273,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4261,7 +4281,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4269,7 +4289,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4277,7 +4297,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4285,7 +4305,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4293,7 +4313,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4301,7 +4321,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4309,7 +4329,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4317,7 +4337,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4325,7 +4345,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4333,7 +4353,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4341,10 +4361,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4352,7 +4372,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4360,7 +4380,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4368,7 +4388,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4376,10 +4396,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4387,7 +4407,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4395,7 +4415,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4403,7 +4423,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4411,7 +4431,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4419,7 +4439,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4427,7 +4447,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4435,7 +4455,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4443,7 +4463,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4451,7 +4471,15 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35">
+        <v>11.4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4479,13 +4507,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4496,102 +4524,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4599,10 +4627,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -4610,7 +4638,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4622,7 +4650,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
@@ -4644,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4663,7 +4691,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4671,7 +4699,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4679,7 +4707,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4687,7 +4715,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4695,10 +4723,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4706,7 +4734,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4714,7 +4742,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4722,10 +4750,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4733,7 +4761,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4741,7 +4769,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4749,10 +4777,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4760,10 +4788,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4771,10 +4799,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4782,10 +4810,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4793,10 +4821,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4804,7 +4832,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4812,10 +4840,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4823,7 +4851,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4831,7 +4859,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4839,7 +4867,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4847,7 +4875,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4855,7 +4883,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4863,7 +4891,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4871,7 +4899,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4879,10 +4907,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4890,7 +4918,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4898,7 +4926,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4906,10 +4934,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4917,10 +4945,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4928,7 +4956,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4936,7 +4964,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4944,7 +4972,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4952,7 +4980,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4960,7 +4988,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4968,7 +4996,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -4976,10 +5004,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4987,7 +5015,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4995,7 +5023,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5003,7 +5031,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5011,7 +5039,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5019,7 +5047,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5027,7 +5055,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5035,7 +5063,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5043,7 +5071,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5051,7 +5079,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5059,7 +5087,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5067,7 +5095,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5075,7 +5103,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5083,7 +5111,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5091,7 +5119,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5099,7 +5127,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5107,10 +5135,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5118,7 +5146,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5126,7 +5154,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5134,7 +5162,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5142,7 +5170,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5150,7 +5178,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5158,7 +5186,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5166,7 +5194,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5174,7 +5202,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5182,7 +5210,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5190,7 +5218,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5198,7 +5226,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5206,7 +5234,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5214,7 +5242,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5222,7 +5250,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5230,7 +5258,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5238,10 +5266,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5249,7 +5277,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5257,7 +5285,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5265,7 +5293,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5273,7 +5301,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5281,7 +5309,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5289,7 +5317,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5297,7 +5325,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5305,7 +5333,15 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:2">
+      <c r="A79">
+        <v>11.4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5334,12 +5370,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5347,10 +5383,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5358,7 +5394,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5366,7 +5402,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5391,7 +5427,7 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5411,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5422,7 +5458,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5430,7 +5466,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5438,7 +5474,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5446,7 +5482,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5454,7 +5490,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5462,10 +5498,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5473,7 +5509,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5481,7 +5517,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5489,7 +5525,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5497,7 +5533,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5505,7 +5541,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5513,10 +5549,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5524,10 +5560,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5535,10 +5571,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5546,7 +5582,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5554,7 +5590,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5562,7 +5598,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5570,7 +5606,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5578,7 +5614,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5592,8 +5628,8 @@
   <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="B10 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -5608,7 +5644,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5616,7 +5652,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5624,7 +5660,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="393">
   <si>
     <t>日期</t>
   </si>
@@ -1037,6 +1037,45 @@
     <t>高盛:过去4周全球资金净流入中国内地股市243.85亿美元</t>
   </si>
   <si>
+    <t>印度孟买sensex指数从85000点回调至78700点，日经225从42000点回调至38000点</t>
+  </si>
+  <si>
+    <t>晚间消息，官宣！国务院拟增加地方政府债务限额置换隐性债务</t>
+  </si>
+  <si>
+    <t>此前市场上一些人士猜测此次置换地方政府隐性债务，并非发行地方政府债券，而是特别国债，即中央财政来偿还地方隐性债务。而此次议案则明确通过增加地方政府债务限额来置换地方存量隐性债务，这与此前隐性债务置换方式一致。</t>
+  </si>
+  <si>
+    <t>早盘东方财富带动券商，房地产继续上涨，东方财富涨幅超过12%</t>
+  </si>
+  <si>
+    <t>成交23500亿，涨停210家，主力净流入</t>
+  </si>
+  <si>
+    <t>盘后消息，中国人民银行行长潘功胜受国务院委托作的关于金融工作情况的报告，坚持支持性的货币政策立场，加大货币政策逆周期调节力度，为经济稳定增长和高质量发展营造良好的货币金融环境</t>
+  </si>
+  <si>
+    <t>盘后消息，业和信息化部召开低空产业发展领导小组第一次全体会议，研究部署推动低空产业高质量发展的重点任务。会议提出，要抓好顶层谋划，培育更多低空产业头部企业和专精特新“小巨人”企业。</t>
+  </si>
+  <si>
+    <t>深圳市交通运输局发布《深圳市交通运输局实施细则(征求意见稿)》。《实施细则》显示低空经济企业落户资助项目：按落户实缴注册资本的5%给予不超过2000万元的一次性落户奖励。
+eVTOL航空器和无人驾驶航空器适航取证资助项目：eVTOL航空器一次性奖励1500万元。
+大型无人驾驶航空器一次性奖励500万元。</t>
+  </si>
+  <si>
+    <t>该消息收盘前发布，中信海直瞬间涨停，其他低空板块尾盘也跟涨</t>
+  </si>
+  <si>
+    <t>在东方财富带动下，早盘指数继续上涨，成交量继续放大，但在下午2点半之后，东方财富开始跳水，三大指数也转绿，低空经济板块受消息刺激早盘最多上涨7%+，尾盘回落到3%
+东方财富主力卖出368亿，净流出38亿。大盘成绩2.6万亿，放大2700亿，主力流出1200亿，涨停181家，跌停7家</t>
+  </si>
+  <si>
+    <t>再次证明了东方财富是这轮行情的风向标</t>
+  </si>
+  <si>
+    <t>常山北明，海能达等一线高标股全天弱势，尾盘随着大盘跳水也深跌</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1183,6 +1222,12 @@
     <t>高盛预计，美联储在2025年上半年还会有4次连续降息最终利率达到3.25%-3.5%，但其认为明年降息的速度和最终目标仍有很多不确定性。</t>
   </si>
   <si>
+    <t>特朗普当选，美元最高涨至7.19，比特币涨至7.3万美元。</t>
+  </si>
+  <si>
+    <t>收特朗普当选的预期落地影响，美元继续上涨，离岸人民币涨至7.21后回调，比特币涨至7.5万美元，道琼斯晚间上涨3.5%，纳斯达克涨2.9%，纽约黄金大跌2.8%，纽约铜跌5.27%。原油几乎平盘，沪金跌2.0%，国内豆粕涨2.6%</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1569,6 +1614,21 @@
   </si>
   <si>
     <t>东方财富尾盘强力拉升，主力大量买入24亿，最终上涨7.74%,常山北明早盘跌停，主力坚决做多，买入23亿，最终涨停</t>
+  </si>
+  <si>
+    <t>前2日大幅下跌的热点股，豆神教育，新动力，润和教育，国民技术，台基股份，香雪制药，银之杰早盘迅速反弹，多数涨幅超过8%</t>
+  </si>
+  <si>
+    <t>常山北明昨日地天消耗太多买入能量，早盘一度冲高翻红后下跌</t>
+  </si>
+  <si>
+    <t>豆神教育，格林精密这2个10月8号之后的拉升的后排龙头都出现强劲反弹，截止下午12点，从低开到上涨15%以上，10月31号两连涨停的星星科技也大涨</t>
+  </si>
+  <si>
+    <t>在大盘尾盘跳水情况下，通海达，博士眼镜在昨日涨停的情况下没有明显跳水，尾盘可买入</t>
+  </si>
+  <si>
+    <t>从实时图看通达海尾盘承接能力更强</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1679,6 +1739,9 @@
     <t>四川长虹继续涨停</t>
   </si>
   <si>
+    <t>星星科技在2个涨停调整一天后，连续2天低开后急速拉升并大涨，第三日按牛市小龙，高开后收盘跌1%以内，符合小龙特征</t>
+  </si>
+  <si>
     <t>长联科技首日上涨1788%，第二日在大盘影响下最高688，第三日收盘255，相对前一日腰斩</t>
   </si>
   <si>
@@ -1697,10 +1760,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1829,6 +1892,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2305,10 +2375,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2317,34 +2387,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2356,98 +2423,101 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2460,7 +2530,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2469,7 +2539,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2484,6 +2554,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2499,13 +2572,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2529,10 +2599,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2548,6 +2618,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2869,10 +2942,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2883,25 +2956,25 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:3">
+    <row r="2" s="14" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2">
         <v>4.12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -3249,7 +3322,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3406,11 +3479,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="13">
+    <row r="60" s="14" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="14">
         <v>9.19</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3510,10 +3583,10 @@
       </c>
     </row>
     <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="15">
+      <c r="A71" s="16">
         <v>9.26</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C71" s="26" t="s">
@@ -3592,11 +3665,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="13" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="13">
+    <row r="81" s="14" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="14">
         <v>9.27</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3624,14 +3697,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
+    <row r="85" s="15" customFormat="1" customHeight="1" spans="1:3">
       <c r="A85" s="27">
         <v>9.29</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3710,24 +3783,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" s="15" customFormat="1" ht="112" customHeight="1" spans="1:2">
-      <c r="A95" s="15">
+    <row r="95" s="16" customFormat="1" ht="112" customHeight="1" spans="1:2">
+      <c r="A95" s="16">
         <v>10.8</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" s="16" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A96" s="16">
+    <row r="96" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A96" s="17">
         <v>10.8</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" s="16" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A97" s="16">
+    <row r="97" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A97" s="17">
         <v>10.8</v>
       </c>
       <c r="B97" s="30" t="s">
@@ -4151,8 +4224,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A146" s="17">
+    <row r="146" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A146" s="6">
         <v>11.4</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -4165,6 +4238,87 @@
       </c>
       <c r="B147" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:2">
+      <c r="A148">
+        <v>11.4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:3">
+      <c r="A149">
+        <v>11.4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>185</v>
+      </c>
+      <c r="C149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:2">
+      <c r="A150">
+        <v>11.5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A151" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A152" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:2">
+      <c r="A153">
+        <v>11.5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:3">
+      <c r="A154">
+        <v>11.5</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:3">
+      <c r="A155">
+        <v>11.6</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:2">
+      <c r="A156">
+        <v>11.6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4177,10 +4331,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4195,7 +4349,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4203,7 +4357,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4211,7 +4365,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4219,10 +4373,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4230,10 +4384,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4241,7 +4395,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4249,7 +4403,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4257,7 +4411,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4265,7 +4419,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4273,7 +4427,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4281,7 +4435,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4289,7 +4443,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4297,15 +4451,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>199</v>
+      <c r="B14" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4313,7 +4467,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4321,7 +4475,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4329,7 +4483,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4337,7 +4491,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4345,7 +4499,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4353,7 +4507,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4361,10 +4515,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4372,7 +4526,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4380,7 +4534,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4388,7 +4542,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4396,10 +4550,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4407,7 +4561,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4415,7 +4569,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4423,7 +4577,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4431,7 +4585,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4439,7 +4593,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4447,7 +4601,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4455,7 +4609,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4463,7 +4617,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4471,7 +4625,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4479,7 +4633,23 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36">
+        <v>11.6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" s="12" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A37" s="12">
+        <v>11.7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4664,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -4507,13 +4677,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4524,102 +4694,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4627,10 +4797,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -4638,7 +4808,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4650,10 +4820,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4672,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4691,7 +4861,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4699,7 +4869,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4707,7 +4877,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4715,7 +4885,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4723,10 +4893,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4734,7 +4904,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4742,7 +4912,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4750,10 +4920,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4761,7 +4931,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4769,7 +4939,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4777,10 +4947,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4788,10 +4958,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4799,10 +4969,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4810,10 +4980,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4821,10 +4991,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4832,7 +5002,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4840,10 +5010,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4851,7 +5021,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -4859,7 +5029,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4867,7 +5037,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4875,7 +5045,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4883,7 +5053,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -4891,7 +5061,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4899,7 +5069,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -4907,10 +5077,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4918,7 +5088,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4926,7 +5096,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -4934,10 +5104,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -4945,10 +5115,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4956,7 +5126,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4964,7 +5134,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4972,7 +5142,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4980,7 +5150,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4988,7 +5158,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -4996,7 +5166,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5004,10 +5174,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C38" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5015,7 +5185,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5023,7 +5193,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5031,7 +5201,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5039,7 +5209,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5047,7 +5217,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5055,7 +5225,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5063,7 +5233,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5071,7 +5241,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5079,7 +5249,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5087,7 +5257,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5095,7 +5265,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5103,7 +5273,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5111,7 +5281,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5119,7 +5289,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5127,7 +5297,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5135,10 +5305,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5146,7 +5316,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5154,7 +5324,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5162,7 +5332,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5170,7 +5340,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5178,7 +5348,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5186,7 +5356,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5194,7 +5364,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5202,7 +5372,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5210,7 +5380,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5218,7 +5388,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5226,7 +5396,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5234,7 +5404,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5242,7 +5412,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5250,7 +5420,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5258,7 +5428,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5266,10 +5436,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C70" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5277,7 +5447,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5285,7 +5455,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5293,7 +5463,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5301,7 +5471,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5309,7 +5479,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5317,7 +5487,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5325,7 +5495,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5333,7 +5503,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5341,7 +5511,42 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>343</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80">
+        <v>11.5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:2">
+      <c r="A81">
+        <v>11.5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:2">
+      <c r="A82">
+        <v>11.5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:3">
+      <c r="A83">
+        <v>11.6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5370,12 +5575,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5383,10 +5588,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5394,7 +5599,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5402,7 +5607,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5425,10 +5630,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -5447,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5458,7 +5663,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5466,7 +5671,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5474,7 +5679,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5482,7 +5687,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5490,7 +5695,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5498,10 +5703,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5509,7 +5714,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5517,7 +5722,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5525,7 +5730,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5533,7 +5738,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5541,7 +5746,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5549,10 +5754,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5560,10 +5765,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5571,10 +5776,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C15" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5582,7 +5787,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5590,7 +5795,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5598,7 +5803,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5606,7 +5811,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5614,7 +5819,15 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21">
+        <v>11.5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5841,7 @@
   <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C3" sqref="B10 C3"/>
     </sheetView>
   </sheetViews>
@@ -5644,7 +5857,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5652,7 +5865,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5660,7 +5873,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="402">
   <si>
     <t>日期</t>
   </si>
@@ -1076,6 +1076,28 @@
     <t>常山北明，海能达等一线高标股全天弱势，尾盘随着大盘跳水也深跌</t>
   </si>
   <si>
+    <t>14：34东方财富开始强力拉升，涨幅迅速扩大到11%</t>
+  </si>
+  <si>
+    <t>早盘三大指数微涨，午后开始单边上涨，最终沪指涨。2.57，创业板涨3.75，成交量与昨日基本持平，主力仅流出200亿，涨停233家，跌停10家
+券商，消费，白酒，基建，地产板块大幅上涨，东方财富大涨13.46，成交600亿，为历史第二高成交量，同花顺涨停，之前强势的低空经济回调</t>
+  </si>
+  <si>
+    <t>明日人大审议债务问题，中央宽松政策即将定调，资金有抢筹迹象。</t>
+  </si>
+  <si>
+    <t>凌晨消息，美联储降息0.25%，符合预期</t>
+  </si>
+  <si>
+    <t>富时中国三倍做多ETF大涨17%，最近该指数与大盘指数有点背离</t>
+  </si>
+  <si>
+    <t>商务部宣布调整外资战略入股门槛，央行召开外资金融机构座谈会，为金融市场开发继续做准备，均为利好</t>
+  </si>
+  <si>
+    <t>在人大公布国债政策预期下，早盘东方财富高开后跳水，三大指数震荡中下行，沪指跌0.5%，创业板跌1。2%，成交量放大1600亿，最终成交2.73万亿，为历史第二高成交量，主力流出1200亿，涨停155家，跌停6，东方财富走弱似乎表明国债刺激政策不及12万预期？</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1740,6 +1762,12 @@
   </si>
   <si>
     <t>星星科技在2个涨停调整一天后，连续2天低开后急速拉升并大涨，第三日按牛市小龙，高开后收盘跌1%以内，符合小龙特征</t>
+  </si>
+  <si>
+    <t>通达海在涨停后第三天未能封板，不符合强势股走势，11%卖出</t>
+  </si>
+  <si>
+    <t>六九二一有走小龙趋势，在第三日回调尾盘买入</t>
   </si>
   <si>
     <t>长联科技首日上涨1788%，第二日在大盘影响下最高688，第三日收盘255，相对前一日腰斩</t>
@@ -2517,7 +2545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2552,9 +2580,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2942,10 +2967,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -2956,25 +2981,25 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" customHeight="1" spans="1:3">
+    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2">
         <v>4.12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -3118,7 +3143,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3147,7 +3172,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3303,10 +3328,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3322,7 +3347,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3330,7 +3355,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3479,11 +3504,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" s="14" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="14">
+    <row r="60" s="13" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="13">
         <v>9.19</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3499,7 +3524,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3507,7 +3532,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3575,7 +3600,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3583,13 +3608,13 @@
       </c>
     </row>
     <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>9.26</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3665,11 +3690,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="14" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="14">
+    <row r="81" s="13" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="13">
         <v>9.27</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3697,19 +3722,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3741,7 +3766,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3783,27 +3808,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" s="16" customFormat="1" ht="112" customHeight="1" spans="1:2">
-      <c r="A95" s="16">
+    <row r="95" s="15" customFormat="1" ht="112" customHeight="1" spans="1:2">
+      <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A96" s="17">
+    <row r="96" s="16" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A97" s="17">
+    <row r="97" s="16" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="29" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3857,7 +3882,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4028,7 +4053,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="32">
+      <c r="A124" s="31">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4147,7 +4172,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="32" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4309,7 +4334,7 @@
       <c r="B155" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="C155" s="33" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4319,6 +4344,57 @@
       </c>
       <c r="B156" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:2">
+      <c r="A157">
+        <v>11.7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:3">
+      <c r="A158">
+        <v>11.7</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:2">
+      <c r="A159">
+        <v>11.7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:2">
+      <c r="A160">
+        <v>11.7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:2">
+      <c r="A161">
+        <v>11.7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:2">
+      <c r="A162">
+        <v>11.8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4410,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4349,7 +4425,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4357,7 +4433,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4365,7 +4441,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4373,10 +4449,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4384,10 +4460,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4395,7 +4471,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4403,7 +4479,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4411,7 +4487,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4419,7 +4495,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4427,7 +4503,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4435,7 +4511,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4443,7 +4519,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4451,15 +4527,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>211</v>
+      <c r="B14" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4467,7 +4543,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4475,7 +4551,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4483,7 +4559,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4491,7 +4567,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4499,7 +4575,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4507,7 +4583,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4515,10 +4591,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4526,7 +4602,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4534,7 +4610,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4542,7 +4618,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4550,10 +4626,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4561,7 +4637,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4569,7 +4645,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4577,7 +4653,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4585,7 +4661,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4593,7 +4669,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4601,7 +4677,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4609,7 +4685,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4617,7 +4693,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4625,7 +4701,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4633,7 +4709,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4641,15 +4717,15 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" s="12" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A37" s="6">
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4677,13 +4753,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4694,102 +4770,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4797,10 +4873,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -4808,7 +4884,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4842,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4861,7 +4937,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4869,7 +4945,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4877,7 +4953,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4885,7 +4961,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4893,10 +4969,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4904,7 +4980,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4912,7 +4988,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4920,10 +4996,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4931,7 +5007,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4939,7 +5015,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -4947,10 +5023,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -4958,10 +5034,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -4969,10 +5045,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -4980,10 +5056,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -4991,10 +5067,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5002,7 +5078,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5010,10 +5086,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5021,7 +5097,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5029,7 +5105,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5037,7 +5113,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5045,7 +5121,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5053,7 +5129,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5061,7 +5137,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5069,7 +5145,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5077,10 +5153,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5088,7 +5164,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5096,7 +5172,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5104,10 +5180,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5115,10 +5191,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5126,7 +5202,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5134,7 +5210,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5142,7 +5218,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5150,7 +5226,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5158,7 +5234,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5166,7 +5242,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5174,10 +5250,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5185,7 +5261,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5193,7 +5269,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5201,7 +5277,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5209,7 +5285,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5217,7 +5293,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5225,7 +5301,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5233,7 +5309,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5241,7 +5317,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5249,7 +5325,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5257,7 +5333,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5265,7 +5341,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5273,7 +5349,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5281,7 +5357,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5289,7 +5365,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5297,7 +5373,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5305,10 +5381,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5316,7 +5392,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5324,7 +5400,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5332,7 +5408,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5340,7 +5416,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5348,7 +5424,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5356,7 +5432,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5364,7 +5440,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5372,7 +5448,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5380,7 +5456,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5388,7 +5464,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5396,7 +5472,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5404,7 +5480,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5412,7 +5488,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5420,7 +5496,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5428,7 +5504,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5436,10 +5512,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5447,7 +5523,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5455,7 +5531,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5463,7 +5539,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5471,7 +5547,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5479,7 +5555,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5487,7 +5563,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5495,7 +5571,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5503,7 +5579,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5511,7 +5587,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5519,7 +5595,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5527,7 +5603,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5535,7 +5611,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5543,10 +5619,10 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5575,12 +5651,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5588,10 +5664,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5599,7 +5675,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5607,7 +5683,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5630,10 +5706,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -5652,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5663,7 +5739,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5671,7 +5747,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5679,7 +5755,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5687,7 +5763,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5695,7 +5771,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5703,10 +5779,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5714,7 +5790,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5722,7 +5798,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5730,7 +5806,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5738,7 +5814,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5746,7 +5822,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5754,10 +5830,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5765,10 +5841,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5776,10 +5852,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5787,7 +5863,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5795,7 +5871,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5803,7 +5879,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5811,7 +5887,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5819,7 +5895,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5827,7 +5903,23 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22">
+        <v>11.7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23">
+        <v>11.7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5857,7 +5949,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5865,7 +5957,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5873,7 +5965,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="407">
   <si>
     <t>日期</t>
   </si>
@@ -1098,6 +1098,13 @@
     <t>在人大公布国债政策预期下，早盘东方财富高开后跳水，三大指数震荡中下行，沪指跌0.5%，创业板跌1。2%，成交量放大1600亿，最终成交2.73万亿，为历史第二高成交量，主力流出1200亿，涨停155家，跌停6，东方财富走弱似乎表明国债刺激政策不及12万预期？</t>
   </si>
   <si>
+    <t>国家统计局9日发布数据显示，10月份，全国工业生产者出厂价格指数（PPI）环比下降0.1%，降幅比上月收窄0.5个百分点，同比下降2.9%；全国居民消费价格指数（CPI）环比下降0.3%，同比上涨0.3%，消费市场运行总体平稳。
+食品价格同比上涨2.9%，涨幅比上月回落0.4个百分点。</t>
+  </si>
+  <si>
+    <t>三大指数早盘震荡，11点后创业板开始拉升，最终创业板涨3,沪指张0.5，成交2.5万亿，主力流出仅仅380亿，涨停213，地产，零售，白酒如预期下跌，芯片在台积电停止供货刺激下大涨，带动光刻胶等跟涨</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1651,6 +1658,12 @@
   </si>
   <si>
     <t>从实时图看通达海尾盘承接能力更强</t>
+  </si>
+  <si>
+    <t>南都电源，蓝英装备在5日线附近收出多个上影线，今日均出现大幅拉升，蓝英装备最高到19%，</t>
+  </si>
+  <si>
+    <t>华映科技，双成药业，中化岩土等100多亿市值高标股继续跌停</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1770,6 +1783,9 @@
     <t>六九二一有走小龙趋势，在第三日回调尾盘买入</t>
   </si>
   <si>
+    <t>六九二一早盘高开1%，全天反复震荡，尾盘拉升，继续持股不动，如果明日仍然小幅上涨尾盘可买入</t>
+  </si>
+  <si>
     <t>长联科技首日上涨1788%，第二日在大盘影响下最高688，第三日收盘255，相对前一日腰斩</t>
   </si>
   <si>
@@ -1788,8 +1804,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -2558,7 +2574,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2567,7 +2583,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2600,7 +2616,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2624,10 +2640,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2967,10 +2983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4395,6 +4411,22 @@
       </c>
       <c r="B162" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="163" ht="66" customHeight="1" spans="1:2">
+      <c r="A163">
+        <v>11.9</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:2">
+      <c r="A164">
+        <v>11.11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4457,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4433,7 +4465,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4441,7 +4473,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4449,10 +4481,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4460,10 +4492,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4471,7 +4503,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4479,7 +4511,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4487,7 +4519,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4495,7 +4527,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4503,7 +4535,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4511,7 +4543,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4519,7 +4551,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4527,7 +4559,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4535,7 +4567,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4543,7 +4575,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4551,7 +4583,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4559,7 +4591,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4567,7 +4599,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4575,7 +4607,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4583,7 +4615,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4591,10 +4623,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4602,7 +4634,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4610,7 +4642,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4618,7 +4650,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4626,10 +4658,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4637,7 +4669,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4645,7 +4677,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4653,7 +4685,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4661,7 +4693,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4669,7 +4701,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4677,7 +4709,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4685,7 +4717,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4693,7 +4725,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4701,7 +4733,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4709,7 +4741,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4717,7 +4749,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4725,7 +4757,7 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4753,13 +4785,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4770,102 +4802,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4873,10 +4905,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -4884,7 +4916,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4896,10 +4928,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4918,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4937,7 +4969,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4945,7 +4977,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4953,7 +4985,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4961,7 +4993,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -4969,10 +5001,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4980,7 +5012,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4988,7 +5020,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -4996,10 +5028,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5007,7 +5039,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5015,7 +5047,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5023,10 +5055,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5034,10 +5066,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5045,10 +5077,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5056,10 +5088,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5067,10 +5099,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5078,7 +5110,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5086,10 +5118,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5097,7 +5129,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5105,7 +5137,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5113,7 +5145,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5121,7 +5153,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5129,7 +5161,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5137,7 +5169,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5145,7 +5177,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5153,10 +5185,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5164,7 +5196,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5172,7 +5204,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5180,10 +5212,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5191,10 +5223,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5202,7 +5234,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5210,7 +5242,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5218,7 +5250,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5226,7 +5258,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5234,7 +5266,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5242,7 +5274,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5250,10 +5282,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5261,7 +5293,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5269,7 +5301,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5277,7 +5309,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5285,7 +5317,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5293,7 +5325,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5301,7 +5333,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5309,7 +5341,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5317,7 +5349,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5325,7 +5357,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5333,7 +5365,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5341,7 +5373,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5349,7 +5381,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5357,7 +5389,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5365,7 +5397,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5373,7 +5405,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5381,10 +5413,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5392,7 +5424,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5400,7 +5432,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5408,7 +5440,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5416,7 +5448,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5424,7 +5456,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5432,7 +5464,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5440,7 +5472,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5448,7 +5480,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5456,7 +5488,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5464,7 +5496,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5472,7 +5504,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5480,7 +5512,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5488,7 +5520,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5496,7 +5528,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5504,7 +5536,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5512,10 +5544,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C70" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5523,7 +5555,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5531,7 +5563,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5539,7 +5571,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5547,7 +5579,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5555,7 +5587,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5563,7 +5595,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5571,7 +5603,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5579,7 +5611,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5587,7 +5619,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5595,7 +5627,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5603,7 +5635,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5611,7 +5643,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5619,10 +5651,26 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84">
+        <v>11.11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:2">
+      <c r="A85">
+        <v>11.11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5651,12 +5699,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5664,10 +5712,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5675,7 +5723,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5683,7 +5731,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5706,10 +5754,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -5728,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5739,7 +5787,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5747,7 +5795,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5755,7 +5803,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5763,7 +5811,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5771,7 +5819,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5779,10 +5827,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5790,7 +5838,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5798,7 +5846,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5806,7 +5854,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5814,7 +5862,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5822,7 +5870,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5830,10 +5878,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5841,10 +5889,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5852,10 +5900,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5863,7 +5911,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5871,7 +5919,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5879,7 +5927,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5887,7 +5935,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5895,7 +5943,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5903,7 +5951,7 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5911,7 +5959,7 @@
         <v>11.7</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5919,7 +5967,15 @@
         <v>11.7</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24">
+        <v>11.11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +6005,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5957,7 +6013,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5965,7 +6021,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="425">
   <si>
     <t>日期</t>
   </si>
@@ -1105,6 +1105,45 @@
     <t>三大指数早盘震荡，11点后创业板开始拉升，最终创业板涨3,沪指张0.5，成交2.5万亿，主力流出仅仅380亿，涨停213，地产，零售，白酒如预期下跌，芯片在台积电停止供货刺激下大涨，带动光刻胶等跟涨</t>
   </si>
   <si>
+    <t>10月末，广义货币(M2)余额309.71万亿元,同比增长7.5%。狭义货币(M1)余额63.34万亿元,同比下降6.1%。流通中货币(M0)余额12.24万亿元,同比增长12.8%。
+10月末，本外币贷款余额258.18万亿元，同比增长7.5%。月末人民币贷款余额254.1万亿元，同比增长8%。
+10月末，本外币存款余额307.44万亿元，同比增长7%。月末人民币存款余额301.48万亿元，同比增长7%。</t>
+  </si>
+  <si>
+    <t>M1仍然为负</t>
+  </si>
+  <si>
+    <t>盘后消息，中国人大网发布央行行长潘功胜受国务院委托作关于金融工作情况的报告，完善应对股票市场异常波动等政策工具，维护金融市场平稳健康运行。</t>
+  </si>
+  <si>
+    <t>暗示股市平准基金</t>
+  </si>
+  <si>
+    <t>受潘功胜讲话影响，上午三大指数上涨，但下午创业板率先跳水，成交量在上午萎缩的情况下下午放大，沪指最多跌1.8，创业板最多跌1.3，成交量25800亿，略微放大，主力流出1800亿，
+涨停仅113家，下跌3700家，上涨1400多家。医药板块拉升，但是尾盘有所回调</t>
+  </si>
+  <si>
+    <t>富时A50期货继续下跌，三倍做多大跌11%，但是三倍做多最近5个交易日与A股呈反向关系，每股特斯拉回调，英伟达上涨2%</t>
+  </si>
+  <si>
+    <t>人工智能，蓝筹，次新，今日主涨，板块轮动很明显</t>
+  </si>
+  <si>
+    <t>截至11月11日，A股融资余额时隔九年，再次突破1.8万亿元，仅次于2015年融资余额高点。</t>
+  </si>
+  <si>
+    <t>指数先涨后跌，成交量萎缩5000亿，总成交量20400亿，涨停减少89，主力流出740亿</t>
+  </si>
+  <si>
+    <t>盘后消息，宁德时代可能赴美建厂，另外储能需求量是电动汽车的10倍，结合最近碳酸锂价格重回8万，锂电池可能走出一个持续上涨行情</t>
+  </si>
+  <si>
+    <t>盘后消息，住建部交易税新政，购买第一套和第二套房不超过140平米全部按1%缴纳契税，利好房地产，但不算大利好</t>
+  </si>
+  <si>
+    <t>上午截止10：48，三大指数震荡下行，创业板跌1.6%，沪指跌0.56，成交量继续萎缩2000亿，大资金流出560亿，今日行情不太妙</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1257,6 +1296,12 @@
     <t>收特朗普当选的预期落地影响，美元继续上涨，离岸人民币涨至7.21后回调，比特币涨至7.5万美元，道琼斯晚间上涨3.5%，纳斯达克涨2.9%，纽约黄金大跌2.8%，纽约铜跌5.27%。原油几乎平盘，沪金跌2.0%，国内豆粕涨2.6%</t>
   </si>
   <si>
+    <t>黄金在美国大选落地情况下继续回调，纽约金跌至2605，美油跌至68</t>
+  </si>
+  <si>
+    <t>离岸人民币涨至7.25，比特币涨至历史新高9万美元</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1664,6 +1709,18 @@
   </si>
   <si>
     <t>华映科技，双成药业，中化岩土等100多亿市值高标股继续跌停</t>
+  </si>
+  <si>
+    <t>夜间，美股自动驾驶 文远知行不明原因暴涨44%</t>
+  </si>
+  <si>
+    <t>自动驾驶龙头大众交通开盘微涨，随后逐步拉升并涨停</t>
+  </si>
+  <si>
+    <t>百度世界2024现场，李彦宏发布了无代码工具“秒哒”，具备无代码编程、多智能体协作和多工具调用三大特性，李彦宏称之为“迄今为止人类历史上最复杂的多智能体协作工具”。百度推出无代码开发</t>
+  </si>
+  <si>
+    <t>人工智能板块集体上涨，前几日强势股蓝色光标，易点天下开盘均大涨15%，其中易点天下走出空中加油形态，海天瑞声直接涨停，昆仑万维，万兴科技均大涨6%以上，只有赛为智能前期涨幅太大回调5%</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1804,8 +1861,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -2561,7 +2618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2574,7 +2631,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2583,7 +2640,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2613,10 +2670,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2640,10 +2700,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2663,6 +2723,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2983,10 +3046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3159,7 +3222,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3188,7 +3251,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3344,10 +3407,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3371,7 +3434,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3540,7 +3603,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3548,7 +3611,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3616,7 +3679,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3630,7 +3693,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3739,7 +3802,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3750,7 +3813,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3782,7 +3845,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3828,7 +3891,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3836,7 +3899,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3844,7 +3907,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3898,7 +3961,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4069,7 +4132,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="31">
+      <c r="A124" s="32">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4188,7 +4251,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4350,7 +4413,7 @@
       <c r="B155" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="C155" s="34" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4427,6 +4490,92 @@
       </c>
       <c r="B164" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="165" s="6" customFormat="1" ht="87" customHeight="1" spans="1:3">
+      <c r="A165" s="6">
+        <v>11.11</v>
+      </c>
+      <c r="B165" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A166" s="6">
+        <v>11.11</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:2">
+      <c r="A167">
+        <v>11.12</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:2">
+      <c r="A168">
+        <v>11.12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:2">
+      <c r="A169">
+        <v>11.13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:2">
+      <c r="A170">
+        <v>11.13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:2">
+      <c r="A171">
+        <v>11.13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:2">
+      <c r="A172">
+        <v>11.13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:2">
+      <c r="A173">
+        <v>11.13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A174" s="17">
+        <v>11.14</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4439,10 +4588,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4457,7 +4606,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4465,7 +4614,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4473,7 +4622,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4481,10 +4630,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4492,10 +4641,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4503,7 +4652,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4511,7 +4660,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4519,7 +4668,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4527,7 +4676,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4535,7 +4684,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4543,7 +4692,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4551,7 +4700,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4559,7 +4708,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4567,7 +4716,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4575,7 +4724,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4583,7 +4732,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4591,7 +4740,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4599,7 +4748,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4607,7 +4756,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4615,7 +4764,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4623,10 +4772,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4634,7 +4783,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4642,7 +4791,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4650,7 +4799,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4658,10 +4807,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4669,7 +4818,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4677,7 +4826,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4685,7 +4834,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4693,7 +4842,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4701,7 +4850,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4709,7 +4858,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4717,7 +4866,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4725,7 +4874,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4733,7 +4882,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4741,7 +4890,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4749,7 +4898,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4757,7 +4906,23 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38">
+        <v>11.12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39">
+        <v>11.12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4785,13 +4950,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4802,102 +4967,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4905,10 +5070,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -4916,7 +5081,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4928,10 +5093,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4950,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4969,7 +5134,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -4977,7 +5142,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -4985,7 +5150,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4993,7 +5158,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -5001,10 +5166,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5012,7 +5177,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5020,7 +5185,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -5028,10 +5193,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5039,7 +5204,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5047,7 +5212,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5055,10 +5220,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5066,10 +5231,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5077,10 +5242,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5088,10 +5253,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5099,10 +5264,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5110,7 +5275,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5118,10 +5283,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5129,7 +5294,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5137,7 +5302,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5145,7 +5310,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5153,7 +5318,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5161,7 +5326,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5169,7 +5334,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5177,7 +5342,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5185,10 +5350,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5196,7 +5361,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5204,7 +5369,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5212,10 +5377,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5223,10 +5388,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5234,7 +5399,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5242,7 +5407,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5250,7 +5415,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5258,7 +5423,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5266,7 +5431,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5274,7 +5439,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5282,10 +5447,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5293,7 +5458,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5301,7 +5466,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5309,7 +5474,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5317,7 +5482,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5325,7 +5490,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5333,7 +5498,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5341,7 +5506,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5349,7 +5514,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5357,7 +5522,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5365,7 +5530,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5373,7 +5538,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5381,7 +5546,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5389,7 +5554,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5397,7 +5562,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5405,7 +5570,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5413,10 +5578,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5424,7 +5589,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5432,7 +5597,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5440,7 +5605,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5448,7 +5613,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5456,7 +5621,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5464,7 +5629,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5472,7 +5637,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5480,7 +5645,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5488,7 +5653,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5496,7 +5661,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5504,7 +5669,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5512,7 +5677,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5520,7 +5685,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5528,7 +5693,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5536,7 +5701,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5544,10 +5709,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5555,7 +5720,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5563,7 +5728,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5571,7 +5736,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5579,7 +5744,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5587,7 +5752,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5595,7 +5760,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5603,7 +5768,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5611,7 +5776,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5619,7 +5784,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5627,7 +5792,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5635,7 +5800,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5643,7 +5808,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5651,10 +5816,10 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:2">
@@ -5662,7 +5827,7 @@
         <v>11.11</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:2">
@@ -5670,7 +5835,47 @@
         <v>11.11</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:2">
+      <c r="A86">
+        <v>11.11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:2">
+      <c r="A87">
+        <v>11.12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:2">
+      <c r="A88">
+        <v>11.12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:2">
+      <c r="A89">
+        <v>11.13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:2">
+      <c r="A90">
+        <v>11.13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5699,12 +5904,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5712,10 +5917,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5723,7 +5928,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5731,7 +5936,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5756,8 +5961,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.375" defaultRowHeight="60" customHeight="1" outlineLevelCol="3"/>
@@ -5776,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5787,7 +5992,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -5795,7 +6000,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5803,7 +6008,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5811,7 +6016,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5819,7 +6024,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -5827,10 +6032,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5838,7 +6043,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5846,7 +6051,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -5854,7 +6059,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5862,7 +6067,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5870,7 +6075,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5878,10 +6083,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5889,10 +6094,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5900,10 +6105,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -5911,7 +6116,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5919,7 +6124,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5927,7 +6132,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5935,7 +6140,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5943,7 +6148,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5951,7 +6156,7 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5959,7 +6164,7 @@
         <v>11.7</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5967,7 +6172,7 @@
         <v>11.7</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5975,7 +6180,7 @@
         <v>11.11</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6005,7 +6210,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6013,7 +6218,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6021,7 +6226,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="435">
   <si>
     <t>日期</t>
   </si>
@@ -1067,7 +1067,7 @@
   </si>
   <si>
     <t>在东方财富带动下，早盘指数继续上涨，成交量继续放大，但在下午2点半之后，东方财富开始跳水，三大指数也转绿，低空经济板块受消息刺激早盘最多上涨7%+，尾盘回落到3%
-东方财富主力卖出368亿，净流出38亿。大盘成绩2.6万亿，放大2700亿，主力流出1200亿，涨停181家，跌停7家</t>
+东方财富主力卖出368亿，净流出38亿。大盘总成交量2.6万亿，放大2700亿，主力流出1200亿，涨停181家，跌停7家</t>
   </si>
   <si>
     <t>再次证明了东方财富是这轮行情的风向标</t>
@@ -1079,7 +1079,7 @@
     <t>14：34东方财富开始强力拉升，涨幅迅速扩大到11%</t>
   </si>
   <si>
-    <t>早盘三大指数微涨，午后开始单边上涨，最终沪指涨。2.57，创业板涨3.75，成交量与昨日基本持平，主力仅流出200亿，涨停233家，跌停10家
+    <t>早盘三大指数微涨，午后开始单边上涨，最终沪指涨。2.57，创业板涨3.75，总成交量2.6万亿与昨日基本持平，主力仅流出200亿，涨停233家，跌停10家
 券商，消费，白酒，基建，地产板块大幅上涨，东方财富大涨13.46，成交600亿，为历史第二高成交量，同花顺涨停，之前强势的低空经济回调</t>
   </si>
   <si>
@@ -1142,6 +1142,20 @@
   </si>
   <si>
     <t>上午截止10：48，三大指数震荡下行，创业板跌1.6%，沪指跌0.56，成交量继续萎缩2000亿，大资金流出560亿，今日行情不太妙</t>
+  </si>
+  <si>
+    <t>记者从中国汽车工业协会获悉，今天上午，我国新能源(2.970, -0.08, -2.62%)汽车年产量首次突破了1000万辆，同时也是全球首个新能源汽车年度达产1000万辆的国家。</t>
+  </si>
+  <si>
+    <t>成交量继续萎缩1800亿，总成交量18700亿，今日首次低于2万亿，主流出1500亿，涨停58，上周487，下跌4800家。连续多日放量之后市场出现观望情绪</t>
+  </si>
+  <si>
+    <t>国家统计局11月15日发布数据显示：社会消费品零售总额同比增长4.8%，比上月加快1.6个百分点
+全国服务业生产指数同比增长6.3%，比上月加快1.2个百分点
+全国规模以上工业增加值同比增长5.3%</t>
+  </si>
+  <si>
+    <t>大三指数震荡下跌，下午下跌加速，最终创业板跌3。9%，深成指跌2.6，总成交量18600亿，与前日持平，主流流出1000亿，涨停81，跌停54，市场出现获利回吐</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1302,6 +1316,9 @@
     <t>离岸人民币涨至7.25，比特币涨至历史新高9万美元</t>
   </si>
   <si>
+    <t>纽约黄金继续下跌至2567，沪金跌至598元/克</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1389,6 +1406,9 @@
   </si>
   <si>
     <t>黄金继续逼近2800美元，但是沪铜，沪银没有跟随上涨</t>
+  </si>
+  <si>
+    <t>产能端供应稳定，没有新增大矿，碳酸锂涨至85450</t>
   </si>
   <si>
     <t>评论</t>
@@ -1721,6 +1741,18 @@
   </si>
   <si>
     <t>人工智能板块集体上涨，前几日强势股蓝色光标，易点天下开盘均大涨15%，其中易点天下走出空中加油形态，海天瑞声直接涨停，昆仑万维，万兴科技均大涨6%以上，只有赛为智能前期涨幅太大回调5%</t>
+  </si>
+  <si>
+    <t>豆神教育，新动力在前一日大盘大跌的情况下均出现了大涨，并小幅回调，ST开元涨8.6%，豆神教育涨2.6%，今日豆神直接高开并涨停，ST开元震荡5分钟后也快速拉升</t>
+  </si>
+  <si>
+    <t>回调后的股在大盘大跌情况下大涨，可尾盘买入</t>
+  </si>
+  <si>
+    <t>海能达12，13日涨跌交替，14日尾盘跌破12日收盘价，走势很弱不可买入，今日大盘走弱海能达接近跌停</t>
+  </si>
+  <si>
+    <t>长联科技，14日收盘价在13日阳线中部，可适当买入</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -2618,7 +2650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2668,9 +2700,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3046,10 +3075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3222,7 +3251,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3251,7 +3280,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3407,10 +3436,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3434,7 +3463,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3603,7 +3632,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3611,7 +3640,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3679,7 +3708,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3693,7 +3722,7 @@
       <c r="B71" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3802,7 +3831,7 @@
       </c>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <v>9.29</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -3813,7 +3842,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3845,7 +3874,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="27">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3891,7 +3920,7 @@
       <c r="A95" s="15">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3899,7 +3928,7 @@
       <c r="A96" s="16">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3907,7 +3936,7 @@
       <c r="A97" s="16">
         <v>10.8</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="29" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3961,7 +3990,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4132,7 +4161,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="32">
+      <c r="A124" s="31">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4251,7 +4280,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="32" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4413,7 +4442,7 @@
       <c r="B155" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="C155" s="33" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4496,7 +4525,7 @@
       <c r="A165" s="6">
         <v>11.11</v>
       </c>
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="34" t="s">
         <v>205</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -4570,12 +4599,44 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" s="17" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A174" s="17">
+    <row r="174" s="3" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A174" s="3">
         <v>11.14</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:2">
+      <c r="A175">
+        <v>11.14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:2">
+      <c r="A176">
+        <v>11.14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:2">
+      <c r="A177">
+        <v>11.15</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:2">
+      <c r="A178">
+        <v>11.15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4588,10 +4649,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4606,7 +4667,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4614,7 +4675,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4622,7 +4683,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4630,10 +4691,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4641,10 +4702,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4652,7 +4713,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4660,7 +4721,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4668,7 +4729,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4676,7 +4737,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4684,7 +4745,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4692,7 +4753,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4700,7 +4761,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4708,7 +4769,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4716,7 +4777,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4724,7 +4785,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4732,7 +4793,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4740,7 +4801,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4748,7 +4809,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4756,7 +4817,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4764,7 +4825,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4772,10 +4833,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4783,7 +4844,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4791,7 +4852,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4799,7 +4860,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4807,10 +4868,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4818,7 +4879,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4826,7 +4887,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4834,7 +4895,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4842,7 +4903,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4850,7 +4911,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4858,7 +4919,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4866,7 +4927,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4874,7 +4935,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4882,7 +4943,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4890,7 +4951,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4898,7 +4959,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4906,7 +4967,7 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
@@ -4914,7 +4975,7 @@
         <v>11.12</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4922,7 +4983,15 @@
         <v>11.12</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40">
+        <v>11.14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4934,10 +5003,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -4950,13 +5019,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4967,102 +5036,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -5070,10 +5139,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -5081,7 +5150,15 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:3">
+      <c r="B15">
+        <v>11.14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5093,10 +5170,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -5115,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5134,7 +5211,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5142,7 +5219,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5150,7 +5227,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5158,7 +5235,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -5166,10 +5243,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5177,7 +5254,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5185,7 +5262,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -5193,10 +5270,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5204,7 +5281,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5212,7 +5289,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5220,10 +5297,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5231,10 +5308,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5242,10 +5319,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5253,10 +5330,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5264,10 +5341,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5275,7 +5352,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5283,10 +5360,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5294,7 +5371,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5302,7 +5379,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5310,7 +5387,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5318,7 +5395,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5326,7 +5403,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5334,7 +5411,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5342,7 +5419,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5350,10 +5427,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5361,7 +5438,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5369,7 +5446,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5377,10 +5454,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5388,10 +5465,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5399,7 +5476,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5407,7 +5484,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5415,7 +5492,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5423,7 +5500,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5431,7 +5508,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5439,7 +5516,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5447,10 +5524,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5458,7 +5535,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5466,7 +5543,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5474,7 +5551,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5482,7 +5559,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5490,7 +5567,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5498,7 +5575,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5506,7 +5583,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5514,7 +5591,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5522,7 +5599,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5530,7 +5607,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5538,7 +5615,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5546,7 +5623,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5554,7 +5631,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5562,7 +5639,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5570,7 +5647,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5578,10 +5655,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5589,7 +5666,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5597,7 +5674,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5605,7 +5682,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5613,7 +5690,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5621,7 +5698,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5629,7 +5706,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5637,7 +5714,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5645,7 +5722,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5653,7 +5730,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5661,7 +5738,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5669,7 +5746,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5677,7 +5754,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5685,7 +5762,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5693,7 +5770,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5701,7 +5778,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5709,10 +5786,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5720,7 +5797,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5728,7 +5805,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5736,7 +5813,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5744,7 +5821,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5752,7 +5829,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5760,7 +5837,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5768,7 +5845,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5776,7 +5853,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5784,7 +5861,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5792,7 +5869,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5800,7 +5877,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5808,7 +5885,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5816,10 +5893,10 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:2">
@@ -5827,7 +5904,7 @@
         <v>11.11</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:2">
@@ -5835,7 +5912,7 @@
         <v>11.11</v>
       </c>
       <c r="B85" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:2">
@@ -5843,7 +5920,7 @@
         <v>11.11</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:2">
@@ -5851,7 +5928,7 @@
         <v>11.12</v>
       </c>
       <c r="B87" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:2">
@@ -5859,7 +5936,7 @@
         <v>11.12</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:2">
@@ -5867,7 +5944,7 @@
         <v>11.13</v>
       </c>
       <c r="B89" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:2">
@@ -5876,6 +5953,38 @@
       </c>
       <c r="B90" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:4">
+      <c r="A91">
+        <v>11.15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>398</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:2">
+      <c r="A92">
+        <v>11.15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:2">
+      <c r="A93">
+        <v>11.15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:1">
+      <c r="A94">
+        <v>11.15</v>
       </c>
     </row>
   </sheetData>
@@ -5904,12 +6013,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5917,10 +6026,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5928,7 +6037,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5936,7 +6045,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -5981,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5992,7 +6101,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6000,7 +6109,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6008,7 +6117,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6016,7 +6125,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -6024,7 +6133,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -6032,10 +6141,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -6043,7 +6152,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -6051,7 +6160,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -6059,7 +6168,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -6067,7 +6176,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -6075,7 +6184,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -6083,10 +6192,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -6094,10 +6203,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -6105,10 +6214,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -6116,7 +6225,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -6124,7 +6233,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -6132,7 +6241,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -6140,7 +6249,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -6148,7 +6257,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -6156,7 +6265,7 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -6164,7 +6273,7 @@
         <v>11.7</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -6172,7 +6281,7 @@
         <v>11.7</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -6180,7 +6289,7 @@
         <v>11.11</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6210,7 +6319,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6218,7 +6327,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6226,7 +6335,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="442">
   <si>
     <t>日期</t>
   </si>
@@ -1158,6 +1158,24 @@
     <t>大三指数震荡下跌，下午下跌加速，最终创业板跌3。9%，深成指跌2.6，总成交量18600亿，与前日持平，主流流出1000亿，涨停81，跌停54，市场出现获利回吐</t>
   </si>
   <si>
+    <t>11月15日晚间，证监会发布《上市公司监管指引第10号——市值管理》，
+《指引》共15条，进一步引导上市公司关注自身投资价值，切实提升投资者回报。</t>
+  </si>
+  <si>
+    <t>公募基金认为，本次《指引》更有利于提高上市公司市值管理水平，
+对于那些长期提供稳定分红的红利类资产来说是一大利好，
+看好红利资产后市表现。</t>
+  </si>
+  <si>
+    <t>A股三大指数今日集体下跌，截至收盘，沪指跌0.21%，深成指跌1.91%，创业板指跌2.35%，北证50指数跌3.64%，
+总成交量17960亿元，较上日缩量673亿元，主力流出900亿。全市场超4100只个股飘绿
+受市值管理指引消息刺激，地产，煤炭，钢铁，银行，蓝筹，高股息板块上涨
+芯片，AI，新能源，CPO，自动驾驶，华为海思，光刻机，短剧，消费电子，在线教育等跌幅较大，固态电池，零售，旅游等跌幅较小</t>
+  </si>
+  <si>
+    <t>创业板三连跌超出预期，特朗普上任以后的强硬政策，财政货币政策真空期，造成市场情绪低落</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1753,6 +1771,16 @@
   </si>
   <si>
     <t>长联科技，14日收盘价在13日阳线中部，可适当买入</t>
+  </si>
+  <si>
+    <t>新易盛作为CPO龙头，2连跌价格较低，尾盘买入</t>
+  </si>
+  <si>
+    <t>创业板继续大跌，开始预计在创业板带动下能反弹，但是下午三大指数都开始跳水，新易盛也下跌超过5%，考虑到新易盛很少3连大跌，加上外贸形势严峻，短期走势很难扭转，因此在2点半反弹的时候亏损卖出</t>
+  </si>
+  <si>
+    <t>11月18日，中国航空运输协会通航业务部、无人机工作委员会主任孙卫国在2024国际电动航空（昆山）论坛上透露，中央空管委即将在六个城市开展eVTOL（注：电动垂直起降飞行器）试点。
+在该消息刺激下，苏交科盘中拉升最终涨12%，中信海直涨停</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1893,8 +1921,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -2663,7 +2691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2672,7 +2700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2705,7 +2733,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2729,10 +2757,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3075,10 +3103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4637,6 +4665,28 @@
       </c>
       <c r="B178" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:3">
+      <c r="A179">
+        <v>11.17</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" ht="71" customHeight="1" spans="1:3">
+      <c r="A180">
+        <v>11.18</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4667,7 +4717,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4675,7 +4725,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4683,7 +4733,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4691,10 +4741,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4702,10 +4752,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4713,7 +4763,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4721,7 +4771,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4729,7 +4779,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4737,7 +4787,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4745,7 +4795,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4753,7 +4803,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4761,7 +4811,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4769,7 +4819,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4777,7 +4827,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4785,7 +4835,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4793,7 +4843,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4801,7 +4851,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4809,7 +4859,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4817,7 +4867,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4825,7 +4875,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4833,10 +4883,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4844,7 +4894,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4852,7 +4902,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4860,7 +4910,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4868,10 +4918,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4879,7 +4929,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4887,7 +4937,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4895,7 +4945,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4903,7 +4953,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4911,7 +4961,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4919,7 +4969,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4927,7 +4977,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4935,7 +4985,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4943,7 +4993,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -4951,7 +5001,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -4959,7 +5009,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -4967,7 +5017,7 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
@@ -4975,7 +5025,7 @@
         <v>11.12</v>
       </c>
       <c r="B38" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -4983,7 +5033,7 @@
         <v>11.12</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -4991,7 +5041,7 @@
         <v>11.14</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5019,13 +5069,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5036,102 +5086,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -5139,10 +5189,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -5150,7 +5200,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
@@ -5158,7 +5208,7 @@
         <v>11.14</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5170,10 +5220,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -5192,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5211,7 +5261,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5219,7 +5269,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5227,7 +5277,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5235,7 +5285,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -5243,10 +5293,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5254,7 +5304,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5262,7 +5312,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -5270,10 +5320,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5281,7 +5331,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5289,7 +5339,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5297,10 +5347,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5308,10 +5358,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5319,10 +5369,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5330,10 +5380,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5341,10 +5391,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5352,7 +5402,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5360,10 +5410,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5371,7 +5421,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5379,7 +5429,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5387,7 +5437,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5395,7 +5445,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5403,7 +5453,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5411,7 +5461,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5419,7 +5469,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5427,10 +5477,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5438,7 +5488,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5446,7 +5496,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5454,10 +5504,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5465,10 +5515,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D31" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5476,7 +5526,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5484,7 +5534,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5492,7 +5542,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5500,7 +5550,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5508,7 +5558,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5516,7 +5566,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5524,10 +5574,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5535,7 +5585,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5543,7 +5593,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5551,7 +5601,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5559,7 +5609,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5567,7 +5617,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5575,7 +5625,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5583,7 +5633,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5591,7 +5641,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5599,7 +5649,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5607,7 +5657,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5615,7 +5665,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5623,7 +5673,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5631,7 +5681,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5639,7 +5689,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5647,7 +5697,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5655,10 +5705,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5666,7 +5716,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5674,7 +5724,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5682,7 +5732,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5690,7 +5740,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5698,7 +5748,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5706,7 +5756,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5714,7 +5764,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5722,7 +5772,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5730,7 +5780,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5738,7 +5788,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5746,7 +5796,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5754,7 +5804,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5762,7 +5812,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5770,7 +5820,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5778,7 +5828,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5786,10 +5836,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5797,7 +5847,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5805,7 +5855,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5813,7 +5863,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5821,7 +5871,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5829,7 +5879,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5837,7 +5887,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5845,7 +5895,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5853,7 +5903,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5861,7 +5911,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5869,7 +5919,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5877,7 +5927,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5885,7 +5935,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5893,10 +5943,10 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:2">
@@ -5904,7 +5954,7 @@
         <v>11.11</v>
       </c>
       <c r="B84" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:2">
@@ -5912,7 +5962,7 @@
         <v>11.11</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:2">
@@ -5920,7 +5970,7 @@
         <v>11.11</v>
       </c>
       <c r="B86" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:2">
@@ -5928,7 +5978,7 @@
         <v>11.12</v>
       </c>
       <c r="B87" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:2">
@@ -5936,7 +5986,7 @@
         <v>11.12</v>
       </c>
       <c r="B88" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:2">
@@ -5944,7 +5994,7 @@
         <v>11.13</v>
       </c>
       <c r="B89" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:2">
@@ -5960,10 +6010,10 @@
         <v>11.15</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
@@ -5971,7 +6021,7 @@
         <v>11.15</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
@@ -5979,12 +6029,31 @@
         <v>11.15</v>
       </c>
       <c r="B93" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:2">
       <c r="A94">
         <v>11.15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" s="3" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A95" s="3">
+        <v>11.18</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:2">
+      <c r="A96">
+        <v>11.18</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6013,12 +6082,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -6026,10 +6095,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6037,7 +6106,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -6045,7 +6114,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -6090,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6101,7 +6170,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6109,7 +6178,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6117,7 +6186,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6125,7 +6194,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -6133,7 +6202,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -6141,10 +6210,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -6152,7 +6221,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -6160,7 +6229,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -6168,7 +6237,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -6176,7 +6245,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -6184,7 +6253,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -6192,10 +6261,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -6203,10 +6272,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -6214,10 +6283,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -6225,7 +6294,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -6233,7 +6302,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -6241,7 +6310,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -6249,7 +6318,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -6257,7 +6326,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -6265,7 +6334,7 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -6273,7 +6342,7 @@
         <v>11.7</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -6281,7 +6350,7 @@
         <v>11.7</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -6289,7 +6358,7 @@
         <v>11.11</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -6319,7 +6388,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6327,7 +6396,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6335,7 +6404,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="449">
   <si>
     <t>日期</t>
   </si>
@@ -1176,6 +1176,17 @@
     <t>创业板三连跌超出预期，特朗普上任以后的强硬政策，财政货币政策真空期，造成市场情绪低落</t>
   </si>
   <si>
+    <t>上午三大指数高开震荡，但是成交量一路萎缩并扩大，到13：44，较前一日萎缩2800亿</t>
+  </si>
+  <si>
+    <t>13：50开始创业板率先反弹，最终创业板涨3%，沪指涨0.67%,总成交量15900亿，缩量2000亿，4500家上涨，103家涨停，35家跌停，主力流出355亿
+地产，煤炭，银行回调，人形机器人，CPO反弹幅度最大</t>
+  </si>
+  <si>
+    <t>再没有任何消息情况下下午突然拉升，疑似国家队和ETF护盘
+明日重点观察成交量，如果不放大大盘难以向上，如果放量则可以寻找二次进攻个股</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1337,6 +1348,9 @@
     <t>纽约黄金继续下跌至2567，沪金跌至598元/克</t>
   </si>
   <si>
+    <t>美元指数上涨至107，纽约黄金反弹至2626美元，比特币上涨至91000美元</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1781,6 +1795,15 @@
   <si>
     <t>11月18日，中国航空运输协会通航业务部、无人机工作委员会主任孙卫国在2024国际电动航空（昆山）论坛上透露，中央空管委即将在六个城市开展eVTOL（注：电动垂直起降飞行器）试点。
 在该消息刺激下，苏交科盘中拉升最终涨12%，中信海直涨停</t>
+  </si>
+  <si>
+    <t>在指数继续下跌情况下，15日大幅上涨的豆神教育跌停，ST开元继续跌4%</t>
+  </si>
+  <si>
+    <t>指数连续下跌情况下，强势个股切不可留恋，大幅拉升后需要及时卖出</t>
+  </si>
+  <si>
+    <t>天力锂能走出明显的5日线趋势，在大盘连续大跌情况下极其稳定，资金控盘明显，可能会从前期低点29翻倍</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -2678,7 +2701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2782,6 +2805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3103,10 +3129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -4689,6 +4715,25 @@
         <v>224</v>
       </c>
     </row>
+    <row r="181" customHeight="1" spans="1:2">
+      <c r="A181">
+        <v>11.19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:3">
+      <c r="A182">
+        <v>11.19</v>
+      </c>
+      <c r="B182" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4699,10 +4744,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
@@ -4717,7 +4762,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4725,7 +4770,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4733,7 +4778,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4741,10 +4786,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4752,10 +4797,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4763,7 +4808,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4771,7 +4816,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4779,7 +4824,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4787,7 +4832,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4795,7 +4840,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4803,7 +4848,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4811,7 +4856,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4819,7 +4864,7 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -4827,7 +4872,7 @@
         <v>7.31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4835,7 +4880,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4843,7 +4888,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4851,7 +4896,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4859,7 +4904,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4867,7 +4912,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4875,7 +4920,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4883,10 +4928,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4894,7 +4939,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4902,7 +4947,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4910,7 +4955,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4918,10 +4963,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4929,7 +4974,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4937,7 +4982,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4945,7 +4990,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4953,7 +4998,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -4961,7 +5006,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -4969,7 +5014,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -4977,7 +5022,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -4985,7 +5030,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -4993,7 +5038,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5001,7 +5046,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5009,7 +5054,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5017,7 +5062,7 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
@@ -5025,7 +5070,7 @@
         <v>11.12</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5033,7 +5078,7 @@
         <v>11.12</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5041,7 +5086,15 @@
         <v>11.14</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41">
+        <v>11.19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5056,7 +5109,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
@@ -5069,13 +5122,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5086,102 +5139,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -5189,10 +5242,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -5200,7 +5253,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
@@ -5208,7 +5261,7 @@
         <v>11.14</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5220,10 +5273,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -5242,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5261,7 +5314,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5269,7 +5322,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5277,7 +5330,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5285,7 +5338,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -5293,10 +5346,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5304,7 +5357,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5312,7 +5365,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -5320,10 +5373,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5331,7 +5384,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5339,7 +5392,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5347,10 +5400,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5358,10 +5411,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5369,10 +5422,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5380,10 +5433,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5391,10 +5444,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5402,7 +5455,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5410,10 +5463,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5421,7 +5474,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5429,7 +5482,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5437,7 +5490,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5445,7 +5498,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5453,7 +5506,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5461,7 +5514,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5469,7 +5522,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5477,10 +5530,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5488,7 +5541,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5496,7 +5549,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5504,10 +5557,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5515,10 +5568,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5526,7 +5579,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5534,7 +5587,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5542,7 +5595,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5550,7 +5603,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5558,7 +5611,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5566,7 +5619,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5574,10 +5627,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5585,7 +5638,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5593,7 +5646,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5601,7 +5654,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5609,7 +5662,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5617,7 +5670,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5625,7 +5678,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5633,7 +5686,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5641,7 +5694,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5649,7 +5702,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5657,7 +5710,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5665,7 +5718,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5673,7 +5726,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5681,7 +5734,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5689,7 +5742,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5697,7 +5750,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5705,10 +5758,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C54" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5716,7 +5769,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5724,7 +5777,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5732,7 +5785,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5740,7 +5793,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5748,7 +5801,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5756,7 +5809,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5764,7 +5817,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5772,7 +5825,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5780,7 +5833,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5788,7 +5841,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5796,7 +5849,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5804,7 +5857,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5812,7 +5865,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5820,7 +5873,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5828,7 +5881,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5836,10 +5889,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C70" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5847,7 +5900,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5855,7 +5908,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5863,7 +5916,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5871,7 +5924,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5879,7 +5932,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5887,7 +5940,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5895,7 +5948,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5903,7 +5956,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5911,7 +5964,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5919,7 +5972,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5927,7 +5980,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5935,7 +5988,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5943,10 +5996,10 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:2">
@@ -5954,7 +6007,7 @@
         <v>11.11</v>
       </c>
       <c r="B84" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:2">
@@ -5962,7 +6015,7 @@
         <v>11.11</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:2">
@@ -5970,7 +6023,7 @@
         <v>11.11</v>
       </c>
       <c r="B86" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:2">
@@ -5978,7 +6031,7 @@
         <v>11.12</v>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:2">
@@ -5986,7 +6039,7 @@
         <v>11.12</v>
       </c>
       <c r="B88" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:2">
@@ -5994,7 +6047,7 @@
         <v>11.13</v>
       </c>
       <c r="B89" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:2">
@@ -6010,10 +6063,10 @@
         <v>11.15</v>
       </c>
       <c r="B91" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
@@ -6021,7 +6074,7 @@
         <v>11.15</v>
       </c>
       <c r="B92" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
@@ -6029,7 +6082,7 @@
         <v>11.15</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:2">
@@ -6037,7 +6090,7 @@
         <v>11.15</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1" customHeight="1" spans="1:2">
@@ -6045,7 +6098,7 @@
         <v>11.18</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:2">
@@ -6053,7 +6106,26 @@
         <v>11.18</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:3">
+      <c r="A97">
+        <v>11.19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>413</v>
+      </c>
+      <c r="C97" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:2">
+      <c r="A98">
+        <v>11.19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -6082,12 +6154,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -6095,10 +6167,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6106,7 +6178,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -6114,7 +6186,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -6159,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6170,7 +6242,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6178,7 +6250,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6186,7 +6258,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6194,7 +6266,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -6202,7 +6274,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -6210,10 +6282,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -6221,7 +6293,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -6229,7 +6301,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -6237,7 +6309,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -6245,7 +6317,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -6253,7 +6325,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -6261,10 +6333,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -6272,10 +6344,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -6283,10 +6355,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -6294,7 +6366,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -6302,7 +6374,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -6310,7 +6382,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -6318,7 +6390,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -6326,7 +6398,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -6334,7 +6406,7 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -6342,7 +6414,7 @@
         <v>11.7</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -6350,7 +6422,7 @@
         <v>11.7</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -6358,7 +6430,7 @@
         <v>11.11</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6460,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6396,7 +6468,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6404,7 +6476,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="460">
   <si>
     <t>日期</t>
   </si>
@@ -1158,6 +1158,9 @@
     <t>大三指数震荡下跌，下午下跌加速，最终创业板跌3。9%，深成指跌2.6，总成交量18600亿，与前日持平，主流流出1000亿，涨停81，跌停54，市场出现获利回吐</t>
   </si>
   <si>
+    <t>盘后消息，财政部、税务总局发布《关于调整出口退税政策的公告》，明确自2024年12月1日起，取消铝材、铜材以及化学改性的动、植物或微生物油、脂等产品出口退税；将部分成品油、光伏、电池、部分非金属矿物制品的出口退税率由13%下调至9%。</t>
+  </si>
+  <si>
     <t>11月15日晚间，证监会发布《上市公司监管指引第10号——市值管理》，
 《指引》共15条，进一步引导上市公司关注自身投资价值，切实提升投资者回报。</t>
   </si>
@@ -1185,6 +1188,33 @@
   <si>
     <t>再没有任何消息情况下下午突然拉升，疑似国家队和ETF护盘
 明日重点观察成交量，如果不放大大盘难以向上，如果放量则可以寻找二次进攻个股</t>
+  </si>
+  <si>
+    <t>11月19日，多只“巨无霸”宽基ETF集体宣布降费，年管理费率普遍“打三折”将降至行业最低水平，即0.15%，年托管费率同样将降至行业最低水平0.05%。</t>
+  </si>
+  <si>
+    <t>三指数全天震荡，总成交量16500亿，上午一度放量2000亿，最终放量550亿，大资金流入50亿，多日以来第一次净流入
+张4500家，跌700家，涨停178，跌停6</t>
+  </si>
+  <si>
+    <t>A股三大指数今日集体下跌，截至收盘，沪指跌3.06，深成指跌3.52%，创业板指跌3.99%，北证50指数跌3.64%，上午走势震荡，但是中午收盘前突然跳水，下午则持续走跌，类似15日走势，全市场成交额18322亿元，较上日放量1000亿元。上午震荡中有所缩量，但是下午跳水后开始放量，全市场超4900只个股飘绿，涨停78，跌停17</t>
+  </si>
+  <si>
+    <t>22日，日本石破茂内阁批准了一项价值为21.9万亿日元（1400亿美元）的经济刺激计划，以应对从通货膨胀到工资增长等一系列挑战</t>
+  </si>
+  <si>
+    <t>两市缩量震荡下跌，总成交量15200亿，缩量3000亿，大盘资金流出500亿，170涨停，26跌停，固态电池大涨，盟固利涨停，南都电源跟涨12%
+东方财富继续缩量下跌，成交量降低到180亿，不是太好的现象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当地时间25日，美国当选总统特朗普表示，将对墨西哥和加拿大进入美国的所有产品征收25%关税。美元指数直线拉升，目前涨幅超过0.5%。加元兑美元短线走低，跌幅超过1%。墨西哥比索兑美元跌幅扩大至1.5%。离岸人民币兑美元也短线走低，跌超200个基点。
+</t>
+  </si>
+  <si>
+    <t>大盘再缩量1800亿，总成交量13300亿，上证跌0.13，创业板跌1.15，3700个股下跌，涨停106，跌停65，大盘资金流出600亿</t>
+  </si>
+  <si>
+    <t>持续缩量，谨慎买入</t>
   </si>
   <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
@@ -1804,6 +1834,13 @@
   </si>
   <si>
     <t>天力锂能走出明显的5日线趋势，在大盘连续大跌情况下极其稳定，资金控盘明显，可能会从前期低点29翻倍</t>
+  </si>
+  <si>
+    <t>酷特智能，集合竞价最低-9%，开盘-7%,开盘价格过低，虽然9点34拉到-3%以上，但是又跌了一次，不像强势股因此卖出，因此卖出但40分之后又极速拉升，最高涨9%，盘中震荡，受大盘影响最后只涨不到1个点，此股k线已经走得难看，后续谨慎观察</t>
+  </si>
+  <si>
+    <t>佳创视讯，连续3日上，下引线震荡后跳水，最终带跌10%
+安硕信息，也是12日开始连续3日上涨没有突破，第四日跳水大跌12%</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -2738,6 +2775,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2805,9 +2845,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3129,10 +3166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3143,25 +3180,25 @@
     <col min="4" max="4" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:3">
+    <row r="2" s="14" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2">
         <v>4.12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -3305,7 +3342,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3334,7 +3371,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3490,10 +3527,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3509,7 +3546,7 @@
       <c r="A41">
         <v>8.5</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3517,7 +3554,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3666,11 +3703,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="13">
+    <row r="60" s="14" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A60" s="14">
         <v>9.19</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3686,7 +3723,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3694,7 +3731,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3762,7 +3799,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3770,13 +3807,13 @@
       </c>
     </row>
     <row r="71" s="6" customFormat="1" ht="109" customHeight="1" spans="1:3">
-      <c r="A71" s="15">
+      <c r="A71" s="16">
         <v>9.26</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3852,11 +3889,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="13" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="13">
+    <row r="81" s="14" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A81" s="14">
         <v>9.27</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3884,19 +3921,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="26">
+    <row r="85" s="15" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A85" s="27">
         <v>9.29</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3928,7 +3965,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3970,27 +4007,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" s="15" customFormat="1" ht="112" customHeight="1" spans="1:2">
-      <c r="A95" s="15">
+    <row r="95" s="16" customFormat="1" ht="112" customHeight="1" spans="1:2">
+      <c r="A95" s="16">
         <v>10.8</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" s="16" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A96" s="16">
+    <row r="96" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A96" s="17">
         <v>10.8</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" s="16" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A97" s="16">
+    <row r="97" s="17" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A97" s="17">
         <v>10.8</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4044,7 +4081,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4215,7 +4252,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="31">
+      <c r="A124" s="32">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4334,7 +4371,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4496,7 +4533,7 @@
       <c r="B155" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="C155" s="34" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4579,7 +4616,7 @@
       <c r="A165" s="6">
         <v>11.11</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="35" t="s">
         <v>205</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -4695,43 +4732,111 @@
     </row>
     <row r="179" customHeight="1" spans="1:3">
       <c r="A179">
-        <v>11.17</v>
+        <v>11.15</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:3">
+      <c r="A180">
+        <v>11.17</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="180" ht="71" customHeight="1" spans="1:3">
-      <c r="A180">
+      <c r="C180" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" ht="71" customHeight="1" spans="1:3">
+      <c r="A181">
         <v>11.18</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B181" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="181" customHeight="1" spans="1:2">
-      <c r="A181">
-        <v>11.19</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:3">
+    <row r="182" customHeight="1" spans="1:2">
       <c r="A182">
         <v>11.19</v>
       </c>
-      <c r="B182" s="35" t="s">
+      <c r="B182" t="s">
         <v>226</v>
       </c>
-      <c r="C182" s="35" t="s">
+    </row>
+    <row r="183" customHeight="1" spans="1:3">
+      <c r="A183">
+        <v>11.19</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>227</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:2">
+      <c r="A184" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:2">
+      <c r="A185" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:2">
+      <c r="A186">
+        <v>11.22</v>
+      </c>
+      <c r="B186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:2">
+      <c r="A187">
+        <v>11.23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:2">
+      <c r="A188">
+        <v>11.25</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" ht="87" customHeight="1" spans="1:2">
+      <c r="A189">
+        <v>11.26</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:3">
+      <c r="A190">
+        <v>11.26</v>
+      </c>
+      <c r="B190" t="s">
+        <v>235</v>
+      </c>
+      <c r="C190" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4867,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4770,7 +4875,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4778,7 +4883,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4786,10 +4891,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4797,10 +4902,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4808,7 +4913,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4816,7 +4921,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4824,7 +4929,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4832,7 +4937,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4840,7 +4945,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4848,7 +4953,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4856,7 +4961,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4864,15 +4969,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>243</v>
+      <c r="B14" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4880,7 +4985,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4888,7 +4993,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -4896,7 +5001,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -4904,7 +5009,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -4912,7 +5017,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -4920,7 +5025,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -4928,10 +5033,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -4939,7 +5044,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -4947,7 +5052,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -4955,7 +5060,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -4963,10 +5068,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -4974,7 +5079,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -4982,7 +5087,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -4990,7 +5095,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -4998,7 +5103,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -5006,7 +5111,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -5014,7 +5119,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5022,7 +5127,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5030,7 +5135,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5038,7 +5143,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5046,7 +5151,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5054,7 +5159,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5062,7 +5167,7 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
@@ -5070,7 +5175,7 @@
         <v>11.12</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5078,7 +5183,7 @@
         <v>11.12</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5086,7 +5191,7 @@
         <v>11.14</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5094,7 +5199,7 @@
         <v>11.19</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5122,13 +5227,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5139,102 +5244,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
       <c r="B10" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
       <c r="B11" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -5242,10 +5347,10 @@
         <v>9.3</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
@@ -5253,7 +5358,7 @@
         <v>10.31</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
@@ -5261,7 +5366,7 @@
         <v>11.14</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5273,10 +5378,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -5295,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5314,7 +5419,7 @@
         <v>7.26</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -5322,7 +5427,7 @@
         <v>7.29</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -5330,7 +5435,7 @@
         <v>7.31</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -5338,7 +5443,7 @@
         <v>8.2</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -5346,10 +5451,10 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -5357,7 +5462,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -5365,7 +5470,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -5373,10 +5478,10 @@
         <v>8.13</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -5384,7 +5489,7 @@
         <v>8.19</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -5392,7 +5497,7 @@
         <v>8.2</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5400,10 +5505,10 @@
         <v>8.2</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5411,10 +5516,10 @@
         <v>9.2</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5422,10 +5527,10 @@
         <v>9.4</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -5433,10 +5538,10 @@
         <v>9.4</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -5444,10 +5549,10 @@
         <v>9.4</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5455,7 +5560,7 @@
         <v>9.5</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -5463,10 +5568,10 @@
         <v>9.5</v>
       </c>
       <c r="B19" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5474,7 +5579,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -5482,7 +5587,7 @@
         <v>9.6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5490,7 +5595,7 @@
         <v>9.6</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5498,7 +5603,7 @@
         <v>9.9</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5506,7 +5611,7 @@
         <v>9.9</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
@@ -5514,7 +5619,7 @@
         <v>9.9</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5522,7 +5627,7 @@
         <v>9.1</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -5530,10 +5635,10 @@
         <v>9.13</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5541,7 +5646,7 @@
         <v>9.2</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5549,7 +5654,7 @@
         <v>9.23</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -5557,10 +5662,10 @@
         <v>9.24</v>
       </c>
       <c r="B30" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" ht="92" customHeight="1" spans="1:4">
@@ -5568,10 +5673,10 @@
         <v>9.25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D31" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5579,7 +5684,7 @@
         <v>9.25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5587,7 +5692,7 @@
         <v>9.26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5595,7 +5700,7 @@
         <v>9.26</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5603,7 +5708,7 @@
         <v>9.26</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5611,7 +5716,7 @@
         <v>9.27</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
@@ -5619,7 +5724,7 @@
         <v>9.27</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
@@ -5627,10 +5732,10 @@
         <v>9.27</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5638,7 +5743,7 @@
         <v>9.27</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5646,7 +5751,7 @@
         <v>9.3</v>
       </c>
       <c r="B40" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5654,7 +5759,7 @@
         <v>10.8</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
@@ -5662,7 +5767,7 @@
         <v>10.8</v>
       </c>
       <c r="B42" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
@@ -5670,7 +5775,7 @@
         <v>10.8</v>
       </c>
       <c r="B43" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -5678,7 +5783,7 @@
         <v>10.8</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
@@ -5686,7 +5791,7 @@
         <v>10.8</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
@@ -5694,7 +5799,7 @@
         <v>10.8</v>
       </c>
       <c r="B46" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
@@ -5702,7 +5807,7 @@
         <v>10.8</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5710,7 +5815,7 @@
         <v>10.8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
@@ -5718,7 +5823,7 @@
         <v>10.8</v>
       </c>
       <c r="B49" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:2">
@@ -5726,7 +5831,7 @@
         <v>10.8</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5734,7 +5839,7 @@
         <v>10.8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:2">
@@ -5742,7 +5847,7 @@
         <v>10.9</v>
       </c>
       <c r="B52" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:2">
@@ -5750,7 +5855,7 @@
         <v>10.9</v>
       </c>
       <c r="B53" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -5758,10 +5863,10 @@
         <v>10.9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
@@ -5769,7 +5874,7 @@
         <v>10.9</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:2">
@@ -5777,7 +5882,7 @@
         <v>10.9</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:2">
@@ -5785,7 +5890,7 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:2">
@@ -5793,7 +5898,7 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:2">
@@ -5801,7 +5906,7 @@
         <v>10.14</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
@@ -5809,7 +5914,7 @@
         <v>10.14</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -5817,7 +5922,7 @@
         <v>10.17</v>
       </c>
       <c r="B61" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:2">
@@ -5825,7 +5930,7 @@
         <v>10.17</v>
       </c>
       <c r="B62" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -5833,7 +5938,7 @@
         <v>10.17</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:2">
@@ -5841,7 +5946,7 @@
         <v>10.22</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:2">
@@ -5849,7 +5954,7 @@
         <v>10.23</v>
       </c>
       <c r="B65" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:2">
@@ -5857,7 +5962,7 @@
         <v>10.23</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
@@ -5865,7 +5970,7 @@
         <v>10.23</v>
       </c>
       <c r="B67" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
@@ -5873,7 +5978,7 @@
         <v>10.23</v>
       </c>
       <c r="B68" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
@@ -5881,7 +5986,7 @@
         <v>10.23</v>
       </c>
       <c r="B69" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
@@ -5889,10 +5994,10 @@
         <v>10.26</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C70" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -5900,7 +6005,7 @@
         <v>10.29</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
@@ -5908,7 +6013,7 @@
         <v>10.31</v>
       </c>
       <c r="B72" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5916,7 +6021,7 @@
         <v>10.31</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
@@ -5924,7 +6029,7 @@
         <v>10.31</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
@@ -5932,7 +6037,7 @@
         <v>10.31</v>
       </c>
       <c r="B75" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
@@ -5940,7 +6045,7 @@
         <v>10.31</v>
       </c>
       <c r="B76" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
@@ -5948,7 +6053,7 @@
         <v>11.1</v>
       </c>
       <c r="B77" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
@@ -5956,7 +6061,7 @@
         <v>11.1</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
@@ -5964,7 +6069,7 @@
         <v>11.4</v>
       </c>
       <c r="B79" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
@@ -5972,7 +6077,7 @@
         <v>11.5</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
@@ -5980,7 +6085,7 @@
         <v>11.5</v>
       </c>
       <c r="B81" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -5988,7 +6093,7 @@
         <v>11.5</v>
       </c>
       <c r="B82" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
@@ -5996,10 +6101,10 @@
         <v>11.6</v>
       </c>
       <c r="B83" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C83" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:2">
@@ -6007,7 +6112,7 @@
         <v>11.11</v>
       </c>
       <c r="B84" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:2">
@@ -6015,7 +6120,7 @@
         <v>11.11</v>
       </c>
       <c r="B85" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:2">
@@ -6023,7 +6128,7 @@
         <v>11.11</v>
       </c>
       <c r="B86" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:2">
@@ -6031,7 +6136,7 @@
         <v>11.12</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:2">
@@ -6039,7 +6144,7 @@
         <v>11.12</v>
       </c>
       <c r="B88" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:2">
@@ -6047,7 +6152,7 @@
         <v>11.13</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:2">
@@ -6063,10 +6168,10 @@
         <v>11.15</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
@@ -6074,7 +6179,7 @@
         <v>11.15</v>
       </c>
       <c r="B92" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
@@ -6082,7 +6187,7 @@
         <v>11.15</v>
       </c>
       <c r="B93" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:2">
@@ -6090,7 +6195,7 @@
         <v>11.15</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1" customHeight="1" spans="1:2">
@@ -6098,7 +6203,7 @@
         <v>11.18</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:2">
@@ -6106,7 +6211,7 @@
         <v>11.18</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:3">
@@ -6114,10 +6219,10 @@
         <v>11.19</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C97" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:2">
@@ -6125,7 +6230,31 @@
         <v>11.19</v>
       </c>
       <c r="B98" t="s">
-        <v>415</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:2">
+      <c r="A99" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:2">
+      <c r="A100">
+        <v>11.22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:2">
+      <c r="A101">
+        <v>11.26</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -6154,12 +6283,12 @@
         <v>7.15</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -6167,10 +6296,10 @@
         <v>7.25</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6178,7 +6307,7 @@
         <v>9.9</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -6186,7 +6315,7 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -6231,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6242,7 +6371,7 @@
         <v>9.26</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6250,7 +6379,7 @@
         <v>9.26</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6258,7 +6387,7 @@
         <v>9.26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
@@ -6266,7 +6395,7 @@
         <v>9.26</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -6274,7 +6403,7 @@
         <v>9.27</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -6282,10 +6411,10 @@
         <v>9.27</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -6293,7 +6422,7 @@
         <v>9.27</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -6301,7 +6430,7 @@
         <v>9.3</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -6309,7 +6438,7 @@
         <v>9.3</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -6317,7 +6446,7 @@
         <v>9.3</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -6325,7 +6454,7 @@
         <v>10.8</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -6333,10 +6462,10 @@
         <v>10.1</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -6344,10 +6473,10 @@
         <v>10.1</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -6355,10 +6484,10 @@
         <v>10.11</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -6366,7 +6495,7 @@
         <v>10.14</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -6374,7 +6503,7 @@
         <v>10.17</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -6382,7 +6511,7 @@
         <v>10.22</v>
       </c>
       <c r="B18" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -6390,7 +6519,7 @@
         <v>10.29</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -6398,7 +6527,7 @@
         <v>10.31</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -6406,7 +6535,7 @@
         <v>11.5</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -6414,7 +6543,7 @@
         <v>11.7</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -6422,7 +6551,7 @@
         <v>11.7</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -6430,7 +6559,7 @@
         <v>11.11</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6589,7 @@
         <v>10.9</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -6468,7 +6597,7 @@
         <v>10.11</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
@@ -6476,7 +6605,7 @@
         <v>10.6</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/证券记录.xlsx
+++ b/证券记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="股票" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="527">
   <si>
     <t>日期</t>
   </si>
@@ -1217,6 +1217,140 @@
     <t>持续缩量，谨慎买入</t>
   </si>
   <si>
+    <t>大盘低迷，新出现的谷子IP概念，大部分股刚启动，可重点关注</t>
+  </si>
+  <si>
+    <t>夜间富时中国三倍做多ETF跌1%</t>
+  </si>
+  <si>
+    <t>总成量14800亿，大盘流出仅仅45亿，涨停108，开盘后三大指数小幅回调，跌停个股超过涨停，10点以后开始强势反弹，下午1点半整理一段时间后尾盘继续上涨，下午成交量逐步放大，最终创业板涨2.73</t>
+  </si>
+  <si>
+    <t>总成交量17000亿，在早盘震荡的情况下，下午三大指数发力，最终创业板涨2。76，成交量持续放大，后市可期</t>
+  </si>
+  <si>
+    <t>以来自东南亚的太阳能产品低于生产成本价格在美销售为由，美国商务部日前宣布，拟对相关国家光伏产品征收最高约271%反倾销税。这一计划遭到媒体和相关国家人士质疑。</t>
+  </si>
+  <si>
+    <t>11月30日，11月份的首个经济数据出炉，被誉为宏观经济变化“晴雨表”的制造业采购经理指数（PMI）为50.3%，比10月份上升0.2个百分点，创7个月以来新高，表现超预期。</t>
+  </si>
+  <si>
+    <t>市场的2个小作文之二，12月召开的中央经济工作会议将提高赤字率，并超市场预期</t>
+  </si>
+  <si>
+    <t>在PMI超预期和小作文影响下上午成交量最多放大2000亿，市场情绪较好，人形机器人大涨5.5，海南自贸区爆发大涨9.8。涨停143</t>
+  </si>
+  <si>
+    <t>总成交量18200亿，较前一日放大790亿，大盘资金流出130亿，三大指数均上涨1个多点，板块活跃度高，中小板活跃涨停185，跌停6，人形机器人，海南自贸区，告诉铜缆涨幅靠前</t>
+  </si>
+  <si>
+    <t>总成交量17000亿</t>
+  </si>
+  <si>
+    <t>总成交量15200亿，缩量1700以，大盘资金流出118亿，涨停152，人工智能，短剧游戏再度发力，上涨超过5%，CPO小幅上涨，券商再度活跃</t>
+  </si>
+  <si>
+    <t>凌晨比特币突然大跌，最低至92000美元</t>
+  </si>
+  <si>
+    <t>三大指数早盘微弱震荡，10:26开始突然拉升，创业板最多涨1.9%，富时A50也上涨，最多1.5%，成交量放大1100亿</t>
+  </si>
+  <si>
+    <t>下午创业板在2%附近震荡，成交量持续放大，收盘总成交量18100亿，放大2900亿，sora，传媒，保险板块涨幅较大，涨停134，跌停6</t>
+  </si>
+  <si>
+    <t>国家统计局公布数据，2024年11月份，全国居民消费价格同比上涨0.2%。其中，城市上涨0.1%，农村上涨0.2%；（预期0.5%）
+11月份，全国居民消费价格环比下降0.6%。其中，城市下降0.6%，农村下降0.6%；</t>
+  </si>
+  <si>
+    <t>11月份，PPI同比下降2.5%，降幅比上月收窄0.4个百分点，环比由上月下降0.1%转为上涨0.1%。
+预期降2.7%，前值降2.9%</t>
+  </si>
+  <si>
+    <t>在中午跳水的情况下,下午创业板和沪指都做了反弹,跌幅都在1%以内,总成交量16600亿,缩量1500亿,大盘资金流出880亿,涨停118,跌停27</t>
+  </si>
+  <si>
+    <t>盘后,15:30,富时A50突然大涨3.9%，富时中国三倍做多ETF大涨10%</t>
+  </si>
+  <si>
+    <t>盘后消息，中央政治局会议发布，要点：实施适度宽松的货币政策，实施更加积极的财政政策，扩大内需放在重点工作第一位，稳住楼市股市（市场普遍认为超预期）</t>
+  </si>
+  <si>
+    <t>晚间，富时A50期货最终大涨4%，富时中国三倍做多ETF大涨22%，每股中国红金龙指数大涨8.5%</t>
+  </si>
+  <si>
+    <t>创业板高开4个点，但开盘后回调，券商，创业板均从高点回调，成交量持续放大，至10:30,放大3500亿</t>
+  </si>
+  <si>
+    <t>今日成交量会超过2万亿</t>
+  </si>
+  <si>
+    <t>今日走势与23年8月28日极为相似，在盘后中央经济工作会议超预期的刺激下，创业板高开4.89%，但是由于之前已经有10月初的大涨，多数散户大户选择了高点卖出，三大指数都在逐步走低，但是成交量放大5600以，总成交量2.2万亿，涨停股119，跌停6</t>
+  </si>
+  <si>
+    <t>开始预计券商，房地产会出现大量涨停，因此在开盘价买入滨江集团，事实证明这个操作极为低劣，大盘如此高开，应该等开盘5分钟后再考虑是否买入
+其次，考虑大如此大利好，以及成交量一直在放大，因此没有逢高卖出金运激光，这个需要后面一段时间观察</t>
+  </si>
+  <si>
+    <t>稳住楼市股市的提法可能会推出平准基金</t>
+  </si>
+  <si>
+    <t>三大指数震荡，缩量4200亿，成交18000亿</t>
+  </si>
+  <si>
+    <t>上午10点52，外围富时A50，港股通是拉升，A股也通是拉升，最终下午逐步上行，创业板涨1.35%，成交量放大890亿，总成交量18800亿，量子计算，消费，零售继续活跃</t>
+  </si>
+  <si>
+    <t>各方对中央工作经济会议的解读开始消极，沪指跌2.0%,创业板跌2.4%，成交量放大2000亿，总成交量20800亿，冰雪经济，零售板块涨幅居前，零售惠发食品，大连圣亚，长白山，曲江文旅等继续涨停</t>
+  </si>
+  <si>
+    <t>央行发布11月信贷数据，M1同比下降3.7%，较前值-6.1%显著回升。特别是，看M1环比，连续两个月显著上行。M2：同比+7.1%，较前值下降0.4ppt。11月新增社融2.34万亿，同比少增1197亿其中短期贷款、中长期贷款分别新增-370和3000亿元，同比分别多减964和多增669亿元。</t>
+  </si>
+  <si>
+    <t>开源证券等机构认为，M1的大幅回升，表明企业和居民现金流量表改善，对经济和收入预期向好，是PMI连续回升，消费增速回升的重要原因之一。
+短期贷款短暂反弹之后又再度回落，反映居民预期尚未完全逆转，包括对股市没有形成稳定的预期；
+中长期贷款的修复一方面是存贷房贷利率下调之后，提前还贷减少。</t>
+  </si>
+  <si>
+    <t>周末，11 月信贷社融数据发布，有喜有忧。
+喜在，M1 同比连升两月，居民中长期贷款连续两个月同比多增；
+忧在，社融与M1出现背离，未能延续 10 月的改善势头，尤其是居民短期贷款再度转为负增、企业中长期贷款连续 9 个月同比少增、M2 增速回落、财政支出 有所放缓等。</t>
+  </si>
+  <si>
+    <t>上午国家统计局发布11月份国民经济运行情况。全国规模以上工业增加值同比增长5.4%，全国服务业生产指数同比增长6.1%，社会消费品零售总额同比增长3.0%（前值4.8）。表现均低于市场预期。</t>
+  </si>
+  <si>
+    <t>上午三市震荡,量子科技三个主要龙头出现反弹,下午创业板加速下跌,最多跌1.9%,收盘前略有反弹,总成交量17000亿,缩量3700亿,大盘资金流出917亿,涨停115,跌停30
+量子技术在大盘拖累下全部下跌,高速铜缆在美股博通消息刺激下大涨6%</t>
+  </si>
+  <si>
+    <t>大盘继续缩量，总成交量15900亿，缩量1900亿，涨停31，跌停162，国情行情以来，少有的跌停上百家</t>
+  </si>
+  <si>
+    <t>成交量13753亿，缩量1500亿，涨停108，跌停15，零售，旅游跌幅居前，ai眼镜，短剧，量子技术，电力反弹</t>
+  </si>
+  <si>
+    <t>中新经纬12月20日电 20日，年内最后一轮LPR报价公布，1年期和5年期利率均维持不变。
+　　央行公告称，授权全国银行间同业拆借中心公布，2024年12月20日贷款市场报价利率(LPR)为：1年期LPR为3.1%，5年期以上LPR为3.6%。以上LPR在下一次发布LPR之前有效。</t>
+  </si>
+  <si>
+    <t>微盘股，中证2000再次大跌，与12.17类似，跌停206，涨停33，大量小盘股跌停，ST股也大幅下跌，300多只跌幅超9%，总成交量15400，银行，蓝筹，长江电力，格力电器等高分红板块个股上涨
+短剧，传媒，人形机器人，在线教育，跨境支付，超跌等跌幅居前，零售，旅游继续大跌</t>
+  </si>
+  <si>
+    <t>可能与证监会对量化按交易频率收费的传闻有关系</t>
+  </si>
+  <si>
+    <t>早盘普遍反弹，最后银行股上涨，小微股随之继续下跌，随后中证1000被拉起，成交量缩量1800亿，由于退市新规1.1开始实施，各路资金回避微盘股，临近ST股，尾盘股指数短期很难反弹，可以寻找回调的优质股，白马股买入</t>
+  </si>
+  <si>
+    <t>机器人题材，奥特佳，积成电子等近期热点又连续大跌的开始反弹，机器人的新瀚新材大涨 中欣佛材快速涨停，中研股份也上涨超过10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 港股近期走稳开始反弹，三大指数均上涨超过1%，但是成交量缩量2200亿，总成交量仅仅13000亿，如果明日成交量不能恢复，后面走势隐患较大，看是否能重复11.4的缩量上涨
+上涨3900家，涨停83，跌停37，大盘资金流出145亿</t>
+  </si>
+  <si>
     <t>黄金2300美元震荡，铜持续上涨超过80000万人民币</t>
   </si>
   <si>
@@ -1381,6 +1515,37 @@
     <t>美元指数上涨至107，纽约黄金反弹至2626美元，比特币上涨至91000美元</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>离岸人民币兑美元跌至7.31</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+在12月2日10年期国债收益率跌破2%整数关口后，中美利差倒挂幅度再度走阔、海外金融机构继续炒作美国“关税政策”并押注未来美元升值的情况下，市场对人民币汇率跌破7.3有着一定的预期。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比特币突破10万美元</t>
+  </si>
+  <si>
+    <t>纽约黄金继续在2650附近震荡</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1841,6 +2006,75 @@
   <si>
     <t>佳创视讯，连续3日上，下引线震荡后跳水，最终带跌10%
 安硕信息，也是12日开始连续3日上涨没有突破，第四日跳水大跌12%</t>
+  </si>
+  <si>
+    <t>海能达继续低开，在大盘持续下跌情况下，指数已经处于短期低位，可以买入</t>
+  </si>
+  <si>
+    <t>26号大盘低迷的情况下，谷子IP概念中的金运激光之前2连涨停，当日其他人气股都大涨情况下反常回调，正是尾盘买入机会，遗憾错过</t>
+  </si>
+  <si>
+    <t>银之杰早12.2出现大涨回调形态后，连续3日上涨并超过前高</t>
+  </si>
+  <si>
+    <t>唯万密封前一日盘中大跌超过20%，今天再跌5%，</t>
+  </si>
+  <si>
+    <t>跌幅不够暂不买入</t>
+  </si>
+  <si>
+    <t>欣龙控股，下午拉涨停后尾盘跳水到5%，类似走势有青岛金王</t>
+  </si>
+  <si>
+    <t>下一日不是高开快速拉升，就是竞价跳水</t>
+  </si>
+  <si>
+    <t>欣龙控股竞价即跌停,按照以前距离震荡走势个股,可以再观察2日</t>
+  </si>
+  <si>
+    <t>金运激光早盘走势即强于大盘,在大盘下午跳水拉起后,预期其尾盘可能拉升</t>
+  </si>
+  <si>
+    <t>最终尾盘拉升2个点以6.7%收盘</t>
+  </si>
+  <si>
+    <t>金运激光从5日尾盘下跌后的拉伸，到6日早盘的护盘，以及尾盘的护盘，6日继续拉升来看，主力还在，因此继续持有</t>
+  </si>
+  <si>
+    <t>金运激光12.10反弹没有抓住机会清仓，今天走势又严重脱离板块，明日随着板块回调，继续深调的可能性很大，因此止损</t>
+  </si>
+  <si>
+    <t>海能达前一日涨停，今日在中证2000拖累下大跌6.6%但并未跌停，明日可能继续走强</t>
+  </si>
+  <si>
+    <t>18日在低开4个点后9点43迅速拉涨停，缩量</t>
+  </si>
+  <si>
+    <t>大盘连跌3日，但是最新炒作的量子科技和PEEK材料板块可能会在明日率先反弹，其中量子科技中的三龙头之一复旦复华仅跌2.1%，明日最有可能反弹</t>
+  </si>
+  <si>
+    <t>果然复旦复华18日竞价即涨停</t>
+  </si>
+  <si>
+    <t>大唐电信作为超跌股在前一日普跌的情况下涨停，今日直接一字涨停</t>
+  </si>
+  <si>
+    <t>在最严退市规则即将实施逻辑下，前期强势的超跌股中，海能达，双成药业继续探底，而属于中大盘的日出东方直接涨停，四川长虹则大涨</t>
+  </si>
+  <si>
+    <t>奥特佳，积成电子都是三连跌，今日小幅反弹，明日如果大跌或者横盘可考虑买入</t>
+  </si>
+  <si>
+    <t>线上线下，在逆大盘四连阳后，今日低开后10点开始拉升，最终涨停，成交量继续放大</t>
+  </si>
+  <si>
+    <t>神宇股份在1.5T光模块，GB300消息刺激下，19日，20日逆大盘上涨，今日大涨15%，从11月底一直关注但未能买入，后面有回调可重点关注</t>
+  </si>
+  <si>
+    <t>北特科技，走出一日回调后反弹走势，今日高开后剧烈震荡，一度收阴，但2点之后再次拉升，该股是外资持仓股，可继续关注</t>
+  </si>
+  <si>
+    <t>正丹股份在微盘股下跌情况下，作为一个中市值绩优股，再获资本青睐，23日大涨15%，今日小幅回调，后市可期</t>
   </si>
   <si>
     <t>6月份，社会消费品零售总额40732亿元，同比增长2.0%。</t>
@@ -1984,7 +2218,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2036,6 +2270,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2060,6 +2302,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2094,12 +2350,6 @@
       <color rgb="FF4D4F53"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2596,10 +2846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2608,37 +2858,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2647,98 +2891,104 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2775,15 +3025,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2794,6 +3041,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2802,49 +3058,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3166,10 +3431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="3"/>
@@ -3342,7 +3607,7 @@
       <c r="A17">
         <v>7.3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3371,7 +3636,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="19">
+      <c r="A21" s="21">
         <v>7.9</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3527,10 +3792,10 @@
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3554,7 +3819,7 @@
       <c r="A42">
         <v>8.5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3723,7 +3988,7 @@
       <c r="A62">
         <v>9.23</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="25" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3731,7 +3996,7 @@
       <c r="A63">
         <v>9.24</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3799,7 +4064,7 @@
       <c r="A70">
         <v>9.26</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C70" t="s">
@@ -3813,7 +4078,7 @@
       <c r="B71" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3922,7 +4187,7 @@
       </c>
     </row>
     <row r="85" s="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A85" s="27">
+      <c r="A85" s="29">
         <v>9.29</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -3933,7 +4198,7 @@
       </c>
     </row>
     <row r="86" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="28">
+      <c r="A86" s="30">
         <v>9.3</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -3965,7 +4230,7 @@
       </c>
     </row>
     <row r="90" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="28">
+      <c r="A90" s="30">
         <v>9.3</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -4011,7 +4276,7 @@
       <c r="A95" s="16">
         <v>10.8</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4019,7 +4284,7 @@
       <c r="A96" s="17">
         <v>10.8</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4027,7 +4292,7 @@
       <c r="A97" s="17">
         <v>10.8</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4081,7 +4346,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="33" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4252,7 +4517,7 @@
       </c>
     </row>
     <row r="124" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="32">
+      <c r="A124" s="34">
         <v>10.18</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -4371,7 +4636,7 @@
       <c r="A137">
         <v>10.28</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="35" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4533,7 +4798,7 @@
       <c r="B155" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="C155" s="36" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4616,7 +4881,7 @@
       <c r="A165" s="6">
         <v>11.11</v>
       </c>
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="37" t="s">
         <v>205</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -4837,6 +5102,314 @@
       </c>
       <c r="C190" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:2">
+      <c r="A191">
+        <v>11.26</v>
+      </c>
+      <c r="B191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:2">
+      <c r="A192">
+        <v>11.26</v>
+      </c>
+      <c r="B192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:2">
+      <c r="A193">
+        <v>11.27</v>
+      </c>
+      <c r="B193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:2">
+      <c r="A194">
+        <v>11.29</v>
+      </c>
+      <c r="B194" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" s="18" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A195" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" s="3" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A196" s="39">
+        <v>11.3</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A197" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="B197" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:2">
+      <c r="A198">
+        <v>12.2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:2">
+      <c r="A199">
+        <v>12.2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="1:2">
+      <c r="A200">
+        <v>12.4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:2">
+      <c r="A201">
+        <v>12.5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:2">
+      <c r="A202">
+        <v>12.6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="1:2">
+      <c r="A203">
+        <v>12.6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:2">
+      <c r="A204">
+        <v>12.6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:2">
+      <c r="A205">
+        <v>12.9</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="1:2">
+      <c r="A206">
+        <v>12.9</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:2">
+      <c r="A207">
+        <v>12.9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:2">
+      <c r="A208">
+        <v>12.9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A209" s="30">
+        <v>12.9</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A210" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:3">
+      <c r="A211" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>257</v>
+      </c>
+      <c r="C211" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" customHeight="1" spans="1:2">
+      <c r="A212" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:2">
+      <c r="A213" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:2">
+      <c r="A214">
+        <v>12.11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="1:2">
+      <c r="A215">
+        <v>12.11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:2">
+      <c r="A216">
+        <v>12.12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="1:2">
+      <c r="A217">
+        <v>12.13</v>
+      </c>
+      <c r="B217" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="218" s="19" customFormat="1" ht="96" customHeight="1" spans="1:4">
+      <c r="A218" s="19">
+        <v>12.14</v>
+      </c>
+      <c r="B218" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C218" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D218" s="40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="219" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A219">
+        <v>12.16</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:2">
+      <c r="A220">
+        <v>12.16</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="1:2">
+      <c r="A221">
+        <v>12.17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:2">
+      <c r="A222">
+        <v>12.18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="1:2">
+      <c r="A223" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A224" s="6">
+        <v>12.23</v>
+      </c>
+      <c r="B224" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:2">
+      <c r="A225">
+        <v>12.24</v>
+      </c>
+      <c r="B225" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:2">
+      <c r="A226">
+        <v>12.24</v>
+      </c>
+      <c r="B226" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:2">
+      <c r="A227">
+        <v>12.24</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4849,16 +5422,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="97.875" customWidth="1"/>
+    <col min="2" max="2" width="138" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4867,7 +5440,7 @@
         <v>4.3</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -4875,7 +5448,7 @@
         <v>4.3</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -4883,7 +5456,7 @@
         <v>5.4</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -4891,10 +5464,10 @@
         <v>5.2</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -4902,10 +5475,10 @@
         <v>5.17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -4913,7 +5486,7 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
@@ -4921,7 +5494,7 @@
         <v>6.2</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
@@ -4929,7 +5502,7 @@
         <v>6.28</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
@@ -4937,7 +5510,7 @@
         <v>6.3</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -4945,7 +5518,7 @@
         <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -4953,7 +5526,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -4961,7 +5534,7 @@
         <v>7.17</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -4969,15 +5542,15 @@
         <v>7.25</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>7.31</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>252</v>
+      <c r="B14" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
@@ -4985,7 +5558,7 @@
         <v>8.2</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -4993,7 +5566,7 @@
         <v>8.5</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -5001,7 +5574,7 @@
         <v>8.5</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -5009,7 +5582,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -5017,7 +5590,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
@@ -5025,7 +5598,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -5033,10 +5606,10 @@
         <v>8.16</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
@@ -5044,7 +5617,7 @@
         <v>9.4</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
@@ -5052,7 +5625,7 @@
         <v>9.19</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
@@ -5060,7 +5633,7 @@
         <v>9.2</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -5068,10 +5641,10 @@
         <v>9.23</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
@@ -5079,7 +5652,7 @@
         <v>9.24</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -5087,7 +5660,7 @@
         <v>9.25</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
@@ -5095,7 +5668,7 @@
         <v>10.8</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
@@ -5103,7 +5676,7 @@
         <v>10.15</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
@@ -5111,7 +5684,7 @@
         <v>10.16</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
@@ -5119,7 +5692,7 @@
         <v>10.24</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
@@ -5127,7 +5700,7 @@
         <v>10.28</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
@@ -5135,7 +5708,7 @@
         <v>10.31</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
@@ -5143,7 +5716,7 @@
         <v>11.4</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
@@ -5151,7 +5724,7 @@
         <v>11.4</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
@@ -5159,7 +5732,7 @@
         <v>11.6</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:2">
@@ -5167,7 +5740,7 @@
         <v>11.7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
@@ -5175,7 +5748,7 @@
         <v>11.12</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
@@ -5183,7 +5756,7 @@
         <v>11.12</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
@@ -5191,7 +5764,7 @@
         <v>11.14</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
@@ -5199,7 +5772,39 @@
         <v>11.19</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A42" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43">
+        <v>12.5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44">
+        <v>12.5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45">
+        <v>12.6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5227,13 +5832,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5244,102 +5849,102 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
     </row>
     <ro